--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>smiles</t>
   </si>
@@ -166,12 +166,6 @@
     <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(I)cc1)C</t>
-  </si>
-  <si>
-    <t>JZJWCDQGIPQBAO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(c1ccc(C(F)(F)F)cc1)C</t>
   </si>
   <si>
@@ -446,12 +440,6 @@
   </si>
   <si>
     <t>RRRLNSBRKAMGPF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
-  </si>
-  <si>
-    <t>QTGQNPULXWGQBL-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(COc1ccccc1)C</t>
@@ -3741,82 +3729,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="104070150"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 84" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="105336975"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Picture 85" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="106603800"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4114,7 +4026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4824,13 +4736,13 @@
         <v>67</v>
       </c>
       <c r="D31">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E31">
         <v>0.59899</v>
       </c>
       <c r="F31">
-        <v>-2.752430839032114</v>
+        <v>-2.506528426687459</v>
       </c>
       <c r="G31">
         <v>-2.752430839032114</v>
@@ -4847,13 +4759,13 @@
         <v>69</v>
       </c>
       <c r="D32">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="E32">
         <v>0.59899</v>
       </c>
       <c r="F32">
-        <v>-2.506528426687459</v>
+        <v>-2.331161440365284</v>
       </c>
       <c r="G32">
         <v>-2.752430839032114</v>
@@ -4870,13 +4782,13 @@
         <v>71</v>
       </c>
       <c r="D33">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E33">
         <v>0.59899</v>
       </c>
       <c r="F33">
-        <v>-2.331161440365284</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G33">
         <v>-2.752430839032114</v>
@@ -4939,13 +4851,13 @@
         <v>77</v>
       </c>
       <c r="D36">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>0.59899</v>
       </c>
       <c r="F36">
-        <v>-2.752430839032114</v>
+        <v>2.331161440365284</v>
       </c>
       <c r="G36">
         <v>-2.752430839032114</v>
@@ -4962,13 +4874,13 @@
         <v>79</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>0.59899</v>
       </c>
       <c r="F37">
-        <v>2.331161440365284</v>
+        <v>2.08214835422443</v>
       </c>
       <c r="G37">
         <v>-2.752430839032114</v>
@@ -5008,13 +4920,13 @@
         <v>83</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>0.59899</v>
       </c>
       <c r="F39">
-        <v>2.08214835422443</v>
+        <v>2.331161440365284</v>
       </c>
       <c r="G39">
         <v>-2.752430839032114</v>
@@ -5031,13 +4943,13 @@
         <v>85</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E40">
         <v>0.59899</v>
       </c>
       <c r="F40">
-        <v>2.331161440365284</v>
+        <v>1.986718076069495</v>
       </c>
       <c r="G40">
         <v>-2.752430839032114</v>
@@ -5054,13 +4966,13 @@
         <v>87</v>
       </c>
       <c r="D41">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="E41">
         <v>0.59899</v>
       </c>
       <c r="F41">
-        <v>1.986718076069495</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="G41">
         <v>-2.752430839032114</v>
@@ -5100,13 +5012,13 @@
         <v>91</v>
       </c>
       <c r="D43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>0.59899</v>
       </c>
       <c r="F43">
-        <v>2.506528426687457</v>
+        <v>2.331161440365284</v>
       </c>
       <c r="G43">
         <v>-2.752430839032114</v>
@@ -5123,13 +5035,13 @@
         <v>93</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0.59899</v>
       </c>
       <c r="F44">
-        <v>2.331161440365284</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="G44">
         <v>-2.752430839032114</v>
@@ -5169,13 +5081,13 @@
         <v>97</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E46">
         <v>0.59899</v>
       </c>
       <c r="F46">
-        <v>2.752430839032118</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G46">
         <v>-2.752430839032114</v>
@@ -5238,13 +5150,13 @@
         <v>103</v>
       </c>
       <c r="D49">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E49">
         <v>0.59899</v>
       </c>
       <c r="F49">
-        <v>-2.752430839032114</v>
+        <v>-2.506528426687459</v>
       </c>
       <c r="G49">
         <v>-2.752430839032114</v>
@@ -5261,13 +5173,13 @@
         <v>105</v>
       </c>
       <c r="D50">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E50">
         <v>0.59899</v>
       </c>
       <c r="F50">
-        <v>-2.506528426687459</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G50">
         <v>-2.752430839032114</v>
@@ -5284,13 +5196,13 @@
         <v>107</v>
       </c>
       <c r="D51">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E51">
         <v>0.59899</v>
       </c>
       <c r="F51">
-        <v>-2.752430839032114</v>
+        <v>-2.331161440365284</v>
       </c>
       <c r="G51">
         <v>-2.752430839032114</v>
@@ -5307,13 +5219,13 @@
         <v>109</v>
       </c>
       <c r="D52">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E52">
         <v>0.59899</v>
       </c>
       <c r="F52">
-        <v>-2.331161440365284</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G52">
         <v>-2.752430839032114</v>
@@ -5330,13 +5242,13 @@
         <v>111</v>
       </c>
       <c r="D53">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E53">
         <v>0.59899</v>
       </c>
       <c r="F53">
-        <v>-2.752430839032114</v>
+        <v>-2.331161440365284</v>
       </c>
       <c r="G53">
         <v>-2.752430839032114</v>
@@ -5353,13 +5265,13 @@
         <v>113</v>
       </c>
       <c r="D54">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>-2.331161440365284</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G54">
         <v>-2.752430839032114</v>
@@ -5399,13 +5311,13 @@
         <v>117</v>
       </c>
       <c r="D56">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E56">
         <v>0.59899</v>
       </c>
       <c r="F56">
-        <v>-2.752430839032114</v>
+        <v>-2.082148354224433</v>
       </c>
       <c r="G56">
         <v>-2.752430839032114</v>
@@ -5422,13 +5334,13 @@
         <v>119</v>
       </c>
       <c r="D57">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E57">
         <v>0.59899</v>
       </c>
       <c r="F57">
-        <v>-2.082148354224433</v>
+        <v>-2.194436790415199</v>
       </c>
       <c r="G57">
         <v>-2.752430839032114</v>
@@ -5445,13 +5357,13 @@
         <v>121</v>
       </c>
       <c r="D58">
-        <v>97.5</v>
+        <v>92.5</v>
       </c>
       <c r="E58">
         <v>0.59899</v>
       </c>
       <c r="F58">
-        <v>-2.194436790415199</v>
+        <v>-1.504845945705453</v>
       </c>
       <c r="G58">
         <v>-2.752430839032114</v>
@@ -5468,13 +5380,13 @@
         <v>123</v>
       </c>
       <c r="D59">
-        <v>92.5</v>
+        <v>96</v>
       </c>
       <c r="E59">
         <v>0.59899</v>
       </c>
       <c r="F59">
-        <v>-1.504845945705453</v>
+        <v>-1.903622463840115</v>
       </c>
       <c r="G59">
         <v>-2.752430839032114</v>
@@ -5491,13 +5403,13 @@
         <v>125</v>
       </c>
       <c r="D60">
-        <v>96</v>
+        <v>90.5</v>
       </c>
       <c r="E60">
         <v>0.59899</v>
       </c>
       <c r="F60">
-        <v>-1.903622463840115</v>
+        <v>-1.35015823262701</v>
       </c>
       <c r="G60">
         <v>-2.752430839032114</v>
@@ -5514,13 +5426,13 @@
         <v>127</v>
       </c>
       <c r="D61">
-        <v>90.5</v>
+        <v>3.5</v>
       </c>
       <c r="E61">
         <v>0.59899</v>
       </c>
       <c r="F61">
-        <v>-1.35015823262701</v>
+        <v>1.986718076069495</v>
       </c>
       <c r="G61">
         <v>-2.752430839032114</v>
@@ -5537,13 +5449,13 @@
         <v>129</v>
       </c>
       <c r="D62">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0.59899</v>
       </c>
       <c r="F62">
-        <v>1.986718076069495</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="G62">
         <v>-2.752430839032114</v>
@@ -5560,13 +5472,13 @@
         <v>131</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E63">
         <v>0.59899</v>
       </c>
       <c r="F63">
-        <v>2.752430839032118</v>
+        <v>2.194436790415197</v>
       </c>
       <c r="G63">
         <v>-2.752430839032114</v>
@@ -5583,13 +5495,13 @@
         <v>133</v>
       </c>
       <c r="D64">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0.59899</v>
       </c>
       <c r="F64">
-        <v>2.194436790415197</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="G64">
         <v>-2.752430839032114</v>
@@ -5629,13 +5541,13 @@
         <v>137</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E66">
         <v>0.59899</v>
       </c>
       <c r="F66">
-        <v>2.752430839032118</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="G66">
         <v>-2.752430839032114</v>
@@ -5652,13 +5564,13 @@
         <v>139</v>
       </c>
       <c r="D67">
-        <v>1.5</v>
+        <v>98.75</v>
       </c>
       <c r="E67">
         <v>0.59899</v>
       </c>
       <c r="F67">
-        <v>2.506528426687457</v>
+        <v>-2.617255569149218</v>
       </c>
       <c r="G67">
         <v>-2.752430839032114</v>
@@ -5675,13 +5587,13 @@
         <v>141</v>
       </c>
       <c r="D68">
-        <v>98.75</v>
+        <v>96</v>
       </c>
       <c r="E68">
         <v>0.59899</v>
       </c>
       <c r="F68">
-        <v>-2.617255569149218</v>
+        <v>-1.903622463840115</v>
       </c>
       <c r="G68">
         <v>-2.752430839032114</v>
@@ -5698,13 +5610,13 @@
         <v>143</v>
       </c>
       <c r="D69">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E69">
         <v>0.59899</v>
       </c>
       <c r="F69">
-        <v>-1.903622463840115</v>
+        <v>-1.316115549578622</v>
       </c>
       <c r="G69">
         <v>-2.752430839032114</v>
@@ -5744,13 +5656,13 @@
         <v>147</v>
       </c>
       <c r="D71">
-        <v>90</v>
+        <v>2.5</v>
       </c>
       <c r="E71">
         <v>0.59899</v>
       </c>
       <c r="F71">
-        <v>-1.316115549578622</v>
+        <v>2.194436790415197</v>
       </c>
       <c r="G71">
         <v>-2.752430839032114</v>
@@ -5767,13 +5679,13 @@
         <v>149</v>
       </c>
       <c r="D72">
-        <v>99</v>
+        <v>31.5</v>
       </c>
       <c r="E72">
         <v>0.59899</v>
       </c>
       <c r="F72">
-        <v>-2.752430839032114</v>
+        <v>0.4653231050005244</v>
       </c>
       <c r="G72">
         <v>-2.752430839032114</v>
@@ -5790,13 +5702,13 @@
         <v>151</v>
       </c>
       <c r="D73">
-        <v>2.5</v>
+        <v>98.5</v>
       </c>
       <c r="E73">
         <v>0.59899</v>
       </c>
       <c r="F73">
-        <v>2.194436790415197</v>
+        <v>-2.506528426687459</v>
       </c>
       <c r="G73">
         <v>-2.752430839032114</v>
@@ -5813,13 +5725,13 @@
         <v>153</v>
       </c>
       <c r="D74">
-        <v>31.5</v>
+        <v>93</v>
       </c>
       <c r="E74">
         <v>0.59899</v>
       </c>
       <c r="F74">
-        <v>0.4653231050005244</v>
+        <v>-1.549401050221227</v>
       </c>
       <c r="G74">
         <v>-2.752430839032114</v>
@@ -5836,13 +5748,13 @@
         <v>155</v>
       </c>
       <c r="D75">
-        <v>98.5</v>
+        <v>71</v>
       </c>
       <c r="E75">
         <v>0.59899</v>
       </c>
       <c r="F75">
-        <v>-2.506528426687459</v>
+        <v>-0.5363260903453796</v>
       </c>
       <c r="G75">
         <v>-2.752430839032114</v>
@@ -5859,13 +5771,13 @@
         <v>157</v>
       </c>
       <c r="D76">
-        <v>93</v>
+        <v>98.5</v>
       </c>
       <c r="E76">
         <v>0.59899</v>
       </c>
       <c r="F76">
-        <v>-1.549401050221227</v>
+        <v>-2.506528426687459</v>
       </c>
       <c r="G76">
         <v>-2.752430839032114</v>
@@ -5882,13 +5794,13 @@
         <v>159</v>
       </c>
       <c r="D77">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E77">
         <v>0.59899</v>
       </c>
       <c r="F77">
-        <v>-0.5363260903453796</v>
+        <v>-1.763689504130907</v>
       </c>
       <c r="G77">
         <v>-2.752430839032114</v>
@@ -5905,13 +5817,13 @@
         <v>161</v>
       </c>
       <c r="D78">
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="E78">
         <v>0.59899</v>
       </c>
       <c r="F78">
-        <v>-2.506528426687459</v>
+        <v>-2.082148354224433</v>
       </c>
       <c r="G78">
         <v>-2.752430839032114</v>
@@ -5928,13 +5840,13 @@
         <v>163</v>
       </c>
       <c r="D79">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="E79">
         <v>0.59899</v>
       </c>
       <c r="F79">
-        <v>-1.763689504130907</v>
+        <v>-1.829943711087029</v>
       </c>
       <c r="G79">
         <v>-2.752430839032114</v>
@@ -5951,13 +5863,13 @@
         <v>165</v>
       </c>
       <c r="D80">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="E80">
         <v>0.59899</v>
       </c>
       <c r="F80">
-        <v>-2.082148354224433</v>
+        <v>-1.986718076069497</v>
       </c>
       <c r="G80">
         <v>-2.752430839032114</v>
@@ -5974,13 +5886,13 @@
         <v>167</v>
       </c>
       <c r="D81">
-        <v>95.5</v>
+        <v>99</v>
       </c>
       <c r="E81">
         <v>0.59899</v>
       </c>
       <c r="F81">
-        <v>-1.829943711087029</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G81">
         <v>-2.752430839032114</v>
@@ -5997,13 +5909,13 @@
         <v>169</v>
       </c>
       <c r="D82">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="E82">
         <v>0.59899</v>
       </c>
       <c r="F82">
-        <v>-1.986718076069497</v>
+        <v>-2.082148354224433</v>
       </c>
       <c r="G82">
         <v>-2.752430839032114</v>
@@ -6043,64 +5955,18 @@
         <v>173</v>
       </c>
       <c r="D84">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E84">
         <v>0.59899</v>
       </c>
       <c r="F84">
-        <v>-2.082148354224433</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G84">
         <v>-2.752430839032114</v>
       </c>
       <c r="H84">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="100" customHeight="1">
-      <c r="A85" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85" t="s">
-        <v>175</v>
-      </c>
-      <c r="D85">
-        <v>99</v>
-      </c>
-      <c r="E85">
-        <v>0.59899</v>
-      </c>
-      <c r="F85">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G85">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H85">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="100" customHeight="1">
-      <c r="A86" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" t="s">
-        <v>177</v>
-      </c>
-      <c r="D86">
-        <v>99</v>
-      </c>
-      <c r="E86">
-        <v>0.59899</v>
-      </c>
-      <c r="F86">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G86">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H86">
         <v>2.752430839032118</v>
       </c>
     </row>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>smiles</t>
   </si>
@@ -242,30 +242,6 @@
   </si>
   <si>
     <t>VUGQIIQFXCXZJU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)(F))c1ccccc1</t>
-  </si>
-  <si>
-    <t>KZJRKRQSDZGHEC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)(F))c1ccc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>DYPQUENOGZXOGE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)(F))c1ccc(Br)cc1</t>
-  </si>
-  <si>
-    <t>IHGSAQHSAGRWNI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)(F))c1ccc(OC)cc1</t>
-  </si>
-  <si>
-    <t>NCJZVRPXSSYDBG-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1ccccc1C)c1ccccc1</t>
@@ -3577,158 +3553,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="99002850"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="100269675"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="101536500"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="102803325"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="104070150"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4026,7 +3850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4851,13 +4675,13 @@
         <v>77</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E36">
         <v>0.59899</v>
       </c>
       <c r="F36">
-        <v>2.331161440365284</v>
+        <v>1.986718076069495</v>
       </c>
       <c r="G36">
         <v>-2.752430839032114</v>
@@ -4874,13 +4698,13 @@
         <v>79</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E37">
         <v>0.59899</v>
       </c>
       <c r="F37">
-        <v>2.08214835422443</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="G37">
         <v>-2.752430839032114</v>
@@ -4897,13 +4721,13 @@
         <v>81</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E38">
         <v>0.59899</v>
       </c>
       <c r="F38">
-        <v>2.08214835422443</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="G38">
         <v>-2.752430839032114</v>
@@ -4943,13 +4767,13 @@
         <v>85</v>
       </c>
       <c r="D40">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0.59899</v>
       </c>
       <c r="F40">
-        <v>1.986718076069495</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="G40">
         <v>-2.752430839032114</v>
@@ -4966,13 +4790,13 @@
         <v>87</v>
       </c>
       <c r="D41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0.59899</v>
       </c>
       <c r="F41">
-        <v>2.506528426687457</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="G41">
         <v>-2.752430839032114</v>
@@ -4989,13 +4813,13 @@
         <v>89</v>
       </c>
       <c r="D42">
-        <v>1.5</v>
+        <v>99</v>
       </c>
       <c r="E42">
         <v>0.59899</v>
       </c>
       <c r="F42">
-        <v>2.506528426687457</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G42">
         <v>-2.752430839032114</v>
@@ -5012,13 +4836,13 @@
         <v>91</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <v>0.59899</v>
       </c>
       <c r="F43">
-        <v>2.331161440365284</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G43">
         <v>-2.752430839032114</v>
@@ -5035,13 +4859,13 @@
         <v>93</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E44">
         <v>0.59899</v>
       </c>
       <c r="F44">
-        <v>2.752430839032118</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G44">
         <v>-2.752430839032114</v>
@@ -5058,13 +4882,13 @@
         <v>95</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>98.5</v>
       </c>
       <c r="E45">
         <v>0.59899</v>
       </c>
       <c r="F45">
-        <v>2.752430839032118</v>
+        <v>-2.506528426687459</v>
       </c>
       <c r="G45">
         <v>-2.752430839032114</v>
@@ -5104,13 +4928,13 @@
         <v>99</v>
       </c>
       <c r="D47">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47">
         <v>0.59899</v>
       </c>
       <c r="F47">
-        <v>-2.752430839032114</v>
+        <v>-2.331161440365284</v>
       </c>
       <c r="G47">
         <v>-2.752430839032114</v>
@@ -5150,13 +4974,13 @@
         <v>103</v>
       </c>
       <c r="D49">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="E49">
         <v>0.59899</v>
       </c>
       <c r="F49">
-        <v>-2.506528426687459</v>
+        <v>-2.331161440365284</v>
       </c>
       <c r="G49">
         <v>-2.752430839032114</v>
@@ -5196,13 +5020,13 @@
         <v>107</v>
       </c>
       <c r="D51">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E51">
         <v>0.59899</v>
       </c>
       <c r="F51">
-        <v>-2.331161440365284</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G51">
         <v>-2.752430839032114</v>
@@ -5219,13 +5043,13 @@
         <v>109</v>
       </c>
       <c r="D52">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E52">
         <v>0.59899</v>
       </c>
       <c r="F52">
-        <v>-2.752430839032114</v>
+        <v>-2.082148354224433</v>
       </c>
       <c r="G52">
         <v>-2.752430839032114</v>
@@ -5242,13 +5066,13 @@
         <v>111</v>
       </c>
       <c r="D53">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="E53">
         <v>0.59899</v>
       </c>
       <c r="F53">
-        <v>-2.331161440365284</v>
+        <v>-2.194436790415199</v>
       </c>
       <c r="G53">
         <v>-2.752430839032114</v>
@@ -5265,13 +5089,13 @@
         <v>113</v>
       </c>
       <c r="D54">
-        <v>99</v>
+        <v>92.5</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>-2.752430839032114</v>
+        <v>-1.504845945705453</v>
       </c>
       <c r="G54">
         <v>-2.752430839032114</v>
@@ -5288,13 +5112,13 @@
         <v>115</v>
       </c>
       <c r="D55">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>-2.752430839032114</v>
+        <v>-1.903622463840115</v>
       </c>
       <c r="G55">
         <v>-2.752430839032114</v>
@@ -5311,13 +5135,13 @@
         <v>117</v>
       </c>
       <c r="D56">
-        <v>97</v>
+        <v>90.5</v>
       </c>
       <c r="E56">
         <v>0.59899</v>
       </c>
       <c r="F56">
-        <v>-2.082148354224433</v>
+        <v>-1.35015823262701</v>
       </c>
       <c r="G56">
         <v>-2.752430839032114</v>
@@ -5334,13 +5158,13 @@
         <v>119</v>
       </c>
       <c r="D57">
-        <v>97.5</v>
+        <v>3.5</v>
       </c>
       <c r="E57">
         <v>0.59899</v>
       </c>
       <c r="F57">
-        <v>-2.194436790415199</v>
+        <v>1.986718076069495</v>
       </c>
       <c r="G57">
         <v>-2.752430839032114</v>
@@ -5357,13 +5181,13 @@
         <v>121</v>
       </c>
       <c r="D58">
-        <v>92.5</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0.59899</v>
       </c>
       <c r="F58">
-        <v>-1.504845945705453</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="G58">
         <v>-2.752430839032114</v>
@@ -5380,13 +5204,13 @@
         <v>123</v>
       </c>
       <c r="D59">
-        <v>96</v>
+        <v>2.5</v>
       </c>
       <c r="E59">
         <v>0.59899</v>
       </c>
       <c r="F59">
-        <v>-1.903622463840115</v>
+        <v>2.194436790415197</v>
       </c>
       <c r="G59">
         <v>-2.752430839032114</v>
@@ -5403,13 +5227,13 @@
         <v>125</v>
       </c>
       <c r="D60">
-        <v>90.5</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0.59899</v>
       </c>
       <c r="F60">
-        <v>-1.35015823262701</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="G60">
         <v>-2.752430839032114</v>
@@ -5426,13 +5250,13 @@
         <v>127</v>
       </c>
       <c r="D61">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0.59899</v>
       </c>
       <c r="F61">
-        <v>1.986718076069495</v>
+        <v>2.752430839032118</v>
       </c>
       <c r="G61">
         <v>-2.752430839032114</v>
@@ -5449,13 +5273,13 @@
         <v>129</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E62">
         <v>0.59899</v>
       </c>
       <c r="F62">
-        <v>2.752430839032118</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="G62">
         <v>-2.752430839032114</v>
@@ -5472,13 +5296,13 @@
         <v>131</v>
       </c>
       <c r="D63">
-        <v>2.5</v>
+        <v>98.75</v>
       </c>
       <c r="E63">
         <v>0.59899</v>
       </c>
       <c r="F63">
-        <v>2.194436790415197</v>
+        <v>-2.617255569149218</v>
       </c>
       <c r="G63">
         <v>-2.752430839032114</v>
@@ -5495,13 +5319,13 @@
         <v>133</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E64">
         <v>0.59899</v>
       </c>
       <c r="F64">
-        <v>2.752430839032118</v>
+        <v>-1.903622463840115</v>
       </c>
       <c r="G64">
         <v>-2.752430839032114</v>
@@ -5518,13 +5342,13 @@
         <v>135</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E65">
         <v>0.59899</v>
       </c>
       <c r="F65">
-        <v>2.752430839032118</v>
+        <v>-1.316115549578622</v>
       </c>
       <c r="G65">
         <v>-2.752430839032114</v>
@@ -5541,13 +5365,13 @@
         <v>137</v>
       </c>
       <c r="D66">
-        <v>1.5</v>
+        <v>99</v>
       </c>
       <c r="E66">
         <v>0.59899</v>
       </c>
       <c r="F66">
-        <v>2.506528426687457</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G66">
         <v>-2.752430839032114</v>
@@ -5564,13 +5388,13 @@
         <v>139</v>
       </c>
       <c r="D67">
-        <v>98.75</v>
+        <v>2.5</v>
       </c>
       <c r="E67">
         <v>0.59899</v>
       </c>
       <c r="F67">
-        <v>-2.617255569149218</v>
+        <v>2.194436790415197</v>
       </c>
       <c r="G67">
         <v>-2.752430839032114</v>
@@ -5587,13 +5411,13 @@
         <v>141</v>
       </c>
       <c r="D68">
-        <v>96</v>
+        <v>31.5</v>
       </c>
       <c r="E68">
         <v>0.59899</v>
       </c>
       <c r="F68">
-        <v>-1.903622463840115</v>
+        <v>0.4653231050005244</v>
       </c>
       <c r="G68">
         <v>-2.752430839032114</v>
@@ -5610,13 +5434,13 @@
         <v>143</v>
       </c>
       <c r="D69">
-        <v>90</v>
+        <v>98.5</v>
       </c>
       <c r="E69">
         <v>0.59899</v>
       </c>
       <c r="F69">
-        <v>-1.316115549578622</v>
+        <v>-2.506528426687459</v>
       </c>
       <c r="G69">
         <v>-2.752430839032114</v>
@@ -5633,13 +5457,13 @@
         <v>145</v>
       </c>
       <c r="D70">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E70">
         <v>0.59899</v>
       </c>
       <c r="F70">
-        <v>-2.752430839032114</v>
+        <v>-1.549401050221227</v>
       </c>
       <c r="G70">
         <v>-2.752430839032114</v>
@@ -5656,13 +5480,13 @@
         <v>147</v>
       </c>
       <c r="D71">
-        <v>2.5</v>
+        <v>71</v>
       </c>
       <c r="E71">
         <v>0.59899</v>
       </c>
       <c r="F71">
-        <v>2.194436790415197</v>
+        <v>-0.5363260903453796</v>
       </c>
       <c r="G71">
         <v>-2.752430839032114</v>
@@ -5679,13 +5503,13 @@
         <v>149</v>
       </c>
       <c r="D72">
-        <v>31.5</v>
+        <v>98.5</v>
       </c>
       <c r="E72">
         <v>0.59899</v>
       </c>
       <c r="F72">
-        <v>0.4653231050005244</v>
+        <v>-2.506528426687459</v>
       </c>
       <c r="G72">
         <v>-2.752430839032114</v>
@@ -5702,13 +5526,13 @@
         <v>151</v>
       </c>
       <c r="D73">
-        <v>98.5</v>
+        <v>95</v>
       </c>
       <c r="E73">
         <v>0.59899</v>
       </c>
       <c r="F73">
-        <v>-2.506528426687459</v>
+        <v>-1.763689504130907</v>
       </c>
       <c r="G73">
         <v>-2.752430839032114</v>
@@ -5725,13 +5549,13 @@
         <v>153</v>
       </c>
       <c r="D74">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E74">
         <v>0.59899</v>
       </c>
       <c r="F74">
-        <v>-1.549401050221227</v>
+        <v>-2.082148354224433</v>
       </c>
       <c r="G74">
         <v>-2.752430839032114</v>
@@ -5748,13 +5572,13 @@
         <v>155</v>
       </c>
       <c r="D75">
-        <v>71</v>
+        <v>95.5</v>
       </c>
       <c r="E75">
         <v>0.59899</v>
       </c>
       <c r="F75">
-        <v>-0.5363260903453796</v>
+        <v>-1.829943711087029</v>
       </c>
       <c r="G75">
         <v>-2.752430839032114</v>
@@ -5771,13 +5595,13 @@
         <v>157</v>
       </c>
       <c r="D76">
-        <v>98.5</v>
+        <v>96.5</v>
       </c>
       <c r="E76">
         <v>0.59899</v>
       </c>
       <c r="F76">
-        <v>-2.506528426687459</v>
+        <v>-1.986718076069497</v>
       </c>
       <c r="G76">
         <v>-2.752430839032114</v>
@@ -5794,13 +5618,13 @@
         <v>159</v>
       </c>
       <c r="D77">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E77">
         <v>0.59899</v>
       </c>
       <c r="F77">
-        <v>-1.763689504130907</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G77">
         <v>-2.752430839032114</v>
@@ -5840,13 +5664,13 @@
         <v>163</v>
       </c>
       <c r="D79">
-        <v>95.5</v>
+        <v>99</v>
       </c>
       <c r="E79">
         <v>0.59899</v>
       </c>
       <c r="F79">
-        <v>-1.829943711087029</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G79">
         <v>-2.752430839032114</v>
@@ -5863,110 +5687,18 @@
         <v>165</v>
       </c>
       <c r="D80">
-        <v>96.5</v>
+        <v>99</v>
       </c>
       <c r="E80">
         <v>0.59899</v>
       </c>
       <c r="F80">
-        <v>-1.986718076069497</v>
+        <v>-2.752430839032114</v>
       </c>
       <c r="G80">
         <v>-2.752430839032114</v>
       </c>
       <c r="H80">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="100" customHeight="1">
-      <c r="A81" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81">
-        <v>99</v>
-      </c>
-      <c r="E81">
-        <v>0.59899</v>
-      </c>
-      <c r="F81">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G81">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H81">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="100" customHeight="1">
-      <c r="A82" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82">
-        <v>97</v>
-      </c>
-      <c r="E82">
-        <v>0.59899</v>
-      </c>
-      <c r="F82">
-        <v>-2.082148354224433</v>
-      </c>
-      <c r="G82">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H82">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="100" customHeight="1">
-      <c r="A83" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" t="s">
-        <v>171</v>
-      </c>
-      <c r="D83">
-        <v>99</v>
-      </c>
-      <c r="E83">
-        <v>0.59899</v>
-      </c>
-      <c r="F83">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G83">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H83">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="100" customHeight="1">
-      <c r="A84" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" t="s">
-        <v>173</v>
-      </c>
-      <c r="D84">
-        <v>99</v>
-      </c>
-      <c r="E84">
-        <v>0.59899</v>
-      </c>
-      <c r="F84">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G84">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H84">
         <v>2.752430839032118</v>
       </c>
     </row>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>smiles</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>ΔΔG.expt.</t>
-  </si>
-  <si>
-    <t>ΔΔminG.expt.</t>
-  </si>
-  <si>
-    <t>ΔΔmaxG.expt.</t>
   </si>
   <si>
     <t>c1ccccc1C(=O)C</t>
@@ -3850,7 +3844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3859,7 +3853,7 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3878,88 +3872,64 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="100" customHeight="1">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="100" customHeight="1">
-      <c r="A2" t="s">
+      <c r="D2">
+        <v>99.5</v>
+      </c>
+      <c r="E2">
+        <v>0.59899</v>
+      </c>
+      <c r="F2">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="100" customHeight="1">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>99</v>
-      </c>
-      <c r="E2">
-        <v>0.59899</v>
-      </c>
-      <c r="F2">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G2">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H2">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="100" customHeight="1">
-      <c r="A3" t="s">
+      <c r="D3">
+        <v>99.5</v>
+      </c>
+      <c r="E3">
+        <v>0.59899</v>
+      </c>
+      <c r="F3">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="100" customHeight="1">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>99</v>
-      </c>
-      <c r="E3">
-        <v>0.59899</v>
-      </c>
-      <c r="F3">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G3">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H3">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="100" customHeight="1">
-      <c r="A4" t="s">
+      <c r="D4">
+        <v>99.5</v>
+      </c>
+      <c r="E4">
+        <v>0.59899</v>
+      </c>
+      <c r="F4">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="100" customHeight="1">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="D4">
-        <v>99</v>
-      </c>
-      <c r="E4">
-        <v>0.59899</v>
-      </c>
-      <c r="F4">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G4">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H4">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="100" customHeight="1">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5">
         <v>98</v>
@@ -3970,42 +3940,30 @@
       <c r="F5">
         <v>-2.331161440365284</v>
       </c>
-      <c r="G5">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H5">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="6" spans="1:6" ht="100" customHeight="1">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>99.5</v>
+      </c>
+      <c r="E6">
+        <v>0.59899</v>
+      </c>
+      <c r="F6">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="100" customHeight="1">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="D6">
-        <v>99</v>
-      </c>
-      <c r="E6">
-        <v>0.59899</v>
-      </c>
-      <c r="F6">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G6">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H6">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="100" customHeight="1">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
       <c r="D7">
         <v>98.5</v>
@@ -4016,19 +3974,13 @@
       <c r="F7">
         <v>-2.506528426687459</v>
       </c>
-      <c r="G7">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H7">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="8" spans="1:6" ht="100" customHeight="1">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>99</v>
@@ -4039,19 +3991,13 @@
       <c r="F8">
         <v>-2.752430839032114</v>
       </c>
-      <c r="G8">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H8">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="9" spans="1:6" ht="100" customHeight="1">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>98</v>
@@ -4062,42 +4008,30 @@
       <c r="F9">
         <v>-2.331161440365284</v>
       </c>
-      <c r="G9">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H9">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="10" spans="1:6" ht="100" customHeight="1">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>99.5</v>
+      </c>
+      <c r="E10">
+        <v>0.59899</v>
+      </c>
+      <c r="F10">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="100" customHeight="1">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="D10">
-        <v>99</v>
-      </c>
-      <c r="E10">
-        <v>0.59899</v>
-      </c>
-      <c r="F10">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G10">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H10">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="100" customHeight="1">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11">
         <v>96</v>
@@ -4108,19 +4042,13 @@
       <c r="F11">
         <v>-1.903622463840115</v>
       </c>
-      <c r="G11">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H11">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="12" spans="1:6" ht="100" customHeight="1">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>99</v>
@@ -4131,42 +4059,30 @@
       <c r="F12">
         <v>-2.752430839032114</v>
       </c>
-      <c r="G12">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H12">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="13" spans="1:6" ht="100" customHeight="1">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>99.75</v>
+      </c>
+      <c r="E13">
+        <v>0.59899</v>
+      </c>
+      <c r="F13">
+        <v>-3.587327999102873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="100" customHeight="1">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>31</v>
-      </c>
-      <c r="D13">
-        <v>99</v>
-      </c>
-      <c r="E13">
-        <v>0.59899</v>
-      </c>
-      <c r="F13">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G13">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H13">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="100" customHeight="1">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
       <c r="D14">
         <v>99</v>
@@ -4177,88 +4093,64 @@
       <c r="F14">
         <v>-2.752430839032114</v>
       </c>
-      <c r="G14">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H14">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="15" spans="1:6" ht="100" customHeight="1">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>99.75</v>
+      </c>
+      <c r="E15">
+        <v>0.59899</v>
+      </c>
+      <c r="F15">
+        <v>-3.587327999102873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="100" customHeight="1">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="D15">
-        <v>99</v>
-      </c>
-      <c r="E15">
-        <v>0.59899</v>
-      </c>
-      <c r="F15">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G15">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H15">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="100" customHeight="1">
-      <c r="A16" t="s">
+      <c r="D16">
+        <v>99.5</v>
+      </c>
+      <c r="E16">
+        <v>0.59899</v>
+      </c>
+      <c r="F16">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="100" customHeight="1">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D16">
-        <v>99</v>
-      </c>
-      <c r="E16">
-        <v>0.59899</v>
-      </c>
-      <c r="F16">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G16">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H16">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="100" customHeight="1">
-      <c r="A17" t="s">
+      <c r="D17">
+        <v>99.5</v>
+      </c>
+      <c r="E17">
+        <v>0.59899</v>
+      </c>
+      <c r="F17">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="100" customHeight="1">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>39</v>
-      </c>
-      <c r="D17">
-        <v>99</v>
-      </c>
-      <c r="E17">
-        <v>0.59899</v>
-      </c>
-      <c r="F17">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G17">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H17">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="100" customHeight="1">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
       </c>
       <c r="D18">
         <v>99</v>
@@ -4269,19 +4161,13 @@
       <c r="F18">
         <v>-2.752430839032114</v>
       </c>
-      <c r="G18">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H18">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="19" spans="1:6" ht="100" customHeight="1">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>99</v>
@@ -4292,19 +4178,13 @@
       <c r="F19">
         <v>-2.752430839032114</v>
       </c>
-      <c r="G19">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H19">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="20" spans="1:6" ht="100" customHeight="1">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>98.5</v>
@@ -4315,19 +4195,13 @@
       <c r="F20">
         <v>-2.506528426687459</v>
       </c>
-      <c r="G20">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H20">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="21" spans="1:6" ht="100" customHeight="1">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>98.5</v>
@@ -4338,226 +4212,166 @@
       <c r="F21">
         <v>-2.506528426687459</v>
       </c>
-      <c r="G21">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H21">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="22" spans="1:6" ht="100" customHeight="1">
       <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>99.75</v>
+      </c>
+      <c r="E22">
+        <v>0.59899</v>
+      </c>
+      <c r="F22">
+        <v>-3.587327999102873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="100" customHeight="1">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D22">
-        <v>99</v>
-      </c>
-      <c r="E22">
-        <v>0.59899</v>
-      </c>
-      <c r="F22">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G22">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H22">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="100" customHeight="1">
-      <c r="A23" t="s">
+      <c r="D23">
+        <v>99.75</v>
+      </c>
+      <c r="E23">
+        <v>0.59899</v>
+      </c>
+      <c r="F23">
+        <v>-3.587327999102873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="100" customHeight="1">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="D23">
-        <v>99</v>
-      </c>
-      <c r="E23">
-        <v>0.59899</v>
-      </c>
-      <c r="F23">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G23">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H23">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="100" customHeight="1">
-      <c r="A24" t="s">
+      <c r="D24">
+        <v>99.75</v>
+      </c>
+      <c r="E24">
+        <v>0.59899</v>
+      </c>
+      <c r="F24">
+        <v>-3.587327999102873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="100" customHeight="1">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="D24">
-        <v>99</v>
-      </c>
-      <c r="E24">
-        <v>0.59899</v>
-      </c>
-      <c r="F24">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G24">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H24">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="100" customHeight="1">
-      <c r="A25" t="s">
+      <c r="D25">
+        <v>99.5</v>
+      </c>
+      <c r="E25">
+        <v>0.59899</v>
+      </c>
+      <c r="F25">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="100" customHeight="1">
+      <c r="A26" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D25">
-        <v>99</v>
-      </c>
-      <c r="E25">
-        <v>0.59899</v>
-      </c>
-      <c r="F25">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G25">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H25">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="100" customHeight="1">
-      <c r="A26" t="s">
+      <c r="D26">
+        <v>99.75</v>
+      </c>
+      <c r="E26">
+        <v>0.59899</v>
+      </c>
+      <c r="F26">
+        <v>-3.587327999102873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="100" customHeight="1">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D26">
-        <v>99</v>
-      </c>
-      <c r="E26">
-        <v>0.59899</v>
-      </c>
-      <c r="F26">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G26">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H26">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="100" customHeight="1">
-      <c r="A27" t="s">
+      <c r="D27">
+        <v>99.5</v>
+      </c>
+      <c r="E27">
+        <v>0.59899</v>
+      </c>
+      <c r="F27">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="100" customHeight="1">
+      <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D27">
-        <v>99</v>
-      </c>
-      <c r="E27">
-        <v>0.59899</v>
-      </c>
-      <c r="F27">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G27">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H27">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="100" customHeight="1">
-      <c r="A28" t="s">
+      <c r="D28">
+        <v>99.5</v>
+      </c>
+      <c r="E28">
+        <v>0.59899</v>
+      </c>
+      <c r="F28">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="100" customHeight="1">
+      <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="D28">
-        <v>99</v>
-      </c>
-      <c r="E28">
-        <v>0.59899</v>
-      </c>
-      <c r="F28">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G28">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H28">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="100" customHeight="1">
-      <c r="A29" t="s">
+      <c r="D29">
+        <v>99.5</v>
+      </c>
+      <c r="E29">
+        <v>0.59899</v>
+      </c>
+      <c r="F29">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="100" customHeight="1">
+      <c r="A30" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="D29">
-        <v>99</v>
-      </c>
-      <c r="E29">
-        <v>0.59899</v>
-      </c>
-      <c r="F29">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G29">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H29">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="100" customHeight="1">
-      <c r="A30" t="s">
+      <c r="D30">
+        <v>99.5</v>
+      </c>
+      <c r="E30">
+        <v>0.59899</v>
+      </c>
+      <c r="F30">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="100" customHeight="1">
+      <c r="A31" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>65</v>
-      </c>
-      <c r="D30">
-        <v>99</v>
-      </c>
-      <c r="E30">
-        <v>0.59899</v>
-      </c>
-      <c r="F30">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G30">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H30">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="100" customHeight="1">
-      <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
       </c>
       <c r="D31">
         <v>98.5</v>
@@ -4568,19 +4382,13 @@
       <c r="F31">
         <v>-2.506528426687459</v>
       </c>
-      <c r="G31">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H31">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="32" spans="1:6" ht="100" customHeight="1">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>98</v>
@@ -4591,42 +4399,30 @@
       <c r="F32">
         <v>-2.331161440365284</v>
       </c>
-      <c r="G32">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H32">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="33" spans="1:6" ht="100" customHeight="1">
       <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33">
+        <v>99.75</v>
+      </c>
+      <c r="E33">
+        <v>0.59899</v>
+      </c>
+      <c r="F33">
+        <v>-3.587327999102873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="100" customHeight="1">
+      <c r="A34" t="s">
         <v>70</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>71</v>
-      </c>
-      <c r="D33">
-        <v>99</v>
-      </c>
-      <c r="E33">
-        <v>0.59899</v>
-      </c>
-      <c r="F33">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G33">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H33">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="100" customHeight="1">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
       </c>
       <c r="D34">
         <v>99</v>
@@ -4637,42 +4433,30 @@
       <c r="F34">
         <v>-2.752430839032114</v>
       </c>
-      <c r="G34">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H34">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="35" spans="1:6" ht="100" customHeight="1">
       <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35">
+        <v>99.5</v>
+      </c>
+      <c r="E35">
+        <v>0.59899</v>
+      </c>
+      <c r="F35">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="100" customHeight="1">
+      <c r="A36" t="s">
         <v>74</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>75</v>
-      </c>
-      <c r="D35">
-        <v>99</v>
-      </c>
-      <c r="E35">
-        <v>0.59899</v>
-      </c>
-      <c r="F35">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G35">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H35">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="100" customHeight="1">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
       </c>
       <c r="D36">
         <v>3.5</v>
@@ -4683,19 +4467,13 @@
       <c r="F36">
         <v>1.986718076069495</v>
       </c>
-      <c r="G36">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H36">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="37" spans="1:6" ht="100" customHeight="1">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D37">
         <v>1.5</v>
@@ -4706,19 +4484,13 @@
       <c r="F37">
         <v>2.506528426687457</v>
       </c>
-      <c r="G37">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H37">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="38" spans="1:6" ht="100" customHeight="1">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <v>1.5</v>
@@ -4729,19 +4501,13 @@
       <c r="F38">
         <v>2.506528426687457</v>
       </c>
-      <c r="G38">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H38">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="39" spans="1:6" ht="100" customHeight="1">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4752,19 +4518,13 @@
       <c r="F39">
         <v>2.331161440365284</v>
       </c>
-      <c r="G39">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H39">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="40" spans="1:6" ht="100" customHeight="1">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4775,65 +4535,47 @@
       <c r="F40">
         <v>2.752430839032118</v>
       </c>
-      <c r="G40">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H40">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="41" spans="1:6" ht="100" customHeight="1">
       <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <v>0.3</v>
+      </c>
+      <c r="E41">
+        <v>0.59899</v>
+      </c>
+      <c r="F41">
+        <v>3.477818888910131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="100" customHeight="1">
+      <c r="A42" t="s">
         <v>86</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>87</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0.59899</v>
-      </c>
-      <c r="F41">
-        <v>2.752430839032118</v>
-      </c>
-      <c r="G41">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H41">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="100" customHeight="1">
-      <c r="A42" t="s">
+      <c r="D42">
+        <v>99.5</v>
+      </c>
+      <c r="E42">
+        <v>0.59899</v>
+      </c>
+      <c r="F42">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="100" customHeight="1">
+      <c r="A43" t="s">
         <v>88</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>89</v>
-      </c>
-      <c r="D42">
-        <v>99</v>
-      </c>
-      <c r="E42">
-        <v>0.59899</v>
-      </c>
-      <c r="F42">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G42">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H42">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="100" customHeight="1">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
       </c>
       <c r="D43">
         <v>99</v>
@@ -4844,42 +4586,30 @@
       <c r="F43">
         <v>-2.752430839032114</v>
       </c>
-      <c r="G43">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H43">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="44" spans="1:6" ht="100" customHeight="1">
       <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44">
+        <v>99.5</v>
+      </c>
+      <c r="E44">
+        <v>0.59899</v>
+      </c>
+      <c r="F44">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="100" customHeight="1">
+      <c r="A45" t="s">
         <v>92</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>93</v>
-      </c>
-      <c r="D44">
-        <v>99</v>
-      </c>
-      <c r="E44">
-        <v>0.59899</v>
-      </c>
-      <c r="F44">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G44">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H44">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="100" customHeight="1">
-      <c r="A45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>95</v>
       </c>
       <c r="D45">
         <v>98.5</v>
@@ -4890,42 +4620,30 @@
       <c r="F45">
         <v>-2.506528426687459</v>
       </c>
-      <c r="G45">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H45">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="46" spans="1:6" ht="100" customHeight="1">
       <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46">
+        <v>99.75</v>
+      </c>
+      <c r="E46">
+        <v>0.59899</v>
+      </c>
+      <c r="F46">
+        <v>-3.587327999102873</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="100" customHeight="1">
+      <c r="A47" t="s">
         <v>96</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>97</v>
-      </c>
-      <c r="D46">
-        <v>99</v>
-      </c>
-      <c r="E46">
-        <v>0.59899</v>
-      </c>
-      <c r="F46">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G46">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H46">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="100" customHeight="1">
-      <c r="A47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" t="s">
-        <v>99</v>
       </c>
       <c r="D47">
         <v>98</v>
@@ -4936,19 +4654,13 @@
       <c r="F47">
         <v>-2.331161440365284</v>
       </c>
-      <c r="G47">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H47">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="48" spans="1:6" ht="100" customHeight="1">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D48">
         <v>99</v>
@@ -4959,19 +4671,13 @@
       <c r="F48">
         <v>-2.752430839032114</v>
       </c>
-      <c r="G48">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H48">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="49" spans="1:6" ht="100" customHeight="1">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49">
         <v>98</v>
@@ -4982,65 +4688,47 @@
       <c r="F49">
         <v>-2.331161440365284</v>
       </c>
-      <c r="G49">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H49">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="50" spans="1:6" ht="100" customHeight="1">
       <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50">
+        <v>99.75</v>
+      </c>
+      <c r="E50">
+        <v>0.59899</v>
+      </c>
+      <c r="F50">
+        <v>-3.587327999102873</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="100" customHeight="1">
+      <c r="A51" t="s">
         <v>104</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>105</v>
       </c>
-      <c r="D50">
-        <v>99</v>
-      </c>
-      <c r="E50">
-        <v>0.59899</v>
-      </c>
-      <c r="F50">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G50">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H50">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="100" customHeight="1">
-      <c r="A51" t="s">
+      <c r="D51">
+        <v>99.75</v>
+      </c>
+      <c r="E51">
+        <v>0.59899</v>
+      </c>
+      <c r="F51">
+        <v>-3.587327999102873</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="100" customHeight="1">
+      <c r="A52" t="s">
         <v>106</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>107</v>
-      </c>
-      <c r="D51">
-        <v>99</v>
-      </c>
-      <c r="E51">
-        <v>0.59899</v>
-      </c>
-      <c r="F51">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G51">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H51">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="100" customHeight="1">
-      <c r="A52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s">
-        <v>109</v>
       </c>
       <c r="D52">
         <v>97</v>
@@ -5051,19 +4739,13 @@
       <c r="F52">
         <v>-2.082148354224433</v>
       </c>
-      <c r="G52">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H52">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="53" spans="1:6" ht="100" customHeight="1">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D53">
         <v>97.5</v>
@@ -5074,19 +4756,13 @@
       <c r="F53">
         <v>-2.194436790415199</v>
       </c>
-      <c r="G53">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H53">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="54" spans="1:6" ht="100" customHeight="1">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D54">
         <v>92.5</v>
@@ -5097,19 +4773,13 @@
       <c r="F54">
         <v>-1.504845945705453</v>
       </c>
-      <c r="G54">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H54">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="55" spans="1:6" ht="100" customHeight="1">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D55">
         <v>96</v>
@@ -5120,19 +4790,13 @@
       <c r="F55">
         <v>-1.903622463840115</v>
       </c>
-      <c r="G55">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H55">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="56" spans="1:6" ht="100" customHeight="1">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D56">
         <v>90.5</v>
@@ -5143,19 +4807,13 @@
       <c r="F56">
         <v>-1.35015823262701</v>
       </c>
-      <c r="G56">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H56">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="57" spans="1:6" ht="100" customHeight="1">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D57">
         <v>3.5</v>
@@ -5166,42 +4824,30 @@
       <c r="F57">
         <v>1.986718076069495</v>
       </c>
-      <c r="G57">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H57">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="58" spans="1:6" ht="100" customHeight="1">
       <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58">
+        <v>0.5</v>
+      </c>
+      <c r="E58">
+        <v>0.59899</v>
+      </c>
+      <c r="F58">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="100" customHeight="1">
+      <c r="A59" t="s">
         <v>120</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>121</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0.59899</v>
-      </c>
-      <c r="F58">
-        <v>2.752430839032118</v>
-      </c>
-      <c r="G58">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H58">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="100" customHeight="1">
-      <c r="A59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" t="s">
-        <v>123</v>
       </c>
       <c r="D59">
         <v>2.5</v>
@@ -5212,65 +4858,47 @@
       <c r="F59">
         <v>2.194436790415197</v>
       </c>
-      <c r="G59">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H59">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="60" spans="1:6" ht="100" customHeight="1">
       <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60">
+        <v>0.25</v>
+      </c>
+      <c r="E60">
+        <v>0.59899</v>
+      </c>
+      <c r="F60">
+        <v>3.58732799910286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="100" customHeight="1">
+      <c r="A61" t="s">
         <v>124</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>125</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0.59899</v>
-      </c>
-      <c r="F60">
-        <v>2.752430839032118</v>
-      </c>
-      <c r="G60">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H60">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="100" customHeight="1">
-      <c r="A61" t="s">
+      <c r="D61">
+        <v>0.5</v>
+      </c>
+      <c r="E61">
+        <v>0.59899</v>
+      </c>
+      <c r="F61">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="100" customHeight="1">
+      <c r="A62" t="s">
         <v>126</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>127</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0.59899</v>
-      </c>
-      <c r="F61">
-        <v>2.752430839032118</v>
-      </c>
-      <c r="G61">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H61">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="100" customHeight="1">
-      <c r="A62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" t="s">
-        <v>129</v>
       </c>
       <c r="D62">
         <v>1.5</v>
@@ -5281,19 +4909,13 @@
       <c r="F62">
         <v>2.506528426687457</v>
       </c>
-      <c r="G62">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H62">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="63" spans="1:6" ht="100" customHeight="1">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D63">
         <v>98.75</v>
@@ -5304,19 +4926,13 @@
       <c r="F63">
         <v>-2.617255569149218</v>
       </c>
-      <c r="G63">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H63">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="64" spans="1:6" ht="100" customHeight="1">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D64">
         <v>96</v>
@@ -5327,19 +4943,13 @@
       <c r="F64">
         <v>-1.903622463840115</v>
       </c>
-      <c r="G64">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H64">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="65" spans="1:6" ht="100" customHeight="1">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D65">
         <v>90</v>
@@ -5350,19 +4960,13 @@
       <c r="F65">
         <v>-1.316115549578622</v>
       </c>
-      <c r="G65">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H65">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="66" spans="1:6" ht="100" customHeight="1">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D66">
         <v>99</v>
@@ -5373,19 +4977,13 @@
       <c r="F66">
         <v>-2.752430839032114</v>
       </c>
-      <c r="G66">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H66">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="67" spans="1:6" ht="100" customHeight="1">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D67">
         <v>2.5</v>
@@ -5396,19 +4994,13 @@
       <c r="F67">
         <v>2.194436790415197</v>
       </c>
-      <c r="G67">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H67">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="68" spans="1:6" ht="100" customHeight="1">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D68">
         <v>31.5</v>
@@ -5419,19 +5011,13 @@
       <c r="F68">
         <v>0.4653231050005244</v>
       </c>
-      <c r="G68">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H68">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="69" spans="1:6" ht="100" customHeight="1">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D69">
         <v>98.5</v>
@@ -5442,19 +5028,13 @@
       <c r="F69">
         <v>-2.506528426687459</v>
       </c>
-      <c r="G69">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H69">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="70" spans="1:6" ht="100" customHeight="1">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D70">
         <v>93</v>
@@ -5465,19 +5045,13 @@
       <c r="F70">
         <v>-1.549401050221227</v>
       </c>
-      <c r="G70">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H70">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="71" spans="1:6" ht="100" customHeight="1">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D71">
         <v>71</v>
@@ -5488,19 +5062,13 @@
       <c r="F71">
         <v>-0.5363260903453796</v>
       </c>
-      <c r="G71">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H71">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="72" spans="1:6" ht="100" customHeight="1">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D72">
         <v>98.5</v>
@@ -5511,19 +5079,13 @@
       <c r="F72">
         <v>-2.506528426687459</v>
       </c>
-      <c r="G72">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H72">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="73" spans="1:6" ht="100" customHeight="1">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D73">
         <v>95</v>
@@ -5534,19 +5096,13 @@
       <c r="F73">
         <v>-1.763689504130907</v>
       </c>
-      <c r="G73">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H73">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="74" spans="1:6" ht="100" customHeight="1">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D74">
         <v>97</v>
@@ -5557,19 +5113,13 @@
       <c r="F74">
         <v>-2.082148354224433</v>
       </c>
-      <c r="G74">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H74">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="75" spans="1:6" ht="100" customHeight="1">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D75">
         <v>95.5</v>
@@ -5580,19 +5130,13 @@
       <c r="F75">
         <v>-1.829943711087029</v>
       </c>
-      <c r="G75">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H75">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="76" spans="1:6" ht="100" customHeight="1">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D76">
         <v>96.5</v>
@@ -5603,42 +5147,30 @@
       <c r="F76">
         <v>-1.986718076069497</v>
       </c>
-      <c r="G76">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H76">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="77" spans="1:6" ht="100" customHeight="1">
       <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77">
+        <v>99.75</v>
+      </c>
+      <c r="E77">
+        <v>0.59899</v>
+      </c>
+      <c r="F77">
+        <v>-3.587327999102873</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="100" customHeight="1">
+      <c r="A78" t="s">
         <v>158</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>159</v>
-      </c>
-      <c r="D77">
-        <v>99</v>
-      </c>
-      <c r="E77">
-        <v>0.59899</v>
-      </c>
-      <c r="F77">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G77">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H77">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="100" customHeight="1">
-      <c r="A78" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" t="s">
-        <v>161</v>
       </c>
       <c r="D78">
         <v>97</v>
@@ -5649,57 +5181,39 @@
       <c r="F78">
         <v>-2.082148354224433</v>
       </c>
-      <c r="G78">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H78">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="79" spans="1:6" ht="100" customHeight="1">
       <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79">
+        <v>99.5</v>
+      </c>
+      <c r="E79">
+        <v>0.59899</v>
+      </c>
+      <c r="F79">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="100" customHeight="1">
+      <c r="A80" t="s">
         <v>162</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>163</v>
       </c>
-      <c r="D79">
-        <v>99</v>
-      </c>
-      <c r="E79">
-        <v>0.59899</v>
-      </c>
-      <c r="F79">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G79">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H79">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="100" customHeight="1">
-      <c r="A80" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
-      </c>
       <c r="D80">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="E80">
         <v>0.59899</v>
       </c>
       <c r="F80">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="G80">
-        <v>-2.752430839032114</v>
-      </c>
-      <c r="H80">
-        <v>2.752430839032118</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>smiles</t>
   </si>
@@ -94,12 +94,6 @@
     <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(NC(=O)C)cccc1)C</t>
-  </si>
-  <si>
-    <t>YSZGCNKBKQQPAH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(c1cc(C)ccc1)C</t>
   </si>
   <si>
@@ -178,18 +172,6 @@
     <t>DQQVADFLIZSTDK-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc([N+]([O-])=O)cc1)C</t>
-  </si>
-  <si>
-    <t>YQYGPGKTNQNXMH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(N)cc1)C</t>
-  </si>
-  <si>
-    <t>GPRYKVSEZCQIHD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(c1cc(F)ccc1)CC</t>
   </si>
   <si>
@@ -304,42 +286,6 @@
     <t>RNIDWJDZNNVFDY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=NC=CS1)C</t>
-  </si>
-  <si>
-    <t>MOMFXATYAINJML-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
-  </si>
-  <si>
-    <t>MYLYBCZMJRPTEU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CC=C1)C</t>
-  </si>
-  <si>
-    <t>AJKVQEKCUACUMD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CN=CC=C1)C</t>
-  </si>
-  <si>
-    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=NC=C1)C</t>
-  </si>
-  <si>
-    <t>WMQUKDQWMMOHSA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CC=C1)C(C)C</t>
-  </si>
-  <si>
-    <t>OPPJOYDMQXHCFS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(C1CC1)C</t>
   </si>
   <si>
@@ -350,66 +296,6 @@
   </si>
   <si>
     <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)C)C</t>
-  </si>
-  <si>
-    <t>VFPKIWATTACVJR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)c1ccccc1)C</t>
-  </si>
-  <si>
-    <t>SLOCEDWZEACARV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(C)NC)c1ccccc1</t>
-  </si>
-  <si>
-    <t>LPLLVINFLBSFRP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(C)NC(=O)C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>XFOFGOGCAHRANZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CNC(C1=CC=CC=C1)=O)c2ccccc2</t>
-  </si>
-  <si>
-    <t>MIJZKZQWQXKSPA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1OCN(C)CC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>AKWKJSHIAARTRC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)(C)OC(=O)N(C)CC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>WFKSNAFHIMNMLV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
-  </si>
-  <si>
-    <t>BLNSEHDIFVBBKV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1)CCN(C)C</t>
-  </si>
-  <si>
-    <t>QMNXJNURJISYMS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=SC=CC1)CCN(C)C</t>
-  </si>
-  <si>
-    <t>RRRLNSBRKAMGPF-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(COc1ccccc1)C</t>
@@ -2825,728 +2711,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="74933175"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="76200000"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="77466825"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="78733650"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="80000475"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="81267300"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="82534125"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="83800950"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="85067775"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="86334600"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="87601425"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="88868250"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="90135075"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="91401900"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="92668725"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="93935550"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="95202375"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="96469200"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="97736025"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="99002850"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3844,7 +3008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4051,13 +3215,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>99.75</v>
       </c>
       <c r="E12">
         <v>0.59899</v>
       </c>
       <c r="F12">
-        <v>-2.752430839032114</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -4068,13 +3232,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>99.75</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>0.59899</v>
       </c>
       <c r="F13">
-        <v>-3.587327999102873</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -4085,13 +3249,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>99</v>
+        <v>99.75</v>
       </c>
       <c r="E14">
         <v>0.59899</v>
       </c>
       <c r="F14">
-        <v>-2.752430839032114</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -4102,13 +3266,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>99.75</v>
+        <v>99.5</v>
       </c>
       <c r="E15">
         <v>0.59899</v>
       </c>
       <c r="F15">
-        <v>-3.587327999102873</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -4136,13 +3300,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>0.59899</v>
       </c>
       <c r="F17">
-        <v>-3.170636656961734</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -4170,13 +3334,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E19">
         <v>0.59899</v>
       </c>
       <c r="F19">
-        <v>-2.752430839032114</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -4204,13 +3368,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>98.5</v>
+        <v>99.75</v>
       </c>
       <c r="E21">
         <v>0.59899</v>
       </c>
       <c r="F21">
-        <v>-2.506528426687459</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -4255,13 +3419,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>99.75</v>
+        <v>99.5</v>
       </c>
       <c r="E24">
         <v>0.59899</v>
       </c>
       <c r="F24">
-        <v>-3.587327999102873</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -4289,13 +3453,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>99.75</v>
+        <v>99.5</v>
       </c>
       <c r="E26">
         <v>0.59899</v>
       </c>
       <c r="F26">
-        <v>-3.587327999102873</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -4323,13 +3487,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="E28">
         <v>0.59899</v>
       </c>
       <c r="F28">
-        <v>-3.170636656961734</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -4340,13 +3504,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="E29">
         <v>0.59899</v>
       </c>
       <c r="F29">
-        <v>-3.170636656961734</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -4357,13 +3521,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>99.5</v>
+        <v>99.75</v>
       </c>
       <c r="E30">
         <v>0.59899</v>
       </c>
       <c r="F30">
-        <v>-3.170636656961734</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -4374,13 +3538,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E31">
         <v>0.59899</v>
       </c>
       <c r="F31">
-        <v>-2.506528426687459</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -4391,13 +3555,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>98</v>
+        <v>99.5</v>
       </c>
       <c r="E32">
         <v>0.59899</v>
       </c>
       <c r="F32">
-        <v>-2.331161440365284</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -4408,13 +3572,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>99.75</v>
+        <v>3.5</v>
       </c>
       <c r="E33">
         <v>0.59899</v>
       </c>
       <c r="F33">
-        <v>-3.587327999102873</v>
+        <v>1.986718076069495</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -4425,13 +3589,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>99</v>
+        <v>1.5</v>
       </c>
       <c r="E34">
         <v>0.59899</v>
       </c>
       <c r="F34">
-        <v>-2.752430839032114</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -4442,13 +3606,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>99.5</v>
+        <v>1.5</v>
       </c>
       <c r="E35">
         <v>0.59899</v>
       </c>
       <c r="F35">
-        <v>-3.170636656961734</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -4459,13 +3623,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>0.59899</v>
       </c>
       <c r="F36">
-        <v>1.986718076069495</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -4476,13 +3640,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0.59899</v>
       </c>
       <c r="F37">
-        <v>2.506528426687457</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -4493,13 +3657,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="E38">
         <v>0.59899</v>
       </c>
       <c r="F38">
-        <v>2.506528426687457</v>
+        <v>3.477818888910131</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -4510,13 +3674,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>99.5</v>
       </c>
       <c r="E39">
         <v>0.59899</v>
       </c>
       <c r="F39">
-        <v>2.331161440365284</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -4527,13 +3691,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E40">
         <v>0.59899</v>
       </c>
       <c r="F40">
-        <v>2.752430839032118</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -4544,13 +3708,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>0.3</v>
+        <v>99.5</v>
       </c>
       <c r="E41">
         <v>0.59899</v>
       </c>
       <c r="F41">
-        <v>3.477818888910131</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -4561,13 +3725,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="E42">
         <v>0.59899</v>
       </c>
       <c r="F42">
-        <v>-3.170636656961734</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -4578,13 +3742,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>99</v>
+        <v>99.75</v>
       </c>
       <c r="E43">
         <v>0.59899</v>
       </c>
       <c r="F43">
-        <v>-2.752430839032114</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -4595,13 +3759,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>99.5</v>
+        <v>97.5</v>
       </c>
       <c r="E44">
         <v>0.59899</v>
       </c>
       <c r="F44">
-        <v>-3.170636656961734</v>
+        <v>-2.194436790415199</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -4612,13 +3776,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>98.5</v>
+        <v>92.5</v>
       </c>
       <c r="E45">
         <v>0.59899</v>
       </c>
       <c r="F45">
-        <v>-2.506528426687459</v>
+        <v>-1.504845945705453</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4629,13 +3793,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>99.75</v>
+        <v>90</v>
       </c>
       <c r="E46">
         <v>0.59899</v>
       </c>
       <c r="F46">
-        <v>-3.587327999102873</v>
+        <v>-1.316115549578622</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4646,13 +3810,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E47">
         <v>0.59899</v>
       </c>
       <c r="F47">
-        <v>-2.331161440365284</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4663,13 +3827,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>99</v>
+        <v>2.5</v>
       </c>
       <c r="E48">
         <v>0.59899</v>
       </c>
       <c r="F48">
-        <v>-2.752430839032114</v>
+        <v>2.194436790415197</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4680,13 +3844,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>98</v>
+        <v>31.5</v>
       </c>
       <c r="E49">
         <v>0.59899</v>
       </c>
       <c r="F49">
-        <v>-2.331161440365284</v>
+        <v>0.4653231050005244</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4697,13 +3861,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>99.75</v>
+        <v>98.5</v>
       </c>
       <c r="E50">
         <v>0.59899</v>
       </c>
       <c r="F50">
-        <v>-3.587327999102873</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4714,13 +3878,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>99.75</v>
+        <v>93</v>
       </c>
       <c r="E51">
         <v>0.59899</v>
       </c>
       <c r="F51">
-        <v>-3.587327999102873</v>
+        <v>-1.549401050221227</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4731,13 +3895,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E52">
         <v>0.59899</v>
       </c>
       <c r="F52">
-        <v>-2.082148354224433</v>
+        <v>-0.5363260903453796</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4748,13 +3912,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>97.5</v>
+        <v>98.5</v>
       </c>
       <c r="E53">
         <v>0.59899</v>
       </c>
       <c r="F53">
-        <v>-2.194436790415199</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4765,13 +3929,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>92.5</v>
+        <v>95</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>-1.504845945705453</v>
+        <v>-1.763689504130907</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4782,13 +3946,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>-1.903622463840115</v>
+        <v>-2.082148354224433</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4799,13 +3963,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>90.5</v>
+        <v>95.5</v>
       </c>
       <c r="E56">
         <v>0.59899</v>
       </c>
       <c r="F56">
-        <v>-1.35015823262701</v>
+        <v>-1.829943711087029</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4816,13 +3980,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>3.5</v>
+        <v>96.5</v>
       </c>
       <c r="E57">
         <v>0.59899</v>
       </c>
       <c r="F57">
-        <v>1.986718076069495</v>
+        <v>-1.986718076069497</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4833,13 +3997,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>0.5</v>
+        <v>99.75</v>
       </c>
       <c r="E58">
         <v>0.59899</v>
       </c>
       <c r="F58">
-        <v>3.170636656961724</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4850,13 +4014,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>2.5</v>
+        <v>97</v>
       </c>
       <c r="E59">
         <v>0.59899</v>
       </c>
       <c r="F59">
-        <v>2.194436790415197</v>
+        <v>-2.082148354224433</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4867,13 +4031,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>0.25</v>
+        <v>99.5</v>
       </c>
       <c r="E60">
         <v>0.59899</v>
       </c>
       <c r="F60">
-        <v>3.58732799910286</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4884,335 +4048,12 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E61">
         <v>0.59899</v>
       </c>
       <c r="F61">
-        <v>3.170636656961724</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="100" customHeight="1">
-      <c r="A62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62">
-        <v>1.5</v>
-      </c>
-      <c r="E62">
-        <v>0.59899</v>
-      </c>
-      <c r="F62">
-        <v>2.506528426687457</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="100" customHeight="1">
-      <c r="A63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63">
-        <v>98.75</v>
-      </c>
-      <c r="E63">
-        <v>0.59899</v>
-      </c>
-      <c r="F63">
-        <v>-2.617255569149218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="100" customHeight="1">
-      <c r="A64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64">
-        <v>96</v>
-      </c>
-      <c r="E64">
-        <v>0.59899</v>
-      </c>
-      <c r="F64">
-        <v>-1.903622463840115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="100" customHeight="1">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65">
-        <v>90</v>
-      </c>
-      <c r="E65">
-        <v>0.59899</v>
-      </c>
-      <c r="F65">
-        <v>-1.316115549578622</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="100" customHeight="1">
-      <c r="A66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66">
-        <v>99</v>
-      </c>
-      <c r="E66">
-        <v>0.59899</v>
-      </c>
-      <c r="F66">
-        <v>-2.752430839032114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="100" customHeight="1">
-      <c r="A67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67">
-        <v>2.5</v>
-      </c>
-      <c r="E67">
-        <v>0.59899</v>
-      </c>
-      <c r="F67">
-        <v>2.194436790415197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="100" customHeight="1">
-      <c r="A68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68">
-        <v>31.5</v>
-      </c>
-      <c r="E68">
-        <v>0.59899</v>
-      </c>
-      <c r="F68">
-        <v>0.4653231050005244</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="100" customHeight="1">
-      <c r="A69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69">
-        <v>98.5</v>
-      </c>
-      <c r="E69">
-        <v>0.59899</v>
-      </c>
-      <c r="F69">
-        <v>-2.506528426687459</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="100" customHeight="1">
-      <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70">
-        <v>93</v>
-      </c>
-      <c r="E70">
-        <v>0.59899</v>
-      </c>
-      <c r="F70">
-        <v>-1.549401050221227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="100" customHeight="1">
-      <c r="A71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71">
-        <v>71</v>
-      </c>
-      <c r="E71">
-        <v>0.59899</v>
-      </c>
-      <c r="F71">
-        <v>-0.5363260903453796</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="100" customHeight="1">
-      <c r="A72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72">
-        <v>98.5</v>
-      </c>
-      <c r="E72">
-        <v>0.59899</v>
-      </c>
-      <c r="F72">
-        <v>-2.506528426687459</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="100" customHeight="1">
-      <c r="A73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73">
-        <v>95</v>
-      </c>
-      <c r="E73">
-        <v>0.59899</v>
-      </c>
-      <c r="F73">
-        <v>-1.763689504130907</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="100" customHeight="1">
-      <c r="A74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74">
-        <v>97</v>
-      </c>
-      <c r="E74">
-        <v>0.59899</v>
-      </c>
-      <c r="F74">
-        <v>-2.082148354224433</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="100" customHeight="1">
-      <c r="A75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75">
-        <v>95.5</v>
-      </c>
-      <c r="E75">
-        <v>0.59899</v>
-      </c>
-      <c r="F75">
-        <v>-1.829943711087029</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="100" customHeight="1">
-      <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76">
-        <v>96.5</v>
-      </c>
-      <c r="E76">
-        <v>0.59899</v>
-      </c>
-      <c r="F76">
-        <v>-1.986718076069497</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="100" customHeight="1">
-      <c r="A77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77">
-        <v>99.75</v>
-      </c>
-      <c r="E77">
-        <v>0.59899</v>
-      </c>
-      <c r="F77">
-        <v>-3.587327999102873</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="100" customHeight="1">
-      <c r="A78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78">
-        <v>97</v>
-      </c>
-      <c r="E78">
-        <v>0.59899</v>
-      </c>
-      <c r="F78">
-        <v>-2.082148354224433</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="100" customHeight="1">
-      <c r="A79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79">
-        <v>99.5</v>
-      </c>
-      <c r="E79">
-        <v>0.59899</v>
-      </c>
-      <c r="F79">
-        <v>-3.170636656961734</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="100" customHeight="1">
-      <c r="A80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80">
-        <v>99.5</v>
-      </c>
-      <c r="E80">
-        <v>0.59899</v>
-      </c>
-      <c r="F80">
         <v>-3.170636656961734</v>
       </c>
     </row>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -3657,13 +3657,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>0.3</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="E38">
         <v>0.59899</v>
       </c>
       <c r="F38">
-        <v>3.477818888910131</v>
+        <v>3.477818888910136</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>smiles</t>
   </si>
@@ -94,6 +94,12 @@
     <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(c1c(NC(=O)C)cccc1)C</t>
+  </si>
+  <si>
+    <t>YSZGCNKBKQQPAH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(c1cc(C)ccc1)C</t>
   </si>
   <si>
@@ -172,6 +178,18 @@
     <t>DQQVADFLIZSTDK-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(c1ccc([N+]([O-])=O)cc1)C</t>
+  </si>
+  <si>
+    <t>YQYGPGKTNQNXMH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(N)cc1)C</t>
+  </si>
+  <si>
+    <t>GPRYKVSEZCQIHD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(c1cc(F)ccc1)CC</t>
   </si>
   <si>
@@ -286,6 +304,42 @@
     <t>RNIDWJDZNNVFDY-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(C1=NC=CS1)C</t>
+  </si>
+  <si>
+    <t>MOMFXATYAINJML-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
+  </si>
+  <si>
+    <t>MYLYBCZMJRPTEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CC=C1)C</t>
+  </si>
+  <si>
+    <t>AJKVQEKCUACUMD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CN=CC=C1)C</t>
+  </si>
+  <si>
+    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=NC=C1)C</t>
+  </si>
+  <si>
+    <t>WMQUKDQWMMOHSA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CC=C1)C(C)C</t>
+  </si>
+  <si>
+    <t>OPPJOYDMQXHCFS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(C1CC1)C</t>
   </si>
   <si>
@@ -298,6 +352,72 @@
     <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(CN(C)C)C</t>
+  </si>
+  <si>
+    <t>VFPKIWATTACVJR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)c1ccccc1)C</t>
+  </si>
+  <si>
+    <t>SLOCEDWZEACARV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(C)NC)c1ccccc1</t>
+  </si>
+  <si>
+    <t>LPLLVINFLBSFRP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(C)NC(=O)C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>XFOFGOGCAHRANZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CNC(C1=CC=CC=C1)=O)c2ccccc2</t>
+  </si>
+  <si>
+    <t>MIJZKZQWQXKSPA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1OCN(C)CC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>AKWKJSHIAARTRC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)(C)OC(=O)N(C)CC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>WFKSNAFHIMNMLV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
+  </si>
+  <si>
+    <t>BLNSEHDIFVBBKV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1)CCN(C)C</t>
+  </si>
+  <si>
+    <t>QMNXJNURJISYMS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=SC=CC1)CCN(C)C</t>
+  </si>
+  <si>
+    <t>RRRLNSBRKAMGPF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
+  </si>
+  <si>
+    <t>QTGQNPULXWGQBL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(COc1ccccc1)C</t>
   </si>
   <si>
@@ -392,6 +512,36 @@
   </si>
   <si>
     <t>HDURLXYBKGWETC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>GCSHUYKULREZSJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>WXPWZZHELZEVPO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(OC)cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>SWFHGTMLYIBPPA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(Cl)cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>UGVRJVHOJNYEHR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C(F)(F)(F))cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -2711,6 +2861,956 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="74933175"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="76200000"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="77466825"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="78733650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="80000475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="81267300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="82534125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="83800950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="85067775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="86334600"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="87601425"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="88868250"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="90135075"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="91401900"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="92668725"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="93935550"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="95202375"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="96469200"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="97736025"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="99002850"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="100269675"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="101536500"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="102803325"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="104070150"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="105336975"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="106603800"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3008,7 +4108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3215,13 +4315,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>99.75</v>
+        <v>99</v>
       </c>
       <c r="E12">
         <v>0.59899</v>
       </c>
       <c r="F12">
-        <v>-3.587327999102873</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -3232,13 +4332,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>99</v>
+        <v>99.75</v>
       </c>
       <c r="E13">
         <v>0.59899</v>
       </c>
       <c r="F13">
-        <v>-2.752430839032114</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -3249,13 +4349,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>99.75</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <v>0.59899</v>
       </c>
       <c r="F14">
-        <v>-3.587327999102873</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -3266,13 +4366,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>99.5</v>
+        <v>99.75</v>
       </c>
       <c r="E15">
         <v>0.59899</v>
       </c>
       <c r="F15">
-        <v>-3.170636656961734</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -3300,13 +4400,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="E17">
         <v>0.59899</v>
       </c>
       <c r="F17">
-        <v>-2.752430839032114</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -3334,13 +4434,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E19">
         <v>0.59899</v>
       </c>
       <c r="F19">
-        <v>-2.506528426687459</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3368,13 +4468,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>99.75</v>
+        <v>98.5</v>
       </c>
       <c r="E21">
         <v>0.59899</v>
       </c>
       <c r="F21">
-        <v>-3.587327999102873</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3419,13 +4519,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>99.5</v>
+        <v>99.75</v>
       </c>
       <c r="E24">
         <v>0.59899</v>
       </c>
       <c r="F24">
-        <v>-3.170636656961734</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3453,13 +4553,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>99.5</v>
+        <v>99.75</v>
       </c>
       <c r="E26">
         <v>0.59899</v>
       </c>
       <c r="F26">
-        <v>-3.170636656961734</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3487,13 +4587,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>98.5</v>
+        <v>99.5</v>
       </c>
       <c r="E28">
         <v>0.59899</v>
       </c>
       <c r="F28">
-        <v>-2.506528426687459</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3504,13 +4604,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>98</v>
+        <v>99.5</v>
       </c>
       <c r="E29">
         <v>0.59899</v>
       </c>
       <c r="F29">
-        <v>-2.331161440365284</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3521,13 +4621,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>99.75</v>
+        <v>99.5</v>
       </c>
       <c r="E30">
         <v>0.59899</v>
       </c>
       <c r="F30">
-        <v>-3.587327999102873</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -3538,13 +4638,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E31">
         <v>0.59899</v>
       </c>
       <c r="F31">
-        <v>-2.752430839032114</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -3555,13 +4655,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="E32">
         <v>0.59899</v>
       </c>
       <c r="F32">
-        <v>-3.170636656961734</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -3572,13 +4672,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>3.5</v>
+        <v>99.75</v>
       </c>
       <c r="E33">
         <v>0.59899</v>
       </c>
       <c r="F33">
-        <v>1.986718076069495</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -3589,13 +4689,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>1.5</v>
+        <v>99</v>
       </c>
       <c r="E34">
         <v>0.59899</v>
       </c>
       <c r="F34">
-        <v>2.506528426687457</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -3606,13 +4706,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>1.5</v>
+        <v>99.5</v>
       </c>
       <c r="E35">
         <v>0.59899</v>
       </c>
       <c r="F35">
-        <v>2.506528426687457</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -3623,13 +4723,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E36">
         <v>0.59899</v>
       </c>
       <c r="F36">
-        <v>2.331161440365284</v>
+        <v>1.986718076069495</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -3640,13 +4740,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E37">
         <v>0.59899</v>
       </c>
       <c r="F37">
-        <v>2.752430839032118</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -3657,13 +4757,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>0.2999999999999972</v>
+        <v>1.5</v>
       </c>
       <c r="E38">
         <v>0.59899</v>
       </c>
       <c r="F38">
-        <v>3.477818888910136</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -3674,13 +4774,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>99.5</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>0.59899</v>
       </c>
       <c r="F39">
-        <v>-3.170636656961734</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -3691,13 +4791,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0.59899</v>
       </c>
       <c r="F40">
-        <v>-2.752430839032114</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -3708,13 +4808,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>99.5</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="E41">
         <v>0.59899</v>
       </c>
       <c r="F41">
-        <v>-3.170636656961734</v>
+        <v>3.477818888910136</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -3725,13 +4825,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>98.5</v>
+        <v>99.5</v>
       </c>
       <c r="E42">
         <v>0.59899</v>
       </c>
       <c r="F42">
-        <v>-2.506528426687459</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -3742,13 +4842,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>99.75</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <v>0.59899</v>
       </c>
       <c r="F43">
-        <v>-3.587327999102873</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -3759,13 +4859,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>97.5</v>
+        <v>99.5</v>
       </c>
       <c r="E44">
         <v>0.59899</v>
       </c>
       <c r="F44">
-        <v>-2.194436790415199</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -3776,13 +4876,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>92.5</v>
+        <v>98.5</v>
       </c>
       <c r="E45">
         <v>0.59899</v>
       </c>
       <c r="F45">
-        <v>-1.504845945705453</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -3793,13 +4893,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>90</v>
+        <v>99.75</v>
       </c>
       <c r="E46">
         <v>0.59899</v>
       </c>
       <c r="F46">
-        <v>-1.316115549578622</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -3810,13 +4910,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47">
         <v>0.59899</v>
       </c>
       <c r="F47">
-        <v>-2.752430839032114</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -3827,13 +4927,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>2.5</v>
+        <v>99</v>
       </c>
       <c r="E48">
         <v>0.59899</v>
       </c>
       <c r="F48">
-        <v>2.194436790415197</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -3844,13 +4944,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>31.5</v>
+        <v>98</v>
       </c>
       <c r="E49">
         <v>0.59899</v>
       </c>
       <c r="F49">
-        <v>0.4653231050005244</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -3861,13 +4961,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>98.5</v>
+        <v>99.75</v>
       </c>
       <c r="E50">
         <v>0.59899</v>
       </c>
       <c r="F50">
-        <v>-2.506528426687459</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -3878,13 +4978,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>93</v>
+        <v>99.75</v>
       </c>
       <c r="E51">
         <v>0.59899</v>
       </c>
       <c r="F51">
-        <v>-1.549401050221227</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -3895,13 +4995,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E52">
         <v>0.59899</v>
       </c>
       <c r="F52">
-        <v>-0.5363260903453796</v>
+        <v>-2.082148354224433</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -3912,13 +5012,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
       <c r="E53">
         <v>0.59899</v>
       </c>
       <c r="F53">
-        <v>-2.506528426687459</v>
+        <v>-2.194436790415199</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -3929,13 +5029,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>95</v>
+        <v>92.5</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>-1.763689504130907</v>
+        <v>-1.504845945705453</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -3946,13 +5046,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>-2.082148354224433</v>
+        <v>-1.903622463840115</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -3963,13 +5063,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>95.5</v>
+        <v>90.5</v>
       </c>
       <c r="E56">
         <v>0.59899</v>
       </c>
       <c r="F56">
-        <v>-1.829943711087029</v>
+        <v>-1.35015823262701</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -3980,13 +5080,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>96.5</v>
+        <v>3.5</v>
       </c>
       <c r="E57">
         <v>0.59899</v>
       </c>
       <c r="F57">
-        <v>-1.986718076069497</v>
+        <v>1.986718076069495</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -3997,13 +5097,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>99.75</v>
+        <v>0.5</v>
       </c>
       <c r="E58">
         <v>0.59899</v>
       </c>
       <c r="F58">
-        <v>-3.587327999102873</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4014,13 +5114,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>97</v>
+        <v>2.5</v>
       </c>
       <c r="E59">
         <v>0.59899</v>
       </c>
       <c r="F59">
-        <v>-2.082148354224433</v>
+        <v>2.194436790415197</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4031,13 +5131,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>99.5</v>
+        <v>0.25</v>
       </c>
       <c r="E60">
         <v>0.59899</v>
       </c>
       <c r="F60">
-        <v>-3.170636656961734</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4048,13 +5148,438 @@
         <v>125</v>
       </c>
       <c r="D61">
+        <v>0.5</v>
+      </c>
+      <c r="E61">
+        <v>0.59899</v>
+      </c>
+      <c r="F61">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="100" customHeight="1">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62">
+        <v>1.5</v>
+      </c>
+      <c r="E62">
+        <v>0.59899</v>
+      </c>
+      <c r="F62">
+        <v>2.506528426687457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="100" customHeight="1">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63">
+        <v>98.75</v>
+      </c>
+      <c r="E63">
+        <v>0.59899</v>
+      </c>
+      <c r="F63">
+        <v>-2.617255569149218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="100" customHeight="1">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64">
+        <v>96</v>
+      </c>
+      <c r="E64">
+        <v>0.59899</v>
+      </c>
+      <c r="F64">
+        <v>-1.903622463840115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="100" customHeight="1">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65">
         <v>99.5</v>
       </c>
-      <c r="E61">
-        <v>0.59899</v>
-      </c>
-      <c r="F61">
+      <c r="E65">
+        <v>0.59899</v>
+      </c>
+      <c r="F65">
         <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="100" customHeight="1">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66">
+        <v>90</v>
+      </c>
+      <c r="E66">
+        <v>0.59899</v>
+      </c>
+      <c r="F66">
+        <v>-1.316115549578622</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="100" customHeight="1">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67">
+        <v>99</v>
+      </c>
+      <c r="E67">
+        <v>0.59899</v>
+      </c>
+      <c r="F67">
+        <v>-2.752430839032114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="100" customHeight="1">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68">
+        <v>2.5</v>
+      </c>
+      <c r="E68">
+        <v>0.59899</v>
+      </c>
+      <c r="F68">
+        <v>2.194436790415197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="100" customHeight="1">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69">
+        <v>31.5</v>
+      </c>
+      <c r="E69">
+        <v>0.59899</v>
+      </c>
+      <c r="F69">
+        <v>0.4653231050005244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="100" customHeight="1">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70">
+        <v>98.5</v>
+      </c>
+      <c r="E70">
+        <v>0.59899</v>
+      </c>
+      <c r="F70">
+        <v>-2.506528426687459</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="100" customHeight="1">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71">
+        <v>93</v>
+      </c>
+      <c r="E71">
+        <v>0.59899</v>
+      </c>
+      <c r="F71">
+        <v>-1.549401050221227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="100" customHeight="1">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72">
+        <v>71</v>
+      </c>
+      <c r="E72">
+        <v>0.59899</v>
+      </c>
+      <c r="F72">
+        <v>-0.5363260903453796</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="100" customHeight="1">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73">
+        <v>98.5</v>
+      </c>
+      <c r="E73">
+        <v>0.59899</v>
+      </c>
+      <c r="F73">
+        <v>-2.506528426687459</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="100" customHeight="1">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74">
+        <v>95</v>
+      </c>
+      <c r="E74">
+        <v>0.59899</v>
+      </c>
+      <c r="F74">
+        <v>-1.763689504130907</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="100" customHeight="1">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75">
+        <v>97</v>
+      </c>
+      <c r="E75">
+        <v>0.59899</v>
+      </c>
+      <c r="F75">
+        <v>-2.082148354224433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="100" customHeight="1">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76">
+        <v>95.5</v>
+      </c>
+      <c r="E76">
+        <v>0.59899</v>
+      </c>
+      <c r="F76">
+        <v>-1.829943711087029</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="100" customHeight="1">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77">
+        <v>96.5</v>
+      </c>
+      <c r="E77">
+        <v>0.59899</v>
+      </c>
+      <c r="F77">
+        <v>-1.986718076069497</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="100" customHeight="1">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78">
+        <v>99.75</v>
+      </c>
+      <c r="E78">
+        <v>0.59899</v>
+      </c>
+      <c r="F78">
+        <v>-3.587327999102873</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="100" customHeight="1">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79">
+        <v>97</v>
+      </c>
+      <c r="E79">
+        <v>0.59899</v>
+      </c>
+      <c r="F79">
+        <v>-2.082148354224433</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="100" customHeight="1">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80">
+        <v>99.5</v>
+      </c>
+      <c r="E80">
+        <v>0.59899</v>
+      </c>
+      <c r="F80">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="100" customHeight="1">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81">
+        <v>99.5</v>
+      </c>
+      <c r="E81">
+        <v>0.59899</v>
+      </c>
+      <c r="F81">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="100" customHeight="1">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82">
+        <v>85</v>
+      </c>
+      <c r="E82">
+        <v>0.59899</v>
+      </c>
+      <c r="F82">
+        <v>-1.039008686166922</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="100" customHeight="1">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83">
+        <v>46</v>
+      </c>
+      <c r="E83">
+        <v>0.59899</v>
+      </c>
+      <c r="F83">
+        <v>0.09604364396853164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="100" customHeight="1">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84">
+        <v>32.5</v>
+      </c>
+      <c r="E84">
+        <v>0.59899</v>
+      </c>
+      <c r="F84">
+        <v>0.4377943087420472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="100" customHeight="1">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85">
+        <v>54.5</v>
+      </c>
+      <c r="E85">
+        <v>0.59899</v>
+      </c>
+      <c r="F85">
+        <v>-0.1081107321679067</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="100" customHeight="1">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86">
+        <v>73.5</v>
+      </c>
+      <c r="E86">
+        <v>0.59899</v>
+      </c>
+      <c r="F86">
+        <v>-0.6110540618560099</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>smiles</t>
   </si>
@@ -520,28 +520,70 @@
     <t>GCSHUYKULREZSJ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>WXPWZZHELZEVPO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(OC)cc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>SWFHGTMLYIBPPA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(Cl)cc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>UGVRJVHOJNYEHR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(C(F)(F)(F))cc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
+    <t>C(=O)(c1ncccc1)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>GWXTVPWMINBKEI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1cc(C)ccc1</t>
+  </si>
+  <si>
+    <t>GEPRZBNXNHEPSJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>KHXSJSBQIWAIEG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>RYMBAPVTUHZCNF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>YIPODLIDWSBPJA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1cc(C)ccc1</t>
+  </si>
+  <si>
+    <t>AQCYLQNJIBVMOM-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1ccc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>VZWGUDFNQIAHEY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccncc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>SKFLCXNDKRUHTA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FCHBFQQIEMUQIF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>YAPSCCPUKNXEOX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -3811,6 +3853,272 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="106603800"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 86" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="107870625"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="109137450"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 88" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="110404275"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="111671100"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="112937925"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="114204750"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="115471575"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4108,7 +4416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5505,13 +5813,13 @@
         <v>167</v>
       </c>
       <c r="D82">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F82">
-        <v>-1.039008686166922</v>
+        <v>1.045912398367367</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="100" customHeight="1">
@@ -5522,13 +5830,13 @@
         <v>169</v>
       </c>
       <c r="D83">
-        <v>46</v>
+        <v>0.5</v>
       </c>
       <c r="E83">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F83">
-        <v>0.09604364396853164</v>
+        <v>3.191704010164127</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="100" customHeight="1">
@@ -5539,13 +5847,13 @@
         <v>171</v>
       </c>
       <c r="D84">
-        <v>32.5</v>
+        <v>20</v>
       </c>
       <c r="E84">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F84">
-        <v>0.4377943087420472</v>
+        <v>0.8358939109244604</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="100" customHeight="1">
@@ -5556,13 +5864,13 @@
         <v>173</v>
       </c>
       <c r="D85">
-        <v>54.5</v>
+        <v>25</v>
       </c>
       <c r="E85">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F85">
-        <v>-0.1081107321679067</v>
+        <v>0.6624302516982101</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="100" customHeight="1">
@@ -5573,13 +5881,132 @@
         <v>175</v>
       </c>
       <c r="D86">
-        <v>73.5</v>
+        <v>84.5</v>
       </c>
       <c r="E86">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F86">
-        <v>-0.6110540618560099</v>
+        <v>-1.022583763448757</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="100" customHeight="1">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>0.60297</v>
+      </c>
+      <c r="F87">
+        <v>0.9998617833496319</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="100" customHeight="1">
+      <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88">
+        <v>89</v>
+      </c>
+      <c r="E88">
+        <v>0.60297</v>
+      </c>
+      <c r="F88">
+        <v>-1.260654159218154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="100" customHeight="1">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89">
+        <v>77.5</v>
+      </c>
+      <c r="E89">
+        <v>0.60297</v>
+      </c>
+      <c r="F89">
+        <v>-0.7457307612919885</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="100" customHeight="1">
+      <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90">
+        <v>77</v>
+      </c>
+      <c r="E90">
+        <v>0.60297</v>
+      </c>
+      <c r="F90">
+        <v>-0.7285754078363164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="100" customHeight="1">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91">
+        <v>95</v>
+      </c>
+      <c r="E91">
+        <v>0.60297</v>
+      </c>
+      <c r="F91">
+        <v>-1.775408371267989</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="100" customHeight="1">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92">
+        <v>43.5</v>
+      </c>
+      <c r="E92">
+        <v>0.60297</v>
+      </c>
+      <c r="F92">
+        <v>0.1576644147438256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="100" customHeight="1">
+      <c r="A93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93">
+        <v>90</v>
+      </c>
+      <c r="E93">
+        <v>0.60297</v>
+      </c>
+      <c r="F93">
+        <v>-1.32486050339642</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>smiles</t>
   </si>
@@ -520,70 +520,160 @@
     <t>GCSHUYKULREZSJ-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(c1ncccc1)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>BHDAKOZHMSQCFH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1cc(Cl)ccc1</t>
+  </si>
+  <si>
+    <t>DTEIFMBOVCPJGY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>RYMBAPVTUHZCNF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>YIPODLIDWSBPJA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>CXDYOXSPZUWEQX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1cc(Cl)ccc1</t>
+  </si>
+  <si>
+    <t>MDGKXQYPOIIMHW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccncc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>SKFLCXNDKRUHTA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FCHBFQQIEMUQIF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>YAPSCCPUKNXEOX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C(C(F)(F)F)(C(F)(F)F)OCOC)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>RDYXHIZMFBMAOS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>VUVSIPWGRHQUGS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C3(C)OCCO3)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FHQKWASXMQBSCT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>DHLKAJJXHDNVDN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>LCWRNKBOWMZEKT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>DNNFCPLFPRGBHI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=NC=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>IYZPWGMIISJDTP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CSC(C)=N2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>LXZSCYZOMOPQEF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>KHXSJSBQIWAIEG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(OC)cc1</t>
+  </si>
+  <si>
+    <t>ZYZQOYSKLICWGX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(c1ncccc1)c1c(C)cccc1</t>
   </si>
   <si>
     <t>GWXTVPWMINBKEI-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ncccc1)c1cc(C)ccc1</t>
-  </si>
-  <si>
-    <t>GEPRZBNXNHEPSJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ncccc1)c1ccc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>KHXSJSBQIWAIEG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cnccc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>RYMBAPVTUHZCNF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cnccc1)c1c(C)cccc1</t>
-  </si>
-  <si>
-    <t>YIPODLIDWSBPJA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cnccc1)c1cc(C)ccc1</t>
-  </si>
-  <si>
-    <t>AQCYLQNJIBVMOM-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cnccc1)c1ccc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>VZWGUDFNQIAHEY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccncc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>SKFLCXNDKRUHTA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccccc1</t>
-  </si>
-  <si>
-    <t>FCHBFQQIEMUQIF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c2ccnc3cc(Cl)ccc23)c1c(C)cccc1</t>
-  </si>
-  <si>
-    <t>YAPSCCPUKNXEOX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
+    <t>O=C(c2nccc3ccccc23)c1ccccc1</t>
+  </si>
+  <si>
+    <t>MDWCIKACMBMJFA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cnc(OC)cc1</t>
+  </si>
+  <si>
+    <t>RJOOVWVGRDXTKN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(OC)cccc1)C2=CN(c3ccccc3)N=C2</t>
+  </si>
+  <si>
+    <t>XTIVLYSLPXZKLH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CN=C([Si](C(C)(C))(C(C)(C))C(C)(C))O1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>IJPGLDZXSJKFQQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ncccc1)c2cc(C(F)(F)F)nc3c(C(F)(F)F)cccc23</t>
+  </si>
+  <si>
+    <t>GZTUXOWPGYDWNO-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -4119,6 +4209,576 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="115471575"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="116738400"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="118005225"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 95" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="119272050"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 96" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="120538875"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="121805700"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 98" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="123072525"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="124339350"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="125606175"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="126873000"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="128139825"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="129406650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="130673475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="131940300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="133207125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="134473950"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4416,7 +5076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5830,13 +6490,13 @@
         <v>169</v>
       </c>
       <c r="D83">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>0.60297</v>
       </c>
       <c r="F83">
-        <v>3.191704010164127</v>
+        <v>0.8358939109244604</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="100" customHeight="1">
@@ -5847,13 +6507,13 @@
         <v>171</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E84">
         <v>0.60297</v>
       </c>
       <c r="F84">
-        <v>0.8358939109244604</v>
+        <v>0.6624302516982101</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="100" customHeight="1">
@@ -5864,13 +6524,13 @@
         <v>173</v>
       </c>
       <c r="D85">
-        <v>25</v>
+        <v>84.5</v>
       </c>
       <c r="E85">
         <v>0.60297</v>
       </c>
       <c r="F85">
-        <v>0.6624302516982101</v>
+        <v>-1.022583763448757</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="100" customHeight="1">
@@ -5881,13 +6541,13 @@
         <v>175</v>
       </c>
       <c r="D86">
-        <v>84.5</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>0.60297</v>
       </c>
       <c r="F86">
-        <v>-1.022583763448757</v>
+        <v>0.9998617833496319</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="100" customHeight="1">
@@ -5898,13 +6558,13 @@
         <v>177</v>
       </c>
       <c r="D87">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E87">
         <v>0.60297</v>
       </c>
       <c r="F87">
-        <v>0.9998617833496319</v>
+        <v>-1.260654159218154</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="100" customHeight="1">
@@ -5915,13 +6575,13 @@
         <v>179</v>
       </c>
       <c r="D88">
-        <v>89</v>
+        <v>77.5</v>
       </c>
       <c r="E88">
         <v>0.60297</v>
       </c>
       <c r="F88">
-        <v>-1.260654159218154</v>
+        <v>-0.7457307612919885</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="100" customHeight="1">
@@ -5932,13 +6592,13 @@
         <v>181</v>
       </c>
       <c r="D89">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="E89">
         <v>0.60297</v>
       </c>
       <c r="F89">
-        <v>-0.7457307612919885</v>
+        <v>-0.7285754078363164</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="100" customHeight="1">
@@ -5949,13 +6609,13 @@
         <v>183</v>
       </c>
       <c r="D90">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E90">
         <v>0.60297</v>
       </c>
       <c r="F90">
-        <v>-0.7285754078363164</v>
+        <v>-1.775408371267989</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="100" customHeight="1">
@@ -5966,13 +6626,13 @@
         <v>185</v>
       </c>
       <c r="D91">
-        <v>95</v>
+        <v>43.5</v>
       </c>
       <c r="E91">
         <v>0.60297</v>
       </c>
       <c r="F91">
-        <v>-1.775408371267989</v>
+        <v>0.1576644147438256</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="100" customHeight="1">
@@ -5983,13 +6643,13 @@
         <v>187</v>
       </c>
       <c r="D92">
-        <v>43.5</v>
+        <v>90</v>
       </c>
       <c r="E92">
         <v>0.60297</v>
       </c>
       <c r="F92">
-        <v>0.1576644147438256</v>
+        <v>-1.32486050339642</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="100" customHeight="1">
@@ -6000,13 +6660,268 @@
         <v>189</v>
       </c>
       <c r="D93">
-        <v>90</v>
+        <v>1.25</v>
       </c>
       <c r="E93">
-        <v>0.60297</v>
+        <v>0.59302</v>
       </c>
       <c r="F93">
-        <v>-1.32486050339642</v>
+        <v>2.591169965469993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="100" customHeight="1">
+      <c r="A94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94">
+        <v>1.5</v>
+      </c>
+      <c r="E94">
+        <v>0.59302</v>
+      </c>
+      <c r="F94">
+        <v>2.481546415790239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="100" customHeight="1">
+      <c r="A95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>0.59302</v>
+      </c>
+      <c r="F95">
+        <v>1.884649482472939</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="100" customHeight="1">
+      <c r="A96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96">
+        <v>0.5</v>
+      </c>
+      <c r="E96">
+        <v>0.59302</v>
+      </c>
+      <c r="F96">
+        <v>3.139035627158119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="100" customHeight="1">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97">
+        <v>1.5</v>
+      </c>
+      <c r="E97">
+        <v>0.59302</v>
+      </c>
+      <c r="F97">
+        <v>2.481546415790239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="100" customHeight="1">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98">
+        <v>2.5</v>
+      </c>
+      <c r="E98">
+        <v>0.59302</v>
+      </c>
+      <c r="F98">
+        <v>2.172565327387803</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="100" customHeight="1">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99">
+        <v>28.9</v>
+      </c>
+      <c r="E99">
+        <v>0.59302</v>
+      </c>
+      <c r="F99">
+        <v>0.5338637297374834</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="100" customHeight="1">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100">
+        <v>91.7</v>
+      </c>
+      <c r="E100">
+        <v>0.59302</v>
+      </c>
+      <c r="F100">
+        <v>-1.424592295961991</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="100" customHeight="1">
+      <c r="A101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101">
+        <v>12.6</v>
+      </c>
+      <c r="E101">
+        <v>0.59302</v>
+      </c>
+      <c r="F101">
+        <v>1.14856022791088</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="100" customHeight="1">
+      <c r="A102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="s">
+        <v>207</v>
+      </c>
+      <c r="D102">
+        <v>5.25</v>
+      </c>
+      <c r="E102">
+        <v>0.59302</v>
+      </c>
+      <c r="F102">
+        <v>1.715615024319236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="100" customHeight="1">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="s">
+        <v>209</v>
+      </c>
+      <c r="D103">
+        <v>0.6499999999999986</v>
+      </c>
+      <c r="E103">
+        <v>0.59302</v>
+      </c>
+      <c r="F103">
+        <v>2.982553696496239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="100" customHeight="1">
+      <c r="A104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104">
+        <v>95.7</v>
+      </c>
+      <c r="E104">
+        <v>0.59302</v>
+      </c>
+      <c r="F104">
+        <v>-1.839905794590835</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="100" customHeight="1">
+      <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105">
+        <v>97.2</v>
+      </c>
+      <c r="E105">
+        <v>0.59302</v>
+      </c>
+      <c r="F105">
+        <v>-2.10353166053703</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="100" customHeight="1">
+      <c r="A106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="s">
+        <v>215</v>
+      </c>
+      <c r="D106">
+        <v>96.8</v>
+      </c>
+      <c r="E106">
+        <v>0.59302</v>
+      </c>
+      <c r="F106">
+        <v>-2.02189942731846</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="100" customHeight="1">
+      <c r="A107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107">
+        <v>99.75</v>
+      </c>
+      <c r="E107">
+        <v>0.59302</v>
+      </c>
+      <c r="F107">
+        <v>-3.55157389944404</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="100" customHeight="1">
+      <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" t="s">
+        <v>219</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>0.59302</v>
+      </c>
+      <c r="F108">
+        <v>1.631715471340137</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>smiles</t>
   </si>
@@ -262,10 +262,10 @@
     <t>ABEVIHIQUUXDMS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1Br)c1cc(C)ccc1</t>
-  </si>
-  <si>
-    <t>WJCGUPWVAISGFI-UHFFFAOYSA-N</t>
+    <t>C(=O)(c1ccccc1Br)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>PGNXIGKGMHOQCA-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1ccccc1OC)c1ccccc1</t>
@@ -364,31 +364,31 @@
     <t>SLOCEDWZEACARV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C(C)NC)c1ccccc1</t>
-  </si>
-  <si>
-    <t>LPLLVINFLBSFRP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(C)NC(=O)C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>XFOFGOGCAHRANZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CNC(C1=CC=CC=C1)=O)c2ccccc2</t>
+    <t>C(=O)(CN(C)C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>UMLWXYJZDNNBTD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)C(=O)C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>WILPNXBAEMGDCS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CNC(=O)c1ccccc1)c2ccccc2</t>
   </si>
   <si>
     <t>MIJZKZQWQXKSPA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>c1ccccc1OCN(C)CC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>AKWKJSHIAARTRC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)(C)OC(=O)N(C)CC(=O)c1ccccc1</t>
+    <t>O=C(CN(C)C(=O)c1ccccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>KXARYBXYBGQZCM-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CN(C)C(=O)OC(C)(C)C)c2ccccc2</t>
   </si>
   <si>
     <t>WFKSNAFHIMNMLV-UHFFFAOYSA-N</t>
@@ -454,12 +454,6 @@
     <t>CAXIQKXPSQYDIR-CMDGGOBGSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1)/C=C/c2ccccc2</t>
-  </si>
-  <si>
-    <t>DQFBYFPFKXHELB-VAWYXSNFSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(/C=C/CCCCC)C</t>
   </si>
   <si>
@@ -674,6 +668,36 @@
   </si>
   <si>
     <t>GZTUXOWPGYDWNO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>WXPWZZHELZEVPO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(OC)cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>SWFHGTMLYIBPPA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(Cl)cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>UGVRJVHOJNYEHR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C(F)(F)F)cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CN2C=CN=C2)c1c(Cl)cc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>YAEYBUZMILPYLT-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -4779,6 +4803,158 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="134473950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Picture 108" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="135740775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="137007600"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 110" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="138274425"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="139541250"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5076,7 +5252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5113,13 +5289,13 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
         <v>0.59899</v>
       </c>
       <c r="F2">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100" customHeight="1">
@@ -5130,13 +5306,13 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
         <v>0.59899</v>
       </c>
       <c r="F3">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100" customHeight="1">
@@ -5147,13 +5323,13 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
         <v>0.59899</v>
       </c>
       <c r="F4">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="100" customHeight="1">
@@ -5164,13 +5340,13 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0.59899</v>
       </c>
       <c r="F5">
-        <v>-2.331161440365284</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100" customHeight="1">
@@ -5181,13 +5357,13 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
         <v>0.59899</v>
       </c>
       <c r="F6">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1">
@@ -5198,13 +5374,13 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>98.5</v>
+        <v>1.5</v>
       </c>
       <c r="E7">
         <v>0.59899</v>
       </c>
       <c r="F7">
-        <v>-2.506528426687459</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1">
@@ -5215,13 +5391,13 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0.59899</v>
       </c>
       <c r="F8">
-        <v>-2.752430839032114</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="100" customHeight="1">
@@ -5232,13 +5408,13 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0.59899</v>
       </c>
       <c r="F9">
-        <v>-2.331161440365284</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="100" customHeight="1">
@@ -5249,13 +5425,13 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
         <v>0.59899</v>
       </c>
       <c r="F10">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100" customHeight="1">
@@ -5266,13 +5442,13 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>0.59899</v>
       </c>
       <c r="F11">
-        <v>-1.903622463840115</v>
+        <v>1.903622463840116</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100" customHeight="1">
@@ -5283,13 +5459,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0.59899</v>
       </c>
       <c r="F12">
-        <v>-2.752430839032114</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -5300,13 +5476,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>99.75</v>
+        <v>0.25</v>
       </c>
       <c r="E13">
         <v>0.59899</v>
       </c>
       <c r="F13">
-        <v>-3.587327999102873</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -5317,13 +5493,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0.59899</v>
       </c>
       <c r="F14">
-        <v>-2.752430839032114</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -5334,13 +5510,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>99.75</v>
+        <v>0.25</v>
       </c>
       <c r="E15">
         <v>0.59899</v>
       </c>
       <c r="F15">
-        <v>-3.587327999102873</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -5351,13 +5527,13 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E16">
         <v>0.59899</v>
       </c>
       <c r="F16">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -5368,13 +5544,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E17">
         <v>0.59899</v>
       </c>
       <c r="F17">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -5385,13 +5561,13 @@
         <v>39</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0.59899</v>
       </c>
       <c r="F18">
-        <v>-2.752430839032114</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -5402,13 +5578,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0.59899</v>
       </c>
       <c r="F19">
-        <v>-2.752430839032114</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -5419,13 +5595,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>98.5</v>
+        <v>1.5</v>
       </c>
       <c r="E20">
         <v>0.59899</v>
       </c>
       <c r="F20">
-        <v>-2.506528426687459</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -5436,13 +5612,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>98.5</v>
+        <v>1.5</v>
       </c>
       <c r="E21">
         <v>0.59899</v>
       </c>
       <c r="F21">
-        <v>-2.506528426687459</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -5453,13 +5629,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>99.75</v>
+        <v>0.25</v>
       </c>
       <c r="E22">
         <v>0.59899</v>
       </c>
       <c r="F22">
-        <v>-3.587327999102873</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -5470,13 +5646,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>99.75</v>
+        <v>0.25</v>
       </c>
       <c r="E23">
         <v>0.59899</v>
       </c>
       <c r="F23">
-        <v>-3.587327999102873</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -5487,13 +5663,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>99.75</v>
+        <v>0.25</v>
       </c>
       <c r="E24">
         <v>0.59899</v>
       </c>
       <c r="F24">
-        <v>-3.587327999102873</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -5504,13 +5680,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E25">
         <v>0.59899</v>
       </c>
       <c r="F25">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -5521,13 +5697,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>99.75</v>
+        <v>0.25</v>
       </c>
       <c r="E26">
         <v>0.59899</v>
       </c>
       <c r="F26">
-        <v>-3.587327999102873</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -5538,13 +5714,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E27">
         <v>0.59899</v>
       </c>
       <c r="F27">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -5555,13 +5731,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E28">
         <v>0.59899</v>
       </c>
       <c r="F28">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -5572,13 +5748,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E29">
         <v>0.59899</v>
       </c>
       <c r="F29">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -5589,13 +5765,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E30">
         <v>0.59899</v>
       </c>
       <c r="F30">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -5606,13 +5782,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>98.5</v>
+        <v>1.5</v>
       </c>
       <c r="E31">
         <v>0.59899</v>
       </c>
       <c r="F31">
-        <v>-2.506528426687459</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -5623,13 +5799,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>0.59899</v>
       </c>
       <c r="F32">
-        <v>-2.331161440365284</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -5640,13 +5816,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>99.75</v>
+        <v>0.25</v>
       </c>
       <c r="E33">
         <v>0.59899</v>
       </c>
       <c r="F33">
-        <v>-3.587327999102873</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -5657,13 +5833,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0.59899</v>
       </c>
       <c r="F34">
-        <v>-2.752430839032114</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -5674,13 +5850,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E35">
         <v>0.59899</v>
       </c>
       <c r="F35">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -5691,13 +5867,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>3.5</v>
+        <v>96.5</v>
       </c>
       <c r="E36">
         <v>0.59899</v>
       </c>
       <c r="F36">
-        <v>1.986718076069495</v>
+        <v>-1.986718076069497</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -5708,13 +5884,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>1.5</v>
+        <v>99.5</v>
       </c>
       <c r="E37">
         <v>0.59899</v>
       </c>
       <c r="F37">
-        <v>2.506528426687457</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -5725,13 +5901,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>1.5</v>
+        <v>98.5</v>
       </c>
       <c r="E38">
         <v>0.59899</v>
       </c>
       <c r="F38">
-        <v>2.506528426687457</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -5742,13 +5918,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>98.5</v>
       </c>
       <c r="E39">
         <v>0.59899</v>
       </c>
       <c r="F39">
-        <v>2.331161440365284</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -5759,13 +5935,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E40">
         <v>0.59899</v>
       </c>
       <c r="F40">
-        <v>2.752430839032118</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -5776,13 +5952,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>0.2999999999999972</v>
+        <v>99.7</v>
       </c>
       <c r="E41">
         <v>0.59899</v>
       </c>
       <c r="F41">
-        <v>3.477818888910136</v>
+        <v>-3.47781888891013</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -5793,13 +5969,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E42">
         <v>0.59899</v>
       </c>
       <c r="F42">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -5810,13 +5986,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0.59899</v>
       </c>
       <c r="F43">
-        <v>-2.752430839032114</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -5827,13 +6003,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E44">
         <v>0.59899</v>
       </c>
       <c r="F44">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -5844,13 +6020,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>98.5</v>
+        <v>1.5</v>
       </c>
       <c r="E45">
         <v>0.59899</v>
       </c>
       <c r="F45">
-        <v>-2.506528426687459</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -5861,13 +6037,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>99.75</v>
+        <v>0.25</v>
       </c>
       <c r="E46">
         <v>0.59899</v>
       </c>
       <c r="F46">
-        <v>-3.587327999102873</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -5878,13 +6054,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>0.59899</v>
       </c>
       <c r="F47">
-        <v>-2.331161440365284</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -5895,13 +6071,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0.59899</v>
       </c>
       <c r="F48">
-        <v>-2.752430839032114</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -5912,13 +6088,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>0.59899</v>
       </c>
       <c r="F49">
-        <v>-2.331161440365284</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -5929,13 +6105,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>99.75</v>
+        <v>0.25</v>
       </c>
       <c r="E50">
         <v>0.59899</v>
       </c>
       <c r="F50">
-        <v>-3.587327999102873</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -5946,13 +6122,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>99.75</v>
+        <v>0.25</v>
       </c>
       <c r="E51">
         <v>0.59899</v>
       </c>
       <c r="F51">
-        <v>-3.587327999102873</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -5963,13 +6139,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="E52">
         <v>0.59899</v>
       </c>
       <c r="F52">
-        <v>-2.082148354224433</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -5980,13 +6156,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>97.5</v>
+        <v>2.5</v>
       </c>
       <c r="E53">
         <v>0.59899</v>
       </c>
       <c r="F53">
-        <v>-2.194436790415199</v>
+        <v>2.194436790415197</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -5997,13 +6173,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>92.5</v>
+        <v>7.5</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>-1.504845945705453</v>
+        <v>1.504845945705453</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -6014,13 +6190,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>-1.903622463840115</v>
+        <v>1.903622463840116</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -6031,13 +6207,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>90.5</v>
+        <v>9.5</v>
       </c>
       <c r="E56">
         <v>0.59899</v>
       </c>
       <c r="F56">
-        <v>-1.35015823262701</v>
+        <v>1.350158232627011</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -6048,13 +6224,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>3.5</v>
+        <v>96.5</v>
       </c>
       <c r="E57">
         <v>0.59899</v>
       </c>
       <c r="F57">
-        <v>1.986718076069495</v>
+        <v>-1.986718076069497</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -6065,13 +6241,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E58">
         <v>0.59899</v>
       </c>
       <c r="F58">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -6082,13 +6258,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>2.5</v>
+        <v>97.5</v>
       </c>
       <c r="E59">
         <v>0.59899</v>
       </c>
       <c r="F59">
-        <v>2.194436790415197</v>
+        <v>-2.194436790415199</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -6099,13 +6275,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>0.25</v>
+        <v>99.75</v>
       </c>
       <c r="E60">
         <v>0.59899</v>
       </c>
       <c r="F60">
-        <v>3.58732799910286</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -6116,13 +6292,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E61">
         <v>0.59899</v>
       </c>
       <c r="F61">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -6133,13 +6309,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>1.5</v>
+        <v>98.5</v>
       </c>
       <c r="E62">
         <v>0.59899</v>
       </c>
       <c r="F62">
-        <v>2.506528426687457</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -6150,13 +6326,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>98.75</v>
+        <v>1.25</v>
       </c>
       <c r="E63">
         <v>0.59899</v>
       </c>
       <c r="F63">
-        <v>-2.617255569149218</v>
+        <v>2.617255569149221</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -6167,13 +6343,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="E64">
         <v>0.59899</v>
       </c>
       <c r="F64">
-        <v>-1.903622463840115</v>
+        <v>1.903622463840116</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -6184,13 +6360,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E65">
         <v>0.59899</v>
       </c>
       <c r="F65">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -6201,13 +6377,13 @@
         <v>135</v>
       </c>
       <c r="D66">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E66">
         <v>0.59899</v>
       </c>
       <c r="F66">
-        <v>-1.316115549578622</v>
+        <v>1.316115549578622</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
@@ -6218,13 +6394,13 @@
         <v>137</v>
       </c>
       <c r="D67">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>0.59899</v>
       </c>
       <c r="F67">
-        <v>-2.752430839032114</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="100" customHeight="1">
@@ -6235,13 +6411,13 @@
         <v>139</v>
       </c>
       <c r="D68">
-        <v>2.5</v>
+        <v>97.5</v>
       </c>
       <c r="E68">
         <v>0.59899</v>
       </c>
       <c r="F68">
-        <v>2.194436790415197</v>
+        <v>-2.194436790415199</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="100" customHeight="1">
@@ -6252,13 +6428,13 @@
         <v>141</v>
       </c>
       <c r="D69">
-        <v>31.5</v>
+        <v>68.5</v>
       </c>
       <c r="E69">
         <v>0.59899</v>
       </c>
       <c r="F69">
-        <v>0.4653231050005244</v>
+        <v>-0.4653231050005244</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="100" customHeight="1">
@@ -6269,13 +6445,13 @@
         <v>143</v>
       </c>
       <c r="D70">
-        <v>98.5</v>
+        <v>1.5</v>
       </c>
       <c r="E70">
         <v>0.59899</v>
       </c>
       <c r="F70">
-        <v>-2.506528426687459</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="100" customHeight="1">
@@ -6286,13 +6462,13 @@
         <v>145</v>
       </c>
       <c r="D71">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="E71">
         <v>0.59899</v>
       </c>
       <c r="F71">
-        <v>-1.549401050221227</v>
+        <v>1.549401050221227</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="100" customHeight="1">
@@ -6303,13 +6479,13 @@
         <v>147</v>
       </c>
       <c r="D72">
-        <v>71</v>
+        <v>1.5</v>
       </c>
       <c r="E72">
         <v>0.59899</v>
       </c>
       <c r="F72">
-        <v>-0.5363260903453796</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="100" customHeight="1">
@@ -6320,13 +6496,13 @@
         <v>149</v>
       </c>
       <c r="D73">
-        <v>98.5</v>
+        <v>5</v>
       </c>
       <c r="E73">
         <v>0.59899</v>
       </c>
       <c r="F73">
-        <v>-2.506528426687459</v>
+        <v>1.763689504130906</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="100" customHeight="1">
@@ -6337,13 +6513,13 @@
         <v>151</v>
       </c>
       <c r="D74">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>0.59899</v>
       </c>
       <c r="F74">
-        <v>-1.763689504130907</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="100" customHeight="1">
@@ -6354,13 +6530,13 @@
         <v>153</v>
       </c>
       <c r="D75">
-        <v>97</v>
+        <v>4.5</v>
       </c>
       <c r="E75">
         <v>0.59899</v>
       </c>
       <c r="F75">
-        <v>-2.082148354224433</v>
+        <v>1.829943711087029</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="100" customHeight="1">
@@ -6371,13 +6547,13 @@
         <v>155</v>
       </c>
       <c r="D76">
-        <v>95.5</v>
+        <v>3.5</v>
       </c>
       <c r="E76">
         <v>0.59899</v>
       </c>
       <c r="F76">
-        <v>-1.829943711087029</v>
+        <v>1.986718076069495</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="100" customHeight="1">
@@ -6388,13 +6564,13 @@
         <v>157</v>
       </c>
       <c r="D77">
-        <v>96.5</v>
+        <v>0.25</v>
       </c>
       <c r="E77">
         <v>0.59899</v>
       </c>
       <c r="F77">
-        <v>-1.986718076069497</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="100" customHeight="1">
@@ -6405,13 +6581,13 @@
         <v>159</v>
       </c>
       <c r="D78">
-        <v>99.75</v>
+        <v>3</v>
       </c>
       <c r="E78">
         <v>0.59899</v>
       </c>
       <c r="F78">
-        <v>-3.587327999102873</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="100" customHeight="1">
@@ -6422,13 +6598,13 @@
         <v>161</v>
       </c>
       <c r="D79">
-        <v>97</v>
+        <v>0.5</v>
       </c>
       <c r="E79">
         <v>0.59899</v>
       </c>
       <c r="F79">
-        <v>-2.082148354224433</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="100" customHeight="1">
@@ -6439,13 +6615,13 @@
         <v>163</v>
       </c>
       <c r="D80">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E80">
         <v>0.59899</v>
       </c>
       <c r="F80">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="100" customHeight="1">
@@ -6456,13 +6632,13 @@
         <v>165</v>
       </c>
       <c r="D81">
-        <v>99.5</v>
+        <v>15</v>
       </c>
       <c r="E81">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F81">
-        <v>-3.170636656961734</v>
+        <v>1.045912398367367</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="100" customHeight="1">
@@ -6473,13 +6649,13 @@
         <v>167</v>
       </c>
       <c r="D82">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>0.60297</v>
       </c>
       <c r="F82">
-        <v>1.045912398367367</v>
+        <v>0.8358939109244604</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="100" customHeight="1">
@@ -6490,13 +6666,13 @@
         <v>169</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E83">
         <v>0.60297</v>
       </c>
       <c r="F83">
-        <v>0.8358939109244604</v>
+        <v>0.6624302516982101</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="100" customHeight="1">
@@ -6507,13 +6683,13 @@
         <v>171</v>
       </c>
       <c r="D84">
-        <v>25</v>
+        <v>84.5</v>
       </c>
       <c r="E84">
         <v>0.60297</v>
       </c>
       <c r="F84">
-        <v>0.6624302516982101</v>
+        <v>-1.022583763448757</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="100" customHeight="1">
@@ -6524,13 +6700,13 @@
         <v>173</v>
       </c>
       <c r="D85">
-        <v>84.5</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>0.60297</v>
       </c>
       <c r="F85">
-        <v>-1.022583763448757</v>
+        <v>0.9998617833496319</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="100" customHeight="1">
@@ -6541,13 +6717,13 @@
         <v>175</v>
       </c>
       <c r="D86">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E86">
         <v>0.60297</v>
       </c>
       <c r="F86">
-        <v>0.9998617833496319</v>
+        <v>-1.260654159218154</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="100" customHeight="1">
@@ -6558,13 +6734,13 @@
         <v>177</v>
       </c>
       <c r="D87">
-        <v>89</v>
+        <v>77.5</v>
       </c>
       <c r="E87">
         <v>0.60297</v>
       </c>
       <c r="F87">
-        <v>-1.260654159218154</v>
+        <v>-0.7457307612919885</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="100" customHeight="1">
@@ -6575,13 +6751,13 @@
         <v>179</v>
       </c>
       <c r="D88">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="E88">
         <v>0.60297</v>
       </c>
       <c r="F88">
-        <v>-0.7457307612919885</v>
+        <v>-0.7285754078363164</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="100" customHeight="1">
@@ -6592,13 +6768,13 @@
         <v>181</v>
       </c>
       <c r="D89">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E89">
         <v>0.60297</v>
       </c>
       <c r="F89">
-        <v>-0.7285754078363164</v>
+        <v>-1.775408371267989</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="100" customHeight="1">
@@ -6609,13 +6785,13 @@
         <v>183</v>
       </c>
       <c r="D90">
-        <v>95</v>
+        <v>43.5</v>
       </c>
       <c r="E90">
         <v>0.60297</v>
       </c>
       <c r="F90">
-        <v>-1.775408371267989</v>
+        <v>0.1576644147438256</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="100" customHeight="1">
@@ -6626,13 +6802,13 @@
         <v>185</v>
       </c>
       <c r="D91">
-        <v>43.5</v>
+        <v>90</v>
       </c>
       <c r="E91">
         <v>0.60297</v>
       </c>
       <c r="F91">
-        <v>0.1576644147438256</v>
+        <v>-1.32486050339642</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="100" customHeight="1">
@@ -6643,13 +6819,13 @@
         <v>187</v>
       </c>
       <c r="D92">
-        <v>90</v>
+        <v>98.75</v>
       </c>
       <c r="E92">
-        <v>0.60297</v>
+        <v>0.59302</v>
       </c>
       <c r="F92">
-        <v>-1.32486050339642</v>
+        <v>-2.59116996546999</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="100" customHeight="1">
@@ -6660,13 +6836,13 @@
         <v>189</v>
       </c>
       <c r="D93">
-        <v>1.25</v>
+        <v>98.5</v>
       </c>
       <c r="E93">
         <v>0.59302</v>
       </c>
       <c r="F93">
-        <v>2.591169965469993</v>
+        <v>-2.481546415790242</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="100" customHeight="1">
@@ -6677,13 +6853,13 @@
         <v>191</v>
       </c>
       <c r="D94">
-        <v>1.5</v>
+        <v>96</v>
       </c>
       <c r="E94">
         <v>0.59302</v>
       </c>
       <c r="F94">
-        <v>2.481546415790239</v>
+        <v>-1.884649482472938</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="100" customHeight="1">
@@ -6694,13 +6870,13 @@
         <v>193</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>99.5</v>
       </c>
       <c r="E95">
         <v>0.59302</v>
       </c>
       <c r="F95">
-        <v>1.884649482472939</v>
+        <v>-3.139035627158129</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="100" customHeight="1">
@@ -6711,13 +6887,13 @@
         <v>195</v>
       </c>
       <c r="D96">
-        <v>0.5</v>
+        <v>98.5</v>
       </c>
       <c r="E96">
         <v>0.59302</v>
       </c>
       <c r="F96">
-        <v>3.139035627158119</v>
+        <v>-2.481546415790242</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="100" customHeight="1">
@@ -6728,13 +6904,13 @@
         <v>197</v>
       </c>
       <c r="D97">
-        <v>1.5</v>
+        <v>97.5</v>
       </c>
       <c r="E97">
         <v>0.59302</v>
       </c>
       <c r="F97">
-        <v>2.481546415790239</v>
+        <v>-2.172565327387805</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="100" customHeight="1">
@@ -6745,13 +6921,13 @@
         <v>199</v>
       </c>
       <c r="D98">
-        <v>2.5</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E98">
         <v>0.59302</v>
       </c>
       <c r="F98">
-        <v>2.172565327387803</v>
+        <v>-0.5338637297374831</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="100" customHeight="1">
@@ -6762,13 +6938,13 @@
         <v>201</v>
       </c>
       <c r="D99">
-        <v>28.9</v>
+        <v>8.299999999999997</v>
       </c>
       <c r="E99">
         <v>0.59302</v>
       </c>
       <c r="F99">
-        <v>0.5338637297374834</v>
+        <v>1.424592295961991</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="100" customHeight="1">
@@ -6779,13 +6955,13 @@
         <v>203</v>
       </c>
       <c r="D100">
-        <v>91.7</v>
+        <v>12.6</v>
       </c>
       <c r="E100">
         <v>0.59302</v>
       </c>
       <c r="F100">
-        <v>-1.424592295961991</v>
+        <v>1.14856022791088</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="100" customHeight="1">
@@ -6796,13 +6972,13 @@
         <v>205</v>
       </c>
       <c r="D101">
-        <v>12.6</v>
+        <v>5.25</v>
       </c>
       <c r="E101">
         <v>0.59302</v>
       </c>
       <c r="F101">
-        <v>1.14856022791088</v>
+        <v>1.715615024319236</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="100" customHeight="1">
@@ -6813,13 +6989,13 @@
         <v>207</v>
       </c>
       <c r="D102">
-        <v>5.25</v>
+        <v>0.6499999999999986</v>
       </c>
       <c r="E102">
         <v>0.59302</v>
       </c>
       <c r="F102">
-        <v>1.715615024319236</v>
+        <v>2.982553696496239</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="100" customHeight="1">
@@ -6830,13 +7006,13 @@
         <v>209</v>
       </c>
       <c r="D103">
-        <v>0.6499999999999986</v>
+        <v>95.7</v>
       </c>
       <c r="E103">
         <v>0.59302</v>
       </c>
       <c r="F103">
-        <v>2.982553696496239</v>
+        <v>-1.839905794590835</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="100" customHeight="1">
@@ -6847,13 +7023,13 @@
         <v>211</v>
       </c>
       <c r="D104">
-        <v>95.7</v>
+        <v>97.2</v>
       </c>
       <c r="E104">
         <v>0.59302</v>
       </c>
       <c r="F104">
-        <v>-1.839905794590835</v>
+        <v>-2.10353166053703</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="100" customHeight="1">
@@ -6864,13 +7040,13 @@
         <v>213</v>
       </c>
       <c r="D105">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="E105">
         <v>0.59302</v>
       </c>
       <c r="F105">
-        <v>-2.10353166053703</v>
+        <v>-2.02189942731846</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="100" customHeight="1">
@@ -6881,13 +7057,13 @@
         <v>215</v>
       </c>
       <c r="D106">
-        <v>96.8</v>
+        <v>99.75</v>
       </c>
       <c r="E106">
         <v>0.59302</v>
       </c>
       <c r="F106">
-        <v>-2.02189942731846</v>
+        <v>-3.55157389944404</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="100" customHeight="1">
@@ -6898,13 +7074,13 @@
         <v>217</v>
       </c>
       <c r="D107">
-        <v>99.75</v>
+        <v>6</v>
       </c>
       <c r="E107">
         <v>0.59302</v>
       </c>
       <c r="F107">
-        <v>-3.55157389944404</v>
+        <v>1.631715471340137</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="100" customHeight="1">
@@ -6915,13 +7091,81 @@
         <v>219</v>
       </c>
       <c r="D108">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E108">
+        <v>0.59899</v>
+      </c>
+      <c r="F108">
+        <v>0.09604364396853164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="100" customHeight="1">
+      <c r="A109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="s">
+        <v>221</v>
+      </c>
+      <c r="D109">
+        <v>32.5</v>
+      </c>
+      <c r="E109">
+        <v>0.59899</v>
+      </c>
+      <c r="F109">
+        <v>0.4377943087420472</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="100" customHeight="1">
+      <c r="A110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110">
+        <v>54.5</v>
+      </c>
+      <c r="E110">
+        <v>0.59899</v>
+      </c>
+      <c r="F110">
+        <v>-0.1081107321679067</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="100" customHeight="1">
+      <c r="A111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" t="s">
+        <v>225</v>
+      </c>
+      <c r="D111">
+        <v>73.5</v>
+      </c>
+      <c r="E111">
+        <v>0.59899</v>
+      </c>
+      <c r="F111">
+        <v>-0.6110540618560099</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="100" customHeight="1">
+      <c r="A112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" t="s">
+        <v>227</v>
+      </c>
+      <c r="D112">
+        <v>99.5</v>
+      </c>
+      <c r="E112">
         <v>0.59302</v>
       </c>
-      <c r="F108">
-        <v>1.631715471340137</v>
+      <c r="F112">
+        <v>-3.139035627158129</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>smiles</t>
   </si>
@@ -262,10 +262,10 @@
     <t>ABEVIHIQUUXDMS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1Br)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t>PGNXIGKGMHOQCA-UHFFFAOYSA-N</t>
+    <t>C(=O)(c1ccccc1Br)c1cc(C)ccc1</t>
+  </si>
+  <si>
+    <t>WJCGUPWVAISGFI-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1ccccc1OC)c1ccccc1</t>
@@ -364,31 +364,31 @@
     <t>SLOCEDWZEACARV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(CN(C)C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>UMLWXYJZDNNBTD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)C(=O)C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>WILPNXBAEMGDCS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CNC(=O)c1ccccc1)c2ccccc2</t>
+    <t>C(=O)(C(C)NC)c1ccccc1</t>
+  </si>
+  <si>
+    <t>LPLLVINFLBSFRP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(C)NC(=O)C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>XFOFGOGCAHRANZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CNC(C1=CC=CC=C1)=O)c2ccccc2</t>
   </si>
   <si>
     <t>MIJZKZQWQXKSPA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>O=C(CN(C)C(=O)c1ccccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>KXARYBXYBGQZCM-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CN(C)C(=O)OC(C)(C)C)c2ccccc2</t>
+    <t>c1ccccc1OCN(C)CC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>AKWKJSHIAARTRC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)(C)OC(=O)N(C)CC(=O)c1ccccc1</t>
   </si>
   <si>
     <t>WFKSNAFHIMNMLV-UHFFFAOYSA-N</t>
@@ -454,6 +454,12 @@
     <t>CAXIQKXPSQYDIR-CMDGGOBGSA-N</t>
   </si>
   <si>
+    <t>C(=O)(c1ccccc1)/C=C/c2ccccc2</t>
+  </si>
+  <si>
+    <t>DQFBYFPFKXHELB-VAWYXSNFSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(/C=C/CCCCC)C</t>
   </si>
   <si>
@@ -668,36 +674,6 @@
   </si>
   <si>
     <t>GZTUXOWPGYDWNO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>WXPWZZHELZEVPO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(OC)cc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>SWFHGTMLYIBPPA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(Cl)cc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>UGVRJVHOJNYEHR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(C(F)(F)F)cc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CN2C=CN=C2)c1c(Cl)cc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>YAEYBUZMILPYLT-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -4803,158 +4779,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="134473950"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Picture 108" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="135740775"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Picture 109" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="137007600"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Picture 110" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="138274425"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Picture 111" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="139541250"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5252,7 +5076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5289,13 +5113,13 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E2">
         <v>0.59899</v>
       </c>
       <c r="F2">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100" customHeight="1">
@@ -5306,13 +5130,13 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E3">
         <v>0.59899</v>
       </c>
       <c r="F3">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100" customHeight="1">
@@ -5323,13 +5147,13 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E4">
         <v>0.59899</v>
       </c>
       <c r="F4">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="100" customHeight="1">
@@ -5340,13 +5164,13 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0.59899</v>
       </c>
       <c r="F5">
-        <v>2.331161440365284</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100" customHeight="1">
@@ -5357,13 +5181,13 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E6">
         <v>0.59899</v>
       </c>
       <c r="F6">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1">
@@ -5374,13 +5198,13 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>1.5</v>
+        <v>98.5</v>
       </c>
       <c r="E7">
         <v>0.59899</v>
       </c>
       <c r="F7">
-        <v>2.506528426687457</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1">
@@ -5391,13 +5215,13 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>0.59899</v>
       </c>
       <c r="F8">
-        <v>2.752430839032118</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="100" customHeight="1">
@@ -5408,13 +5232,13 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0.59899</v>
       </c>
       <c r="F9">
-        <v>2.331161440365284</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="100" customHeight="1">
@@ -5425,13 +5249,13 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E10">
         <v>0.59899</v>
       </c>
       <c r="F10">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100" customHeight="1">
@@ -5442,13 +5266,13 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>0.59899</v>
       </c>
       <c r="F11">
-        <v>1.903622463840116</v>
+        <v>-1.903622463840115</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100" customHeight="1">
@@ -5459,13 +5283,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E12">
         <v>0.59899</v>
       </c>
       <c r="F12">
-        <v>2.752430839032118</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -5476,13 +5300,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>0.25</v>
+        <v>99.75</v>
       </c>
       <c r="E13">
         <v>0.59899</v>
       </c>
       <c r="F13">
-        <v>3.58732799910286</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -5493,13 +5317,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <v>0.59899</v>
       </c>
       <c r="F14">
-        <v>2.752430839032118</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -5510,13 +5334,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>0.25</v>
+        <v>99.75</v>
       </c>
       <c r="E15">
         <v>0.59899</v>
       </c>
       <c r="F15">
-        <v>3.58732799910286</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -5527,13 +5351,13 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E16">
         <v>0.59899</v>
       </c>
       <c r="F16">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -5544,13 +5368,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E17">
         <v>0.59899</v>
       </c>
       <c r="F17">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -5561,13 +5385,13 @@
         <v>39</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>0.59899</v>
       </c>
       <c r="F18">
-        <v>2.752430839032118</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -5578,13 +5402,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E19">
         <v>0.59899</v>
       </c>
       <c r="F19">
-        <v>2.752430839032118</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -5595,13 +5419,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>1.5</v>
+        <v>98.5</v>
       </c>
       <c r="E20">
         <v>0.59899</v>
       </c>
       <c r="F20">
-        <v>2.506528426687457</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -5612,13 +5436,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>1.5</v>
+        <v>98.5</v>
       </c>
       <c r="E21">
         <v>0.59899</v>
       </c>
       <c r="F21">
-        <v>2.506528426687457</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -5629,13 +5453,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>0.25</v>
+        <v>99.75</v>
       </c>
       <c r="E22">
         <v>0.59899</v>
       </c>
       <c r="F22">
-        <v>3.58732799910286</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -5646,13 +5470,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>0.25</v>
+        <v>99.75</v>
       </c>
       <c r="E23">
         <v>0.59899</v>
       </c>
       <c r="F23">
-        <v>3.58732799910286</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -5663,13 +5487,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>0.25</v>
+        <v>99.75</v>
       </c>
       <c r="E24">
         <v>0.59899</v>
       </c>
       <c r="F24">
-        <v>3.58732799910286</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -5680,13 +5504,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E25">
         <v>0.59899</v>
       </c>
       <c r="F25">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -5697,13 +5521,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>0.25</v>
+        <v>99.75</v>
       </c>
       <c r="E26">
         <v>0.59899</v>
       </c>
       <c r="F26">
-        <v>3.58732799910286</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -5714,13 +5538,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E27">
         <v>0.59899</v>
       </c>
       <c r="F27">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -5731,13 +5555,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E28">
         <v>0.59899</v>
       </c>
       <c r="F28">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -5748,13 +5572,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E29">
         <v>0.59899</v>
       </c>
       <c r="F29">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -5765,13 +5589,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E30">
         <v>0.59899</v>
       </c>
       <c r="F30">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -5782,13 +5606,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>1.5</v>
+        <v>98.5</v>
       </c>
       <c r="E31">
         <v>0.59899</v>
       </c>
       <c r="F31">
-        <v>2.506528426687457</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -5799,13 +5623,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E32">
         <v>0.59899</v>
       </c>
       <c r="F32">
-        <v>2.331161440365284</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -5816,13 +5640,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>0.25</v>
+        <v>99.75</v>
       </c>
       <c r="E33">
         <v>0.59899</v>
       </c>
       <c r="F33">
-        <v>3.58732799910286</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -5833,13 +5657,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E34">
         <v>0.59899</v>
       </c>
       <c r="F34">
-        <v>2.752430839032118</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -5850,13 +5674,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E35">
         <v>0.59899</v>
       </c>
       <c r="F35">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -5867,13 +5691,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>96.5</v>
+        <v>3.5</v>
       </c>
       <c r="E36">
         <v>0.59899</v>
       </c>
       <c r="F36">
-        <v>-1.986718076069497</v>
+        <v>1.986718076069495</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -5884,13 +5708,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>99.5</v>
+        <v>1.5</v>
       </c>
       <c r="E37">
         <v>0.59899</v>
       </c>
       <c r="F37">
-        <v>-3.170636656961734</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -5901,13 +5725,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>98.5</v>
+        <v>1.5</v>
       </c>
       <c r="E38">
         <v>0.59899</v>
       </c>
       <c r="F38">
-        <v>-2.506528426687459</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -5918,13 +5742,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>98.5</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>0.59899</v>
       </c>
       <c r="F39">
-        <v>-2.506528426687459</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -5935,13 +5759,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0.59899</v>
       </c>
       <c r="F40">
-        <v>-2.331161440365284</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -5952,13 +5776,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>99.7</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="E41">
         <v>0.59899</v>
       </c>
       <c r="F41">
-        <v>-3.47781888891013</v>
+        <v>3.477818888910136</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -5969,13 +5793,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E42">
         <v>0.59899</v>
       </c>
       <c r="F42">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -5986,13 +5810,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <v>0.59899</v>
       </c>
       <c r="F43">
-        <v>2.752430839032118</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -6003,13 +5827,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E44">
         <v>0.59899</v>
       </c>
       <c r="F44">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -6020,13 +5844,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>1.5</v>
+        <v>98.5</v>
       </c>
       <c r="E45">
         <v>0.59899</v>
       </c>
       <c r="F45">
-        <v>2.506528426687457</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -6037,13 +5861,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>0.25</v>
+        <v>99.75</v>
       </c>
       <c r="E46">
         <v>0.59899</v>
       </c>
       <c r="F46">
-        <v>3.58732799910286</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -6054,13 +5878,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E47">
         <v>0.59899</v>
       </c>
       <c r="F47">
-        <v>2.331161440365284</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -6071,13 +5895,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E48">
         <v>0.59899</v>
       </c>
       <c r="F48">
-        <v>2.752430839032118</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -6088,13 +5912,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E49">
         <v>0.59899</v>
       </c>
       <c r="F49">
-        <v>2.331161440365284</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -6105,13 +5929,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>0.25</v>
+        <v>99.75</v>
       </c>
       <c r="E50">
         <v>0.59899</v>
       </c>
       <c r="F50">
-        <v>3.58732799910286</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -6122,13 +5946,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>0.25</v>
+        <v>99.75</v>
       </c>
       <c r="E51">
         <v>0.59899</v>
       </c>
       <c r="F51">
-        <v>3.58732799910286</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -6139,13 +5963,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="E52">
         <v>0.59899</v>
       </c>
       <c r="F52">
-        <v>2.08214835422443</v>
+        <v>-2.082148354224433</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -6156,13 +5980,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>2.5</v>
+        <v>97.5</v>
       </c>
       <c r="E53">
         <v>0.59899</v>
       </c>
       <c r="F53">
-        <v>2.194436790415197</v>
+        <v>-2.194436790415199</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -6173,13 +5997,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>7.5</v>
+        <v>92.5</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>1.504845945705453</v>
+        <v>-1.504845945705453</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -6190,13 +6014,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>1.903622463840116</v>
+        <v>-1.903622463840115</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -6207,13 +6031,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>9.5</v>
+        <v>90.5</v>
       </c>
       <c r="E56">
         <v>0.59899</v>
       </c>
       <c r="F56">
-        <v>1.350158232627011</v>
+        <v>-1.35015823262701</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -6224,13 +6048,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>96.5</v>
+        <v>3.5</v>
       </c>
       <c r="E57">
         <v>0.59899</v>
       </c>
       <c r="F57">
-        <v>-1.986718076069497</v>
+        <v>1.986718076069495</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -6241,13 +6065,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E58">
         <v>0.59899</v>
       </c>
       <c r="F58">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -6258,13 +6082,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>97.5</v>
+        <v>2.5</v>
       </c>
       <c r="E59">
         <v>0.59899</v>
       </c>
       <c r="F59">
-        <v>-2.194436790415199</v>
+        <v>2.194436790415197</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -6275,13 +6099,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>99.75</v>
+        <v>0.25</v>
       </c>
       <c r="E60">
         <v>0.59899</v>
       </c>
       <c r="F60">
-        <v>-3.587327999102873</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -6292,13 +6116,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E61">
         <v>0.59899</v>
       </c>
       <c r="F61">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -6309,13 +6133,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>98.5</v>
+        <v>1.5</v>
       </c>
       <c r="E62">
         <v>0.59899</v>
       </c>
       <c r="F62">
-        <v>-2.506528426687459</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -6326,13 +6150,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>1.25</v>
+        <v>98.75</v>
       </c>
       <c r="E63">
         <v>0.59899</v>
       </c>
       <c r="F63">
-        <v>2.617255569149221</v>
+        <v>-2.617255569149218</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -6343,13 +6167,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E64">
         <v>0.59899</v>
       </c>
       <c r="F64">
-        <v>1.903622463840116</v>
+        <v>-1.903622463840115</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -6360,13 +6184,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E65">
         <v>0.59899</v>
       </c>
       <c r="F65">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -6377,13 +6201,13 @@
         <v>135</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E66">
         <v>0.59899</v>
       </c>
       <c r="F66">
-        <v>1.316115549578622</v>
+        <v>-1.316115549578622</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
@@ -6394,13 +6218,13 @@
         <v>137</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E67">
         <v>0.59899</v>
       </c>
       <c r="F67">
-        <v>2.752430839032118</v>
+        <v>-2.752430839032114</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="100" customHeight="1">
@@ -6411,13 +6235,13 @@
         <v>139</v>
       </c>
       <c r="D68">
-        <v>97.5</v>
+        <v>2.5</v>
       </c>
       <c r="E68">
         <v>0.59899</v>
       </c>
       <c r="F68">
-        <v>-2.194436790415199</v>
+        <v>2.194436790415197</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="100" customHeight="1">
@@ -6428,13 +6252,13 @@
         <v>141</v>
       </c>
       <c r="D69">
-        <v>68.5</v>
+        <v>31.5</v>
       </c>
       <c r="E69">
         <v>0.59899</v>
       </c>
       <c r="F69">
-        <v>-0.4653231050005244</v>
+        <v>0.4653231050005244</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="100" customHeight="1">
@@ -6445,13 +6269,13 @@
         <v>143</v>
       </c>
       <c r="D70">
-        <v>1.5</v>
+        <v>98.5</v>
       </c>
       <c r="E70">
         <v>0.59899</v>
       </c>
       <c r="F70">
-        <v>2.506528426687457</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="100" customHeight="1">
@@ -6462,13 +6286,13 @@
         <v>145</v>
       </c>
       <c r="D71">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="E71">
         <v>0.59899</v>
       </c>
       <c r="F71">
-        <v>1.549401050221227</v>
+        <v>-1.549401050221227</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="100" customHeight="1">
@@ -6479,13 +6303,13 @@
         <v>147</v>
       </c>
       <c r="D72">
-        <v>1.5</v>
+        <v>71</v>
       </c>
       <c r="E72">
         <v>0.59899</v>
       </c>
       <c r="F72">
-        <v>2.506528426687457</v>
+        <v>-0.5363260903453796</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="100" customHeight="1">
@@ -6496,13 +6320,13 @@
         <v>149</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>98.5</v>
       </c>
       <c r="E73">
         <v>0.59899</v>
       </c>
       <c r="F73">
-        <v>1.763689504130906</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="100" customHeight="1">
@@ -6513,13 +6337,13 @@
         <v>151</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="E74">
         <v>0.59899</v>
       </c>
       <c r="F74">
-        <v>2.08214835422443</v>
+        <v>-1.763689504130907</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="100" customHeight="1">
@@ -6530,13 +6354,13 @@
         <v>153</v>
       </c>
       <c r="D75">
-        <v>4.5</v>
+        <v>97</v>
       </c>
       <c r="E75">
         <v>0.59899</v>
       </c>
       <c r="F75">
-        <v>1.829943711087029</v>
+        <v>-2.082148354224433</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="100" customHeight="1">
@@ -6547,13 +6371,13 @@
         <v>155</v>
       </c>
       <c r="D76">
-        <v>3.5</v>
+        <v>95.5</v>
       </c>
       <c r="E76">
         <v>0.59899</v>
       </c>
       <c r="F76">
-        <v>1.986718076069495</v>
+        <v>-1.829943711087029</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="100" customHeight="1">
@@ -6564,13 +6388,13 @@
         <v>157</v>
       </c>
       <c r="D77">
-        <v>0.25</v>
+        <v>96.5</v>
       </c>
       <c r="E77">
         <v>0.59899</v>
       </c>
       <c r="F77">
-        <v>3.58732799910286</v>
+        <v>-1.986718076069497</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="100" customHeight="1">
@@ -6581,13 +6405,13 @@
         <v>159</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>99.75</v>
       </c>
       <c r="E78">
         <v>0.59899</v>
       </c>
       <c r="F78">
-        <v>2.08214835422443</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="100" customHeight="1">
@@ -6598,13 +6422,13 @@
         <v>161</v>
       </c>
       <c r="D79">
-        <v>0.5</v>
+        <v>97</v>
       </c>
       <c r="E79">
         <v>0.59899</v>
       </c>
       <c r="F79">
-        <v>3.170636656961724</v>
+        <v>-2.082148354224433</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="100" customHeight="1">
@@ -6615,13 +6439,13 @@
         <v>163</v>
       </c>
       <c r="D80">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E80">
         <v>0.59899</v>
       </c>
       <c r="F80">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="100" customHeight="1">
@@ -6632,13 +6456,13 @@
         <v>165</v>
       </c>
       <c r="D81">
-        <v>15</v>
+        <v>99.5</v>
       </c>
       <c r="E81">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F81">
-        <v>1.045912398367367</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="100" customHeight="1">
@@ -6649,13 +6473,13 @@
         <v>167</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E82">
         <v>0.60297</v>
       </c>
       <c r="F82">
-        <v>0.8358939109244604</v>
+        <v>1.045912398367367</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="100" customHeight="1">
@@ -6666,13 +6490,13 @@
         <v>169</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>0.60297</v>
       </c>
       <c r="F83">
-        <v>0.6624302516982101</v>
+        <v>0.8358939109244604</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="100" customHeight="1">
@@ -6683,13 +6507,13 @@
         <v>171</v>
       </c>
       <c r="D84">
-        <v>84.5</v>
+        <v>25</v>
       </c>
       <c r="E84">
         <v>0.60297</v>
       </c>
       <c r="F84">
-        <v>-1.022583763448757</v>
+        <v>0.6624302516982101</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="100" customHeight="1">
@@ -6700,13 +6524,13 @@
         <v>173</v>
       </c>
       <c r="D85">
-        <v>16</v>
+        <v>84.5</v>
       </c>
       <c r="E85">
         <v>0.60297</v>
       </c>
       <c r="F85">
-        <v>0.9998617833496319</v>
+        <v>-1.022583763448757</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="100" customHeight="1">
@@ -6717,13 +6541,13 @@
         <v>175</v>
       </c>
       <c r="D86">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>0.60297</v>
       </c>
       <c r="F86">
-        <v>-1.260654159218154</v>
+        <v>0.9998617833496319</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="100" customHeight="1">
@@ -6734,13 +6558,13 @@
         <v>177</v>
       </c>
       <c r="D87">
-        <v>77.5</v>
+        <v>89</v>
       </c>
       <c r="E87">
         <v>0.60297</v>
       </c>
       <c r="F87">
-        <v>-0.7457307612919885</v>
+        <v>-1.260654159218154</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="100" customHeight="1">
@@ -6751,13 +6575,13 @@
         <v>179</v>
       </c>
       <c r="D88">
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="E88">
         <v>0.60297</v>
       </c>
       <c r="F88">
-        <v>-0.7285754078363164</v>
+        <v>-0.7457307612919885</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="100" customHeight="1">
@@ -6768,13 +6592,13 @@
         <v>181</v>
       </c>
       <c r="D89">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E89">
         <v>0.60297</v>
       </c>
       <c r="F89">
-        <v>-1.775408371267989</v>
+        <v>-0.7285754078363164</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="100" customHeight="1">
@@ -6785,13 +6609,13 @@
         <v>183</v>
       </c>
       <c r="D90">
-        <v>43.5</v>
+        <v>95</v>
       </c>
       <c r="E90">
         <v>0.60297</v>
       </c>
       <c r="F90">
-        <v>0.1576644147438256</v>
+        <v>-1.775408371267989</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="100" customHeight="1">
@@ -6802,13 +6626,13 @@
         <v>185</v>
       </c>
       <c r="D91">
-        <v>90</v>
+        <v>43.5</v>
       </c>
       <c r="E91">
         <v>0.60297</v>
       </c>
       <c r="F91">
-        <v>-1.32486050339642</v>
+        <v>0.1576644147438256</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="100" customHeight="1">
@@ -6819,13 +6643,13 @@
         <v>187</v>
       </c>
       <c r="D92">
-        <v>98.75</v>
+        <v>90</v>
       </c>
       <c r="E92">
-        <v>0.59302</v>
+        <v>0.60297</v>
       </c>
       <c r="F92">
-        <v>-2.59116996546999</v>
+        <v>-1.32486050339642</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="100" customHeight="1">
@@ -6836,13 +6660,13 @@
         <v>189</v>
       </c>
       <c r="D93">
-        <v>98.5</v>
+        <v>1.25</v>
       </c>
       <c r="E93">
         <v>0.59302</v>
       </c>
       <c r="F93">
-        <v>-2.481546415790242</v>
+        <v>2.591169965469993</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="100" customHeight="1">
@@ -6853,13 +6677,13 @@
         <v>191</v>
       </c>
       <c r="D94">
-        <v>96</v>
+        <v>1.5</v>
       </c>
       <c r="E94">
         <v>0.59302</v>
       </c>
       <c r="F94">
-        <v>-1.884649482472938</v>
+        <v>2.481546415790239</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="100" customHeight="1">
@@ -6870,13 +6694,13 @@
         <v>193</v>
       </c>
       <c r="D95">
-        <v>99.5</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <v>0.59302</v>
       </c>
       <c r="F95">
-        <v>-3.139035627158129</v>
+        <v>1.884649482472939</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="100" customHeight="1">
@@ -6887,13 +6711,13 @@
         <v>195</v>
       </c>
       <c r="D96">
-        <v>98.5</v>
+        <v>0.5</v>
       </c>
       <c r="E96">
         <v>0.59302</v>
       </c>
       <c r="F96">
-        <v>-2.481546415790242</v>
+        <v>3.139035627158119</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="100" customHeight="1">
@@ -6904,13 +6728,13 @@
         <v>197</v>
       </c>
       <c r="D97">
-        <v>97.5</v>
+        <v>1.5</v>
       </c>
       <c r="E97">
         <v>0.59302</v>
       </c>
       <c r="F97">
-        <v>-2.172565327387805</v>
+        <v>2.481546415790239</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="100" customHeight="1">
@@ -6921,13 +6745,13 @@
         <v>199</v>
       </c>
       <c r="D98">
-        <v>71.09999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="E98">
         <v>0.59302</v>
       </c>
       <c r="F98">
-        <v>-0.5338637297374831</v>
+        <v>2.172565327387803</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="100" customHeight="1">
@@ -6938,13 +6762,13 @@
         <v>201</v>
       </c>
       <c r="D99">
-        <v>8.299999999999997</v>
+        <v>28.9</v>
       </c>
       <c r="E99">
         <v>0.59302</v>
       </c>
       <c r="F99">
-        <v>1.424592295961991</v>
+        <v>0.5338637297374834</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="100" customHeight="1">
@@ -6955,13 +6779,13 @@
         <v>203</v>
       </c>
       <c r="D100">
-        <v>12.6</v>
+        <v>91.7</v>
       </c>
       <c r="E100">
         <v>0.59302</v>
       </c>
       <c r="F100">
-        <v>1.14856022791088</v>
+        <v>-1.424592295961991</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="100" customHeight="1">
@@ -6972,13 +6796,13 @@
         <v>205</v>
       </c>
       <c r="D101">
-        <v>5.25</v>
+        <v>12.6</v>
       </c>
       <c r="E101">
         <v>0.59302</v>
       </c>
       <c r="F101">
-        <v>1.715615024319236</v>
+        <v>1.14856022791088</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="100" customHeight="1">
@@ -6989,13 +6813,13 @@
         <v>207</v>
       </c>
       <c r="D102">
-        <v>0.6499999999999986</v>
+        <v>5.25</v>
       </c>
       <c r="E102">
         <v>0.59302</v>
       </c>
       <c r="F102">
-        <v>2.982553696496239</v>
+        <v>1.715615024319236</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="100" customHeight="1">
@@ -7006,13 +6830,13 @@
         <v>209</v>
       </c>
       <c r="D103">
-        <v>95.7</v>
+        <v>0.6499999999999986</v>
       </c>
       <c r="E103">
         <v>0.59302</v>
       </c>
       <c r="F103">
-        <v>-1.839905794590835</v>
+        <v>2.982553696496239</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="100" customHeight="1">
@@ -7023,13 +6847,13 @@
         <v>211</v>
       </c>
       <c r="D104">
-        <v>97.2</v>
+        <v>95.7</v>
       </c>
       <c r="E104">
         <v>0.59302</v>
       </c>
       <c r="F104">
-        <v>-2.10353166053703</v>
+        <v>-1.839905794590835</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="100" customHeight="1">
@@ -7040,13 +6864,13 @@
         <v>213</v>
       </c>
       <c r="D105">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="E105">
         <v>0.59302</v>
       </c>
       <c r="F105">
-        <v>-2.02189942731846</v>
+        <v>-2.10353166053703</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="100" customHeight="1">
@@ -7057,13 +6881,13 @@
         <v>215</v>
       </c>
       <c r="D106">
-        <v>99.75</v>
+        <v>96.8</v>
       </c>
       <c r="E106">
         <v>0.59302</v>
       </c>
       <c r="F106">
-        <v>-3.55157389944404</v>
+        <v>-2.02189942731846</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="100" customHeight="1">
@@ -7074,13 +6898,13 @@
         <v>217</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>99.75</v>
       </c>
       <c r="E107">
         <v>0.59302</v>
       </c>
       <c r="F107">
-        <v>1.631715471340137</v>
+        <v>-3.55157389944404</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="100" customHeight="1">
@@ -7091,81 +6915,13 @@
         <v>219</v>
       </c>
       <c r="D108">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E108">
-        <v>0.59899</v>
+        <v>0.59302</v>
       </c>
       <c r="F108">
-        <v>0.09604364396853164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="100" customHeight="1">
-      <c r="A109" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109">
-        <v>32.5</v>
-      </c>
-      <c r="E109">
-        <v>0.59899</v>
-      </c>
-      <c r="F109">
-        <v>0.4377943087420472</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="100" customHeight="1">
-      <c r="A110" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" t="s">
-        <v>223</v>
-      </c>
-      <c r="D110">
-        <v>54.5</v>
-      </c>
-      <c r="E110">
-        <v>0.59899</v>
-      </c>
-      <c r="F110">
-        <v>-0.1081107321679067</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="100" customHeight="1">
-      <c r="A111" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" t="s">
-        <v>225</v>
-      </c>
-      <c r="D111">
-        <v>73.5</v>
-      </c>
-      <c r="E111">
-        <v>0.59899</v>
-      </c>
-      <c r="F111">
-        <v>-0.6110540618560099</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="100" customHeight="1">
-      <c r="A112" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" t="s">
-        <v>227</v>
-      </c>
-      <c r="D112">
-        <v>99.5</v>
-      </c>
-      <c r="E112">
-        <v>0.59302</v>
-      </c>
-      <c r="F112">
-        <v>-3.139035627158129</v>
+        <v>1.631715471340137</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>smiles</t>
   </si>
@@ -94,12 +94,6 @@
     <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(NC(=O)C)cccc1)C</t>
-  </si>
-  <si>
-    <t>YSZGCNKBKQQPAH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(c1cc(C)ccc1)C</t>
   </si>
   <si>
@@ -178,18 +172,6 @@
     <t>DQQVADFLIZSTDK-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ccc([N+]([O-])=O)cc1)C</t>
-  </si>
-  <si>
-    <t>YQYGPGKTNQNXMH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(N)cc1)C</t>
-  </si>
-  <si>
-    <t>GPRYKVSEZCQIHD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(c1cc(F)ccc1)CC</t>
   </si>
   <si>
@@ -304,42 +286,6 @@
     <t>RNIDWJDZNNVFDY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=NC=CS1)C</t>
-  </si>
-  <si>
-    <t>MOMFXATYAINJML-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
-  </si>
-  <si>
-    <t>MYLYBCZMJRPTEU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CC=C1)C</t>
-  </si>
-  <si>
-    <t>AJKVQEKCUACUMD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CN=CC=C1)C</t>
-  </si>
-  <si>
-    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=NC=C1)C</t>
-  </si>
-  <si>
-    <t>WMQUKDQWMMOHSA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CC=C1)C(C)C</t>
-  </si>
-  <si>
-    <t>OPPJOYDMQXHCFS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(C1CC1)C</t>
   </si>
   <si>
@@ -352,72 +298,6 @@
     <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(CN(C)C)C</t>
-  </si>
-  <si>
-    <t>VFPKIWATTACVJR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)c1ccccc1)C</t>
-  </si>
-  <si>
-    <t>SLOCEDWZEACARV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>UMLWXYJZDNNBTD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)C(=O)C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>WILPNXBAEMGDCS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CNC(=O)c1ccccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>MIJZKZQWQXKSPA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CN(C)C(=O)c1ccccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>KXARYBXYBGQZCM-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CN(C)C(=O)OC(C)(C)C)c2ccccc2</t>
-  </si>
-  <si>
-    <t>WFKSNAFHIMNMLV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
-  </si>
-  <si>
-    <t>BLNSEHDIFVBBKV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1)CCN(C)C</t>
-  </si>
-  <si>
-    <t>QMNXJNURJISYMS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=SC=CC1)CCN(C)C</t>
-  </si>
-  <si>
-    <t>RRRLNSBRKAMGPF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
-  </si>
-  <si>
-    <t>QTGQNPULXWGQBL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(COc1ccccc1)C</t>
   </si>
   <si>
@@ -508,168 +388,6 @@
     <t>HDURLXYBKGWETC-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ncccc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>GCSHUYKULREZSJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ncccc1)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t>BHDAKOZHMSQCFH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ncccc1)c1cc(Cl)ccc1</t>
-  </si>
-  <si>
-    <t>DTEIFMBOVCPJGY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cnccc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>RYMBAPVTUHZCNF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cnccc1)c1c(C)cccc1</t>
-  </si>
-  <si>
-    <t>YIPODLIDWSBPJA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cnccc1)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t>CXDYOXSPZUWEQX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cnccc1)c1cc(Cl)ccc1</t>
-  </si>
-  <si>
-    <t>MDGKXQYPOIIMHW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccncc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>SKFLCXNDKRUHTA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccccc1</t>
-  </si>
-  <si>
-    <t>FCHBFQQIEMUQIF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c2ccnc3cc(Cl)ccc23)c1c(C)cccc1</t>
-  </si>
-  <si>
-    <t>YAPSCCPUKNXEOX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C(C(C(F)(F)F)(C(F)(F)F)OCOC)S2)c1ccccc1</t>
-  </si>
-  <si>
-    <t>RDYXHIZMFBMAOS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1ccccc1</t>
-  </si>
-  <si>
-    <t>VUVSIPWGRHQUGS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C(C3(C)OCCO3)S2)c1ccccc1</t>
-  </si>
-  <si>
-    <t>FHQKWASXMQBSCT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t>DHLKAJJXHDNVDN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C(C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t>LCWRNKBOWMZEKT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t>DNNFCPLFPRGBHI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=NC=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t>IYZPWGMIISJDTP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CSC(C)=N2)c1ccccc1</t>
-  </si>
-  <si>
-    <t>LXZSCYZOMOPQEF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ncccc1)c1ccc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>KHXSJSBQIWAIEG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ncccc1)c1ccc(OC)cc1</t>
-  </si>
-  <si>
-    <t>ZYZQOYSKLICWGX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ncccc1)c1c(C)cccc1</t>
-  </si>
-  <si>
-    <t>GWXTVPWMINBKEI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c2nccc3ccccc23)c1ccccc1</t>
-  </si>
-  <si>
-    <t>MDWCIKACMBMJFA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cnc(OC)cc1</t>
-  </si>
-  <si>
-    <t>RJOOVWVGRDXTKN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(OC)cccc1)C2=CN(c3ccccc3)N=C2</t>
-  </si>
-  <si>
-    <t>XTIVLYSLPXZKLH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CN=C([Si](C(C)(C))(C(C)(C))C(C)(C))O1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>IJPGLDZXSJKFQQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ncccc1)c2cc(C(F)(F)F)nc3c(C(F)(F)F)cccc23</t>
-  </si>
-  <si>
-    <t>GZTUXOWPGYDWNO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
   </si>
   <si>
@@ -692,12 +410,6 @@
   </si>
   <si>
     <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CN2C=CN=C2)c1c(Cl)cc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>YAEYBUZMILPYLT-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -3131,1830 +2843,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="78733650"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="80000475"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="81267300"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="82534125"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="83800950"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="85067775"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="86334600"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="87601425"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="88868250"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="90135075"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="91401900"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="92668725"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="93935550"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="95202375"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="96469200"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="97736025"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="99002850"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="100269675"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="101536500"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="102803325"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="104070150"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 84" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="105336975"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Picture 85" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="106603800"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Picture 86" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="107870625"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Picture 87" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="109137450"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Picture 88" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="110404275"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 89" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="111671100"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 90" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="112937925"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 91" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="114204750"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Picture 92" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="115471575"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 93" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="116738400"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Picture 94" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="118005225"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Picture 95" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="119272050"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Picture 96" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="120538875"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Picture 97" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="121805700"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Picture 98" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="123072525"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Picture 99" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="124339350"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Picture 100" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="125606175"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Picture 101" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="126873000"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Picture 102" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="128139825"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Picture 103" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="129406650"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Picture 104" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="130673475"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Picture 105" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="131940300"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Picture 106" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="133207125"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Picture 107" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="134473950"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Picture 108" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="135740775"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Picture 109" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="137007600"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Picture 110" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="138274425"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Picture 111" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="139541250"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5252,7 +3140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5459,13 +3347,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E12">
         <v>0.59899</v>
       </c>
       <c r="F12">
-        <v>2.752430839032118</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -5476,13 +3364,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0.59899</v>
       </c>
       <c r="F13">
-        <v>3.58732799910286</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -5493,13 +3381,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E14">
         <v>0.59899</v>
       </c>
       <c r="F14">
-        <v>2.752430839032118</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -5510,13 +3398,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
         <v>0.59899</v>
       </c>
       <c r="F15">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -5544,13 +3432,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0.59899</v>
       </c>
       <c r="F17">
-        <v>3.170636656961724</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -5578,13 +3466,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E19">
         <v>0.59899</v>
       </c>
       <c r="F19">
-        <v>2.752430839032118</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -5612,13 +3500,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="E21">
         <v>0.59899</v>
       </c>
       <c r="F21">
-        <v>2.506528426687457</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -5663,13 +3551,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E24">
         <v>0.59899</v>
       </c>
       <c r="F24">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -5697,13 +3585,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
         <v>0.59899</v>
       </c>
       <c r="F26">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -5731,13 +3619,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E28">
         <v>0.59899</v>
       </c>
       <c r="F28">
-        <v>3.170636656961724</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -5748,13 +3636,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>0.59899</v>
       </c>
       <c r="F29">
-        <v>3.170636656961724</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -5765,13 +3653,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E30">
         <v>0.59899</v>
       </c>
       <c r="F30">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -5782,13 +3670,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0.59899</v>
       </c>
       <c r="F31">
-        <v>2.506528426687457</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -5799,13 +3687,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E32">
         <v>0.59899</v>
       </c>
       <c r="F32">
-        <v>2.331161440365284</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -5816,13 +3704,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>0.25</v>
+        <v>96.5</v>
       </c>
       <c r="E33">
         <v>0.59899</v>
       </c>
       <c r="F33">
-        <v>3.58732799910286</v>
+        <v>-1.986718076069497</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -5833,13 +3721,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>99.5</v>
       </c>
       <c r="E34">
         <v>0.59899</v>
       </c>
       <c r="F34">
-        <v>2.752430839032118</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -5850,13 +3738,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>98.5</v>
       </c>
       <c r="E35">
         <v>0.59899</v>
       </c>
       <c r="F35">
-        <v>3.170636656961724</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -5867,13 +3755,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>96.5</v>
+        <v>98.5</v>
       </c>
       <c r="E36">
         <v>0.59899</v>
       </c>
       <c r="F36">
-        <v>-1.986718076069497</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -5884,13 +3772,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="E37">
         <v>0.59899</v>
       </c>
       <c r="F37">
-        <v>-3.170636656961734</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -5901,13 +3789,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>98.5</v>
+        <v>99.7</v>
       </c>
       <c r="E38">
         <v>0.59899</v>
       </c>
       <c r="F38">
-        <v>-2.506528426687459</v>
+        <v>-3.47781888891013</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -5918,13 +3806,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>98.5</v>
+        <v>0.5</v>
       </c>
       <c r="E39">
         <v>0.59899</v>
       </c>
       <c r="F39">
-        <v>-2.506528426687459</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -5935,13 +3823,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0.59899</v>
       </c>
       <c r="F40">
-        <v>-2.331161440365284</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -5952,13 +3840,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>99.7</v>
+        <v>0.5</v>
       </c>
       <c r="E41">
         <v>0.59899</v>
       </c>
       <c r="F41">
-        <v>-3.47781888891013</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -5969,13 +3857,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E42">
         <v>0.59899</v>
       </c>
       <c r="F42">
-        <v>3.170636656961724</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -5986,13 +3874,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E43">
         <v>0.59899</v>
       </c>
       <c r="F43">
-        <v>2.752430839032118</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -6003,13 +3891,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E44">
         <v>0.59899</v>
       </c>
       <c r="F44">
-        <v>3.170636656961724</v>
+        <v>2.194436790415197</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -6020,13 +3908,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="E45">
         <v>0.59899</v>
       </c>
       <c r="F45">
-        <v>2.506528426687457</v>
+        <v>1.504845945705453</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -6037,13 +3925,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>0.59899</v>
       </c>
       <c r="F46">
-        <v>3.58732799910286</v>
+        <v>1.316115549578622</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -6054,13 +3942,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0.59899</v>
       </c>
       <c r="F47">
-        <v>2.331161440365284</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -6071,13 +3959,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>97.5</v>
       </c>
       <c r="E48">
         <v>0.59899</v>
       </c>
       <c r="F48">
-        <v>2.752430839032118</v>
+        <v>-2.194436790415199</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -6088,13 +3976,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>68.5</v>
       </c>
       <c r="E49">
         <v>0.59899</v>
       </c>
       <c r="F49">
-        <v>2.331161440365284</v>
+        <v>-0.4653231050005244</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -6105,13 +3993,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="E50">
         <v>0.59899</v>
       </c>
       <c r="F50">
-        <v>3.58732799910286</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -6122,13 +4010,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>0.25</v>
+        <v>7</v>
       </c>
       <c r="E51">
         <v>0.59899</v>
       </c>
       <c r="F51">
-        <v>3.58732799910286</v>
+        <v>1.549401050221227</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -6139,13 +4027,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E52">
         <v>0.59899</v>
       </c>
       <c r="F52">
-        <v>2.08214835422443</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -6156,13 +4044,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E53">
         <v>0.59899</v>
       </c>
       <c r="F53">
-        <v>2.194436790415197</v>
+        <v>1.763689504130906</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -6173,13 +4061,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>1.504845945705453</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -6190,13 +4078,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>1.903622463840116</v>
+        <v>1.829943711087029</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -6207,13 +4095,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="E56">
         <v>0.59899</v>
       </c>
       <c r="F56">
-        <v>1.350158232627011</v>
+        <v>1.986718076069495</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -6224,13 +4112,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>96.5</v>
+        <v>0.25</v>
       </c>
       <c r="E57">
         <v>0.59899</v>
       </c>
       <c r="F57">
-        <v>-1.986718076069497</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -6241,13 +4129,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>99.5</v>
+        <v>3</v>
       </c>
       <c r="E58">
         <v>0.59899</v>
       </c>
       <c r="F58">
-        <v>-3.170636656961734</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -6258,13 +4146,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>97.5</v>
+        <v>0.5</v>
       </c>
       <c r="E59">
         <v>0.59899</v>
       </c>
       <c r="F59">
-        <v>-2.194436790415199</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -6275,13 +4163,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>99.75</v>
+        <v>0.5</v>
       </c>
       <c r="E60">
         <v>0.59899</v>
       </c>
       <c r="F60">
-        <v>-3.587327999102873</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -6292,13 +4180,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>99.5</v>
+        <v>46</v>
       </c>
       <c r="E61">
         <v>0.59899</v>
       </c>
       <c r="F61">
-        <v>-3.170636656961734</v>
+        <v>0.09604364396853164</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -6309,13 +4197,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>98.5</v>
+        <v>32.5</v>
       </c>
       <c r="E62">
         <v>0.59899</v>
       </c>
       <c r="F62">
-        <v>-2.506528426687459</v>
+        <v>0.4377943087420472</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -6326,13 +4214,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>1.25</v>
+        <v>54.5</v>
       </c>
       <c r="E63">
         <v>0.59899</v>
       </c>
       <c r="F63">
-        <v>2.617255569149221</v>
+        <v>-0.1081107321679067</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -6343,829 +4231,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>73.5</v>
       </c>
       <c r="E64">
         <v>0.59899</v>
       </c>
       <c r="F64">
-        <v>1.903622463840116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="100" customHeight="1">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65">
-        <v>0.5</v>
-      </c>
-      <c r="E65">
-        <v>0.59899</v>
-      </c>
-      <c r="F65">
-        <v>3.170636656961724</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="100" customHeight="1">
-      <c r="A66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66">
-        <v>10</v>
-      </c>
-      <c r="E66">
-        <v>0.59899</v>
-      </c>
-      <c r="F66">
-        <v>1.316115549578622</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="100" customHeight="1">
-      <c r="A67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0.59899</v>
-      </c>
-      <c r="F67">
-        <v>2.752430839032118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="100" customHeight="1">
-      <c r="A68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68">
-        <v>97.5</v>
-      </c>
-      <c r="E68">
-        <v>0.59899</v>
-      </c>
-      <c r="F68">
-        <v>-2.194436790415199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="100" customHeight="1">
-      <c r="A69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69">
-        <v>68.5</v>
-      </c>
-      <c r="E69">
-        <v>0.59899</v>
-      </c>
-      <c r="F69">
-        <v>-0.4653231050005244</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="100" customHeight="1">
-      <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70">
-        <v>1.5</v>
-      </c>
-      <c r="E70">
-        <v>0.59899</v>
-      </c>
-      <c r="F70">
-        <v>2.506528426687457</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="100" customHeight="1">
-      <c r="A71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71">
-        <v>7</v>
-      </c>
-      <c r="E71">
-        <v>0.59899</v>
-      </c>
-      <c r="F71">
-        <v>1.549401050221227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="100" customHeight="1">
-      <c r="A72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72">
-        <v>1.5</v>
-      </c>
-      <c r="E72">
-        <v>0.59899</v>
-      </c>
-      <c r="F72">
-        <v>2.506528426687457</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="100" customHeight="1">
-      <c r="A73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73">
-        <v>5</v>
-      </c>
-      <c r="E73">
-        <v>0.59899</v>
-      </c>
-      <c r="F73">
-        <v>1.763689504130906</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="100" customHeight="1">
-      <c r="A74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>0.59899</v>
-      </c>
-      <c r="F74">
-        <v>2.08214835422443</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="100" customHeight="1">
-      <c r="A75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75">
-        <v>4.5</v>
-      </c>
-      <c r="E75">
-        <v>0.59899</v>
-      </c>
-      <c r="F75">
-        <v>1.829943711087029</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="100" customHeight="1">
-      <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76">
-        <v>3.5</v>
-      </c>
-      <c r="E76">
-        <v>0.59899</v>
-      </c>
-      <c r="F76">
-        <v>1.986718076069495</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="100" customHeight="1">
-      <c r="A77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77">
-        <v>0.25</v>
-      </c>
-      <c r="E77">
-        <v>0.59899</v>
-      </c>
-      <c r="F77">
-        <v>3.58732799910286</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="100" customHeight="1">
-      <c r="A78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78">
-        <v>0.59899</v>
-      </c>
-      <c r="F78">
-        <v>2.08214835422443</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="100" customHeight="1">
-      <c r="A79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79">
-        <v>0.5</v>
-      </c>
-      <c r="E79">
-        <v>0.59899</v>
-      </c>
-      <c r="F79">
-        <v>3.170636656961724</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="100" customHeight="1">
-      <c r="A80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80">
-        <v>0.5</v>
-      </c>
-      <c r="E80">
-        <v>0.59899</v>
-      </c>
-      <c r="F80">
-        <v>3.170636656961724</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="100" customHeight="1">
-      <c r="A81" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81">
-        <v>15</v>
-      </c>
-      <c r="E81">
-        <v>0.60297</v>
-      </c>
-      <c r="F81">
-        <v>1.045912398367367</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="100" customHeight="1">
-      <c r="A82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82">
-        <v>20</v>
-      </c>
-      <c r="E82">
-        <v>0.60297</v>
-      </c>
-      <c r="F82">
-        <v>0.8358939109244604</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="100" customHeight="1">
-      <c r="A83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83">
-        <v>25</v>
-      </c>
-      <c r="E83">
-        <v>0.60297</v>
-      </c>
-      <c r="F83">
-        <v>0.6624302516982101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="100" customHeight="1">
-      <c r="A84" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84">
-        <v>84.5</v>
-      </c>
-      <c r="E84">
-        <v>0.60297</v>
-      </c>
-      <c r="F84">
-        <v>-1.022583763448757</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="100" customHeight="1">
-      <c r="A85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85">
-        <v>16</v>
-      </c>
-      <c r="E85">
-        <v>0.60297</v>
-      </c>
-      <c r="F85">
-        <v>0.9998617833496319</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="100" customHeight="1">
-      <c r="A86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86">
-        <v>89</v>
-      </c>
-      <c r="E86">
-        <v>0.60297</v>
-      </c>
-      <c r="F86">
-        <v>-1.260654159218154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="100" customHeight="1">
-      <c r="A87" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87">
-        <v>77.5</v>
-      </c>
-      <c r="E87">
-        <v>0.60297</v>
-      </c>
-      <c r="F87">
-        <v>-0.7457307612919885</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="100" customHeight="1">
-      <c r="A88" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88">
-        <v>77</v>
-      </c>
-      <c r="E88">
-        <v>0.60297</v>
-      </c>
-      <c r="F88">
-        <v>-0.7285754078363164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="100" customHeight="1">
-      <c r="A89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89">
-        <v>95</v>
-      </c>
-      <c r="E89">
-        <v>0.60297</v>
-      </c>
-      <c r="F89">
-        <v>-1.775408371267989</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="100" customHeight="1">
-      <c r="A90" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90">
-        <v>43.5</v>
-      </c>
-      <c r="E90">
-        <v>0.60297</v>
-      </c>
-      <c r="F90">
-        <v>0.1576644147438256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="100" customHeight="1">
-      <c r="A91" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" t="s">
-        <v>185</v>
-      </c>
-      <c r="D91">
-        <v>90</v>
-      </c>
-      <c r="E91">
-        <v>0.60297</v>
-      </c>
-      <c r="F91">
-        <v>-1.32486050339642</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="100" customHeight="1">
-      <c r="A92" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" t="s">
-        <v>187</v>
-      </c>
-      <c r="D92">
-        <v>98.75</v>
-      </c>
-      <c r="E92">
-        <v>0.59302</v>
-      </c>
-      <c r="F92">
-        <v>-2.59116996546999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="100" customHeight="1">
-      <c r="A93" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93">
-        <v>98.5</v>
-      </c>
-      <c r="E93">
-        <v>0.59302</v>
-      </c>
-      <c r="F93">
-        <v>-2.481546415790242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="100" customHeight="1">
-      <c r="A94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" t="s">
-        <v>191</v>
-      </c>
-      <c r="D94">
-        <v>96</v>
-      </c>
-      <c r="E94">
-        <v>0.59302</v>
-      </c>
-      <c r="F94">
-        <v>-1.884649482472938</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="100" customHeight="1">
-      <c r="A95" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95">
-        <v>99.5</v>
-      </c>
-      <c r="E95">
-        <v>0.59302</v>
-      </c>
-      <c r="F95">
-        <v>-3.139035627158129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="100" customHeight="1">
-      <c r="A96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96">
-        <v>98.5</v>
-      </c>
-      <c r="E96">
-        <v>0.59302</v>
-      </c>
-      <c r="F96">
-        <v>-2.481546415790242</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="100" customHeight="1">
-      <c r="A97" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97">
-        <v>97.5</v>
-      </c>
-      <c r="E97">
-        <v>0.59302</v>
-      </c>
-      <c r="F97">
-        <v>-2.172565327387805</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="100" customHeight="1">
-      <c r="A98" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="E98">
-        <v>0.59302</v>
-      </c>
-      <c r="F98">
-        <v>-0.5338637297374831</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="100" customHeight="1">
-      <c r="A99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99">
-        <v>8.299999999999997</v>
-      </c>
-      <c r="E99">
-        <v>0.59302</v>
-      </c>
-      <c r="F99">
-        <v>1.424592295961991</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="100" customHeight="1">
-      <c r="A100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100">
-        <v>12.6</v>
-      </c>
-      <c r="E100">
-        <v>0.59302</v>
-      </c>
-      <c r="F100">
-        <v>1.14856022791088</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="100" customHeight="1">
-      <c r="A101" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101">
-        <v>5.25</v>
-      </c>
-      <c r="E101">
-        <v>0.59302</v>
-      </c>
-      <c r="F101">
-        <v>1.715615024319236</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="100" customHeight="1">
-      <c r="A102" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102">
-        <v>0.6499999999999986</v>
-      </c>
-      <c r="E102">
-        <v>0.59302</v>
-      </c>
-      <c r="F102">
-        <v>2.982553696496239</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="100" customHeight="1">
-      <c r="A103" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103">
-        <v>95.7</v>
-      </c>
-      <c r="E103">
-        <v>0.59302</v>
-      </c>
-      <c r="F103">
-        <v>-1.839905794590835</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="100" customHeight="1">
-      <c r="A104" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" t="s">
-        <v>211</v>
-      </c>
-      <c r="D104">
-        <v>97.2</v>
-      </c>
-      <c r="E104">
-        <v>0.59302</v>
-      </c>
-      <c r="F104">
-        <v>-2.10353166053703</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="100" customHeight="1">
-      <c r="A105" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105">
-        <v>96.8</v>
-      </c>
-      <c r="E105">
-        <v>0.59302</v>
-      </c>
-      <c r="F105">
-        <v>-2.02189942731846</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="100" customHeight="1">
-      <c r="A106" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106">
-        <v>99.75</v>
-      </c>
-      <c r="E106">
-        <v>0.59302</v>
-      </c>
-      <c r="F106">
-        <v>-3.55157389944404</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="100" customHeight="1">
-      <c r="A107" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107">
-        <v>6</v>
-      </c>
-      <c r="E107">
-        <v>0.59302</v>
-      </c>
-      <c r="F107">
-        <v>1.631715471340137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="100" customHeight="1">
-      <c r="A108" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" t="s">
-        <v>219</v>
-      </c>
-      <c r="D108">
-        <v>46</v>
-      </c>
-      <c r="E108">
-        <v>0.59899</v>
-      </c>
-      <c r="F108">
-        <v>0.09604364396853164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="100" customHeight="1">
-      <c r="A109" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109">
-        <v>32.5</v>
-      </c>
-      <c r="E109">
-        <v>0.59899</v>
-      </c>
-      <c r="F109">
-        <v>0.4377943087420472</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="100" customHeight="1">
-      <c r="A110" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" t="s">
-        <v>223</v>
-      </c>
-      <c r="D110">
-        <v>54.5</v>
-      </c>
-      <c r="E110">
-        <v>0.59899</v>
-      </c>
-      <c r="F110">
-        <v>-0.1081107321679067</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="100" customHeight="1">
-      <c r="A111" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" t="s">
-        <v>225</v>
-      </c>
-      <c r="D111">
-        <v>73.5</v>
-      </c>
-      <c r="E111">
-        <v>0.59899</v>
-      </c>
-      <c r="F111">
         <v>-0.6110540618560099</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="100" customHeight="1">
-      <c r="A112" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" t="s">
-        <v>227</v>
-      </c>
-      <c r="D112">
-        <v>99.5</v>
-      </c>
-      <c r="E112">
-        <v>0.59302</v>
-      </c>
-      <c r="F112">
-        <v>-3.139035627158129</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>smiles</t>
   </si>
@@ -94,6 +94,12 @@
     <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(c1c(NC(=O)C)cccc1)C</t>
+  </si>
+  <si>
+    <t>YSZGCNKBKQQPAH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(c1cc(C)ccc1)C</t>
   </si>
   <si>
@@ -172,6 +178,18 @@
     <t>DQQVADFLIZSTDK-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(c1ccc([N+]([O-])=O)cc1)C</t>
+  </si>
+  <si>
+    <t>YQYGPGKTNQNXMH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(N)cc1)C</t>
+  </si>
+  <si>
+    <t>GPRYKVSEZCQIHD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(c1cc(F)ccc1)CC</t>
   </si>
   <si>
@@ -286,6 +304,42 @@
     <t>RNIDWJDZNNVFDY-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(C1=NC=CS1)C</t>
+  </si>
+  <si>
+    <t>MOMFXATYAINJML-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
+  </si>
+  <si>
+    <t>MYLYBCZMJRPTEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CC=C1)C</t>
+  </si>
+  <si>
+    <t>AJKVQEKCUACUMD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CN=CC=C1)C</t>
+  </si>
+  <si>
+    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=NC=C1)C</t>
+  </si>
+  <si>
+    <t>WMQUKDQWMMOHSA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CC=C1)C(C)C</t>
+  </si>
+  <si>
+    <t>OPPJOYDMQXHCFS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(C1CC1)C</t>
   </si>
   <si>
@@ -298,6 +352,72 @@
     <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(CN(C)C)C</t>
+  </si>
+  <si>
+    <t>VFPKIWATTACVJR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)c1ccccc1)C</t>
+  </si>
+  <si>
+    <t>SLOCEDWZEACARV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>UMLWXYJZDNNBTD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)C(=O)C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>WILPNXBAEMGDCS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CNC(=O)c1ccccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>MIJZKZQWQXKSPA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CN(C)C(=O)c1ccccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>KXARYBXYBGQZCM-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CN(C)C(=O)OC(C)(C)C)c2ccccc2</t>
+  </si>
+  <si>
+    <t>WFKSNAFHIMNMLV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
+  </si>
+  <si>
+    <t>BLNSEHDIFVBBKV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1)CCN(C)C</t>
+  </si>
+  <si>
+    <t>QMNXJNURJISYMS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=SC=CC1)CCN(C)C</t>
+  </si>
+  <si>
+    <t>RRRLNSBRKAMGPF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
+  </si>
+  <si>
+    <t>QTGQNPULXWGQBL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(COc1ccccc1)C</t>
   </si>
   <si>
@@ -388,6 +508,168 @@
     <t>HDURLXYBKGWETC-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(c1ncccc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>GCSHUYKULREZSJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>BHDAKOZHMSQCFH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1cc(Cl)ccc1</t>
+  </si>
+  <si>
+    <t>DTEIFMBOVCPJGY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>RYMBAPVTUHZCNF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>YIPODLIDWSBPJA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>CXDYOXSPZUWEQX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1cc(Cl)ccc1</t>
+  </si>
+  <si>
+    <t>MDGKXQYPOIIMHW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccncc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>SKFLCXNDKRUHTA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FCHBFQQIEMUQIF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>YAPSCCPUKNXEOX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C(C(F)(F)F)(C(F)(F)F)OCOC)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>RDYXHIZMFBMAOS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>VUVSIPWGRHQUGS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C3(C)OCCO3)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FHQKWASXMQBSCT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>DHLKAJJXHDNVDN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>LCWRNKBOWMZEKT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>DNNFCPLFPRGBHI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=NC=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>IYZPWGMIISJDTP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CSC(C)=N2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>LXZSCYZOMOPQEF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>KHXSJSBQIWAIEG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(OC)cc1</t>
+  </si>
+  <si>
+    <t>ZYZQOYSKLICWGX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>GWXTVPWMINBKEI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2nccc3ccccc23)c1ccccc1</t>
+  </si>
+  <si>
+    <t>MDWCIKACMBMJFA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cnc(OC)cc1</t>
+  </si>
+  <si>
+    <t>RJOOVWVGRDXTKN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(OC)cccc1)C2=CN(c3ccccc3)N=C2</t>
+  </si>
+  <si>
+    <t>XTIVLYSLPXZKLH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CN=C([Si](C(C)(C))(C(C)(C))C(C)(C))O1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>IJPGLDZXSJKFQQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ncccc1)c2cc(C(F)(F)F)nc3c(C(F)(F)F)cccc23</t>
+  </si>
+  <si>
+    <t>GZTUXOWPGYDWNO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
   </si>
   <si>
@@ -410,6 +692,12 @@
   </si>
   <si>
     <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CN2C=CN=C2)c1c(Cl)cc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>YAEYBUZMILPYLT-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -2843,6 +3131,1830 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="78733650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="80000475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="81267300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="82534125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="83800950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="85067775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="86334600"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="87601425"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="88868250"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="90135075"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="91401900"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="92668725"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="93935550"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="95202375"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="96469200"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="97736025"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="99002850"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="100269675"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="101536500"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="102803325"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="104070150"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="105336975"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="106603800"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 86" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="107870625"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="109137450"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 88" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="110404275"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="111671100"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="112937925"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="114204750"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="115471575"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="116738400"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="118005225"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 95" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="119272050"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 96" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="120538875"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="121805700"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 98" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="123072525"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="124339350"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="125606175"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="126873000"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="128139825"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="129406650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="130673475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="131940300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="133207125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="134473950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Picture 108" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="135740775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="137007600"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 110" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="138274425"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="139541250"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3140,7 +5252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3347,13 +5459,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0.59899</v>
       </c>
       <c r="F12">
-        <v>3.58732799910286</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -3364,13 +5476,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E13">
         <v>0.59899</v>
       </c>
       <c r="F13">
-        <v>2.752430839032118</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -3381,13 +5493,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0.59899</v>
       </c>
       <c r="F14">
-        <v>3.58732799910286</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -3398,13 +5510,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E15">
         <v>0.59899</v>
       </c>
       <c r="F15">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -3432,13 +5544,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E17">
         <v>0.59899</v>
       </c>
       <c r="F17">
-        <v>2.752430839032118</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -3466,13 +5578,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0.59899</v>
       </c>
       <c r="F19">
-        <v>2.506528426687457</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3500,13 +5612,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="E21">
         <v>0.59899</v>
       </c>
       <c r="F21">
-        <v>3.58732799910286</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3551,13 +5663,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E24">
         <v>0.59899</v>
       </c>
       <c r="F24">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3585,13 +5697,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E26">
         <v>0.59899</v>
       </c>
       <c r="F26">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3619,13 +5731,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E28">
         <v>0.59899</v>
       </c>
       <c r="F28">
-        <v>2.506528426687457</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3636,13 +5748,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E29">
         <v>0.59899</v>
       </c>
       <c r="F29">
-        <v>2.331161440365284</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3653,13 +5765,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E30">
         <v>0.59899</v>
       </c>
       <c r="F30">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -3670,13 +5782,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E31">
         <v>0.59899</v>
       </c>
       <c r="F31">
-        <v>2.752430839032118</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -3687,13 +5799,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>0.59899</v>
       </c>
       <c r="F32">
-        <v>3.170636656961724</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -3704,13 +5816,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>96.5</v>
+        <v>0.25</v>
       </c>
       <c r="E33">
         <v>0.59899</v>
       </c>
       <c r="F33">
-        <v>-1.986718076069497</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -3721,13 +5833,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>99.5</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0.59899</v>
       </c>
       <c r="F34">
-        <v>-3.170636656961734</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -3738,13 +5850,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>98.5</v>
+        <v>0.5</v>
       </c>
       <c r="E35">
         <v>0.59899</v>
       </c>
       <c r="F35">
-        <v>-2.506528426687459</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -3755,13 +5867,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>98.5</v>
+        <v>96.5</v>
       </c>
       <c r="E36">
         <v>0.59899</v>
       </c>
       <c r="F36">
-        <v>-2.506528426687459</v>
+        <v>-1.986718076069497</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -3772,13 +5884,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>98</v>
+        <v>99.5</v>
       </c>
       <c r="E37">
         <v>0.59899</v>
       </c>
       <c r="F37">
-        <v>-2.331161440365284</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -3789,13 +5901,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>99.7</v>
+        <v>98.5</v>
       </c>
       <c r="E38">
         <v>0.59899</v>
       </c>
       <c r="F38">
-        <v>-3.47781888891013</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -3806,13 +5918,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>0.5</v>
+        <v>98.5</v>
       </c>
       <c r="E39">
         <v>0.59899</v>
       </c>
       <c r="F39">
-        <v>3.170636656961724</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -3823,13 +5935,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E40">
         <v>0.59899</v>
       </c>
       <c r="F40">
-        <v>2.752430839032118</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -3840,13 +5952,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>0.5</v>
+        <v>99.7</v>
       </c>
       <c r="E41">
         <v>0.59899</v>
       </c>
       <c r="F41">
-        <v>3.170636656961724</v>
+        <v>-3.47781888891013</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -3857,13 +5969,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E42">
         <v>0.59899</v>
       </c>
       <c r="F42">
-        <v>2.506528426687457</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -3874,13 +5986,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0.59899</v>
       </c>
       <c r="F43">
-        <v>3.58732799910286</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -3891,13 +6003,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="E44">
         <v>0.59899</v>
       </c>
       <c r="F44">
-        <v>2.194436790415197</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -3908,13 +6020,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="E45">
         <v>0.59899</v>
       </c>
       <c r="F45">
-        <v>1.504845945705453</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -3925,13 +6037,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="E46">
         <v>0.59899</v>
       </c>
       <c r="F46">
-        <v>1.316115549578622</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -3942,13 +6054,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>0.59899</v>
       </c>
       <c r="F47">
-        <v>2.752430839032118</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -3959,13 +6071,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>97.5</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0.59899</v>
       </c>
       <c r="F48">
-        <v>-2.194436790415199</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -3976,13 +6088,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>68.5</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>0.59899</v>
       </c>
       <c r="F49">
-        <v>-0.4653231050005244</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -3993,13 +6105,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="E50">
         <v>0.59899</v>
       </c>
       <c r="F50">
-        <v>2.506528426687457</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4010,13 +6122,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="E51">
         <v>0.59899</v>
       </c>
       <c r="F51">
-        <v>1.549401050221227</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4027,13 +6139,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E52">
         <v>0.59899</v>
       </c>
       <c r="F52">
-        <v>2.506528426687457</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4044,13 +6156,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E53">
         <v>0.59899</v>
       </c>
       <c r="F53">
-        <v>1.763689504130906</v>
+        <v>2.194436790415197</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4061,13 +6173,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>2.08214835422443</v>
+        <v>1.504845945705453</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4078,13 +6190,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>1.829943711087029</v>
+        <v>1.903622463840116</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4095,13 +6207,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="E56">
         <v>0.59899</v>
       </c>
       <c r="F56">
-        <v>1.986718076069495</v>
+        <v>1.350158232627011</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4112,13 +6224,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>0.25</v>
+        <v>96.5</v>
       </c>
       <c r="E57">
         <v>0.59899</v>
       </c>
       <c r="F57">
-        <v>3.58732799910286</v>
+        <v>-1.986718076069497</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4129,13 +6241,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>99.5</v>
       </c>
       <c r="E58">
         <v>0.59899</v>
       </c>
       <c r="F58">
-        <v>2.08214835422443</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4146,13 +6258,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>97.5</v>
       </c>
       <c r="E59">
         <v>0.59899</v>
       </c>
       <c r="F59">
-        <v>3.170636656961724</v>
+        <v>-2.194436790415199</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4163,13 +6275,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>99.75</v>
       </c>
       <c r="E60">
         <v>0.59899</v>
       </c>
       <c r="F60">
-        <v>3.170636656961724</v>
+        <v>-3.587327999102873</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4180,13 +6292,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>46</v>
+        <v>99.5</v>
       </c>
       <c r="E61">
         <v>0.59899</v>
       </c>
       <c r="F61">
-        <v>0.09604364396853164</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4197,13 +6309,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>32.5</v>
+        <v>98.5</v>
       </c>
       <c r="E62">
         <v>0.59899</v>
       </c>
       <c r="F62">
-        <v>0.4377943087420472</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4214,13 +6326,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>54.5</v>
+        <v>1.25</v>
       </c>
       <c r="E63">
         <v>0.59899</v>
       </c>
       <c r="F63">
-        <v>-0.1081107321679067</v>
+        <v>2.617255569149221</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4231,13 +6343,829 @@
         <v>131</v>
       </c>
       <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>0.59899</v>
+      </c>
+      <c r="F64">
+        <v>1.903622463840116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="100" customHeight="1">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65">
+        <v>0.5</v>
+      </c>
+      <c r="E65">
+        <v>0.59899</v>
+      </c>
+      <c r="F65">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="100" customHeight="1">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>0.59899</v>
+      </c>
+      <c r="F66">
+        <v>1.316115549578622</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="100" customHeight="1">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0.59899</v>
+      </c>
+      <c r="F67">
+        <v>2.752430839032118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="100" customHeight="1">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68">
+        <v>97.5</v>
+      </c>
+      <c r="E68">
+        <v>0.59899</v>
+      </c>
+      <c r="F68">
+        <v>-2.194436790415199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="100" customHeight="1">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69">
+        <v>68.5</v>
+      </c>
+      <c r="E69">
+        <v>0.59899</v>
+      </c>
+      <c r="F69">
+        <v>-0.4653231050005244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="100" customHeight="1">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70">
+        <v>1.5</v>
+      </c>
+      <c r="E70">
+        <v>0.59899</v>
+      </c>
+      <c r="F70">
+        <v>2.506528426687457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="100" customHeight="1">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>0.59899</v>
+      </c>
+      <c r="F71">
+        <v>1.549401050221227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="100" customHeight="1">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72">
+        <v>1.5</v>
+      </c>
+      <c r="E72">
+        <v>0.59899</v>
+      </c>
+      <c r="F72">
+        <v>2.506528426687457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="100" customHeight="1">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>0.59899</v>
+      </c>
+      <c r="F73">
+        <v>1.763689504130906</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="100" customHeight="1">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>0.59899</v>
+      </c>
+      <c r="F74">
+        <v>2.08214835422443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="100" customHeight="1">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75">
+        <v>4.5</v>
+      </c>
+      <c r="E75">
+        <v>0.59899</v>
+      </c>
+      <c r="F75">
+        <v>1.829943711087029</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="100" customHeight="1">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76">
+        <v>3.5</v>
+      </c>
+      <c r="E76">
+        <v>0.59899</v>
+      </c>
+      <c r="F76">
+        <v>1.986718076069495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="100" customHeight="1">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77">
+        <v>0.25</v>
+      </c>
+      <c r="E77">
+        <v>0.59899</v>
+      </c>
+      <c r="F77">
+        <v>3.58732799910286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="100" customHeight="1">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>0.59899</v>
+      </c>
+      <c r="F78">
+        <v>2.08214835422443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="100" customHeight="1">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79">
+        <v>0.5</v>
+      </c>
+      <c r="E79">
+        <v>0.59899</v>
+      </c>
+      <c r="F79">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="100" customHeight="1">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80">
+        <v>0.5</v>
+      </c>
+      <c r="E80">
+        <v>0.59899</v>
+      </c>
+      <c r="F80">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="100" customHeight="1">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81">
+        <v>15</v>
+      </c>
+      <c r="E81">
+        <v>0.60297</v>
+      </c>
+      <c r="F81">
+        <v>1.045912398367367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="100" customHeight="1">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82">
+        <v>20</v>
+      </c>
+      <c r="E82">
+        <v>0.60297</v>
+      </c>
+      <c r="F82">
+        <v>0.8358939109244604</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="100" customHeight="1">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83">
+        <v>25</v>
+      </c>
+      <c r="E83">
+        <v>0.60297</v>
+      </c>
+      <c r="F83">
+        <v>0.6624302516982101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="100" customHeight="1">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84">
+        <v>84.5</v>
+      </c>
+      <c r="E84">
+        <v>0.60297</v>
+      </c>
+      <c r="F84">
+        <v>-1.022583763448757</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="100" customHeight="1">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>0.60297</v>
+      </c>
+      <c r="F85">
+        <v>0.9998617833496319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="100" customHeight="1">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86">
+        <v>89</v>
+      </c>
+      <c r="E86">
+        <v>0.60297</v>
+      </c>
+      <c r="F86">
+        <v>-1.260654159218154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="100" customHeight="1">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87">
+        <v>77.5</v>
+      </c>
+      <c r="E87">
+        <v>0.60297</v>
+      </c>
+      <c r="F87">
+        <v>-0.7457307612919885</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="100" customHeight="1">
+      <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88">
+        <v>77</v>
+      </c>
+      <c r="E88">
+        <v>0.60297</v>
+      </c>
+      <c r="F88">
+        <v>-0.7285754078363164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="100" customHeight="1">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89">
+        <v>95</v>
+      </c>
+      <c r="E89">
+        <v>0.60297</v>
+      </c>
+      <c r="F89">
+        <v>-1.775408371267989</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="100" customHeight="1">
+      <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90">
+        <v>43.5</v>
+      </c>
+      <c r="E90">
+        <v>0.60297</v>
+      </c>
+      <c r="F90">
+        <v>0.1576644147438256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="100" customHeight="1">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91">
+        <v>90</v>
+      </c>
+      <c r="E91">
+        <v>0.60297</v>
+      </c>
+      <c r="F91">
+        <v>-1.32486050339642</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="100" customHeight="1">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92">
+        <v>98.75</v>
+      </c>
+      <c r="E92">
+        <v>0.59302</v>
+      </c>
+      <c r="F92">
+        <v>-2.59116996546999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="100" customHeight="1">
+      <c r="A93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93">
+        <v>98.5</v>
+      </c>
+      <c r="E93">
+        <v>0.59302</v>
+      </c>
+      <c r="F93">
+        <v>-2.481546415790242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="100" customHeight="1">
+      <c r="A94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94">
+        <v>96</v>
+      </c>
+      <c r="E94">
+        <v>0.59302</v>
+      </c>
+      <c r="F94">
+        <v>-1.884649482472938</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="100" customHeight="1">
+      <c r="A95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95">
+        <v>99.5</v>
+      </c>
+      <c r="E95">
+        <v>0.59302</v>
+      </c>
+      <c r="F95">
+        <v>-3.139035627158129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="100" customHeight="1">
+      <c r="A96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96">
+        <v>98.5</v>
+      </c>
+      <c r="E96">
+        <v>0.59302</v>
+      </c>
+      <c r="F96">
+        <v>-2.481546415790242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="100" customHeight="1">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97">
+        <v>97.5</v>
+      </c>
+      <c r="E97">
+        <v>0.59302</v>
+      </c>
+      <c r="F97">
+        <v>-2.172565327387805</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="100" customHeight="1">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E98">
+        <v>0.59302</v>
+      </c>
+      <c r="F98">
+        <v>-0.5338637297374831</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="100" customHeight="1">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99">
+        <v>8.299999999999997</v>
+      </c>
+      <c r="E99">
+        <v>0.59302</v>
+      </c>
+      <c r="F99">
+        <v>1.424592295961991</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="100" customHeight="1">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100">
+        <v>12.6</v>
+      </c>
+      <c r="E100">
+        <v>0.59302</v>
+      </c>
+      <c r="F100">
+        <v>1.14856022791088</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="100" customHeight="1">
+      <c r="A101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101">
+        <v>5.25</v>
+      </c>
+      <c r="E101">
+        <v>0.59302</v>
+      </c>
+      <c r="F101">
+        <v>1.715615024319236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="100" customHeight="1">
+      <c r="A102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="s">
+        <v>207</v>
+      </c>
+      <c r="D102">
+        <v>0.6499999999999986</v>
+      </c>
+      <c r="E102">
+        <v>0.59302</v>
+      </c>
+      <c r="F102">
+        <v>2.982553696496239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="100" customHeight="1">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="s">
+        <v>209</v>
+      </c>
+      <c r="D103">
+        <v>95.7</v>
+      </c>
+      <c r="E103">
+        <v>0.59302</v>
+      </c>
+      <c r="F103">
+        <v>-1.839905794590835</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="100" customHeight="1">
+      <c r="A104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104">
+        <v>97.2</v>
+      </c>
+      <c r="E104">
+        <v>0.59302</v>
+      </c>
+      <c r="F104">
+        <v>-2.10353166053703</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="100" customHeight="1">
+      <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105">
+        <v>96.8</v>
+      </c>
+      <c r="E105">
+        <v>0.59302</v>
+      </c>
+      <c r="F105">
+        <v>-2.02189942731846</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="100" customHeight="1">
+      <c r="A106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="s">
+        <v>215</v>
+      </c>
+      <c r="D106">
+        <v>99.75</v>
+      </c>
+      <c r="E106">
+        <v>0.59302</v>
+      </c>
+      <c r="F106">
+        <v>-3.55157389944404</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="100" customHeight="1">
+      <c r="A107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>0.59302</v>
+      </c>
+      <c r="F107">
+        <v>1.631715471340137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="100" customHeight="1">
+      <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" t="s">
+        <v>219</v>
+      </c>
+      <c r="D108">
+        <v>46</v>
+      </c>
+      <c r="E108">
+        <v>0.59899</v>
+      </c>
+      <c r="F108">
+        <v>0.09604364396853164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="100" customHeight="1">
+      <c r="A109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="s">
+        <v>221</v>
+      </c>
+      <c r="D109">
+        <v>32.5</v>
+      </c>
+      <c r="E109">
+        <v>0.59899</v>
+      </c>
+      <c r="F109">
+        <v>0.4377943087420472</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="100" customHeight="1">
+      <c r="A110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110">
+        <v>54.5</v>
+      </c>
+      <c r="E110">
+        <v>0.59899</v>
+      </c>
+      <c r="F110">
+        <v>-0.1081107321679067</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="100" customHeight="1">
+      <c r="A111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" t="s">
+        <v>225</v>
+      </c>
+      <c r="D111">
         <v>73.5</v>
       </c>
-      <c r="E64">
-        <v>0.59899</v>
-      </c>
-      <c r="F64">
+      <c r="E111">
+        <v>0.59899</v>
+      </c>
+      <c r="F111">
         <v>-0.6110540618560099</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="100" customHeight="1">
+      <c r="A112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" t="s">
+        <v>227</v>
+      </c>
+      <c r="D112">
+        <v>99.5</v>
+      </c>
+      <c r="E112">
+        <v>0.59302</v>
+      </c>
+      <c r="F112">
+        <v>-3.139035627158129</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>smiles</t>
   </si>
@@ -94,12 +94,6 @@
     <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(NC(=O)C)cccc1)C</t>
-  </si>
-  <si>
-    <t>YSZGCNKBKQQPAH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(c1cc(C)ccc1)C</t>
   </si>
   <si>
@@ -304,42 +298,12 @@
     <t>RNIDWJDZNNVFDY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=NC=CS1)C</t>
-  </si>
-  <si>
-    <t>MOMFXATYAINJML-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
-  </si>
-  <si>
-    <t>MYLYBCZMJRPTEU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CC=C1)C</t>
-  </si>
-  <si>
-    <t>AJKVQEKCUACUMD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CN=CC=C1)C</t>
-  </si>
-  <si>
-    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(C1=CC=NC=C1)C</t>
   </si>
   <si>
     <t>WMQUKDQWMMOHSA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=NC=CC=C1)C(C)C</t>
-  </si>
-  <si>
-    <t>OPPJOYDMQXHCFS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(C1CC1)C</t>
   </si>
   <si>
@@ -352,66 +316,6 @@
     <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(CN(C)C)C</t>
-  </si>
-  <si>
-    <t>VFPKIWATTACVJR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)c1ccccc1)C</t>
-  </si>
-  <si>
-    <t>SLOCEDWZEACARV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>UMLWXYJZDNNBTD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)C(=O)C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>WILPNXBAEMGDCS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CNC(=O)c1ccccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>MIJZKZQWQXKSPA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CN(C)C(=O)c1ccccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>KXARYBXYBGQZCM-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(CN(C)C(=O)OC(C)(C)C)c2ccccc2</t>
-  </si>
-  <si>
-    <t>WFKSNAFHIMNMLV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
-  </si>
-  <si>
-    <t>BLNSEHDIFVBBKV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1)CCN(C)C</t>
-  </si>
-  <si>
-    <t>QMNXJNURJISYMS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=SC=CC1)CCN(C)C</t>
-  </si>
-  <si>
-    <t>RRRLNSBRKAMGPF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
   </si>
   <si>
@@ -508,48 +412,6 @@
     <t>HDURLXYBKGWETC-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1ncccc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>GCSHUYKULREZSJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ncccc1)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t>BHDAKOZHMSQCFH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ncccc1)c1cc(Cl)ccc1</t>
-  </si>
-  <si>
-    <t>DTEIFMBOVCPJGY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cnccc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t>RYMBAPVTUHZCNF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cnccc1)c1c(C)cccc1</t>
-  </si>
-  <si>
-    <t>YIPODLIDWSBPJA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cnccc1)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t>CXDYOXSPZUWEQX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cnccc1)c1cc(Cl)ccc1</t>
-  </si>
-  <si>
-    <t>MDGKXQYPOIIMHW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(c1ccncc1)c1ccccc1</t>
   </si>
   <si>
@@ -574,102 +436,6 @@
     <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C2=CN=C(C(C(F)(F)F)(C(F)(F)F)OCOC)S2)c1ccccc1</t>
-  </si>
-  <si>
-    <t>RDYXHIZMFBMAOS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1ccccc1</t>
-  </si>
-  <si>
-    <t>VUVSIPWGRHQUGS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C(C3(C)OCCO3)S2)c1ccccc1</t>
-  </si>
-  <si>
-    <t>FHQKWASXMQBSCT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t>DHLKAJJXHDNVDN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C(C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t>LCWRNKBOWMZEKT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t>DNNFCPLFPRGBHI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=NC=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t>IYZPWGMIISJDTP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CSC(C)=N2)c1ccccc1</t>
-  </si>
-  <si>
-    <t>LXZSCYZOMOPQEF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ncccc1)c1ccc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>KHXSJSBQIWAIEG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ncccc1)c1ccc(OC)cc1</t>
-  </si>
-  <si>
-    <t>ZYZQOYSKLICWGX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ncccc1)c1c(C)cccc1</t>
-  </si>
-  <si>
-    <t>GWXTVPWMINBKEI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c2nccc3ccccc23)c1ccccc1</t>
-  </si>
-  <si>
-    <t>MDWCIKACMBMJFA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cnc(OC)cc1</t>
-  </si>
-  <si>
-    <t>RJOOVWVGRDXTKN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(OC)cccc1)C2=CN(c3ccccc3)N=C2</t>
-  </si>
-  <si>
-    <t>XTIVLYSLPXZKLH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CN=C([Si](C(C)(C))(C(C)(C))C(C)(C))O1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>IJPGLDZXSJKFQQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(c1ncccc1)c2cc(C(F)(F)F)nc3c(C(F)(F)F)cccc23</t>
-  </si>
-  <si>
-    <t>GZTUXOWPGYDWNO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
   </si>
   <si>
@@ -692,12 +458,6 @@
   </si>
   <si>
     <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(CN2C=CN=C2)c1c(Cl)cc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>YAEYBUZMILPYLT-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -3435,1526 +3195,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="88868250"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="90135075"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="91401900"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="92668725"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="93935550"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="95202375"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="96469200"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="97736025"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="99002850"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="100269675"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="101536500"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="102803325"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="104070150"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 84" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="105336975"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Picture 85" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="106603800"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Picture 86" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="107870625"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Picture 87" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="109137450"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Picture 88" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="110404275"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 89" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="111671100"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 90" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="112937925"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 91" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="114204750"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Picture 92" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="115471575"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 93" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="116738400"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Picture 94" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="118005225"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Picture 95" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="119272050"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Picture 96" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="120538875"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Picture 97" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="121805700"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Picture 98" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="123072525"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Picture 99" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="124339350"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Picture 100" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="125606175"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Picture 101" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="126873000"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Picture 102" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="128139825"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Picture 103" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="129406650"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Picture 104" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="130673475"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Picture 105" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="131940300"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Picture 106" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="133207125"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Picture 107" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="134473950"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Picture 108" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="135740775"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Picture 109" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="137007600"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Picture 110" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="138274425"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Picture 111" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="139541250"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5252,7 +3492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5459,13 +3699,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E12">
         <v>0.59899</v>
       </c>
       <c r="F12">
-        <v>2.752430839032118</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -5476,13 +3716,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0.59899</v>
       </c>
       <c r="F13">
-        <v>3.58732799910286</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -5493,13 +3733,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E14">
         <v>0.59899</v>
       </c>
       <c r="F14">
-        <v>2.752430839032118</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -5510,13 +3750,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
         <v>0.59899</v>
       </c>
       <c r="F15">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -5544,13 +3784,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0.59899</v>
       </c>
       <c r="F17">
-        <v>3.170636656961724</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -5578,13 +3818,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E19">
         <v>0.59899</v>
       </c>
       <c r="F19">
-        <v>2.752430839032118</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -5612,13 +3852,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="E21">
         <v>0.59899</v>
       </c>
       <c r="F21">
-        <v>2.506528426687457</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -5663,13 +3903,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E24">
         <v>0.59899</v>
       </c>
       <c r="F24">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -5680,13 +3920,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E25">
         <v>0.59899</v>
       </c>
       <c r="F25">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -5697,13 +3937,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
         <v>0.59899</v>
       </c>
       <c r="F26">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -5765,13 +4005,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E30">
         <v>0.59899</v>
       </c>
       <c r="F30">
-        <v>3.170636656961724</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -5782,13 +4022,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>0.59899</v>
       </c>
       <c r="F31">
-        <v>2.506528426687457</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -5799,13 +4039,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="E32">
         <v>0.59899</v>
       </c>
       <c r="F32">
-        <v>2.331161440365284</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -5816,13 +4056,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0.59899</v>
       </c>
       <c r="F33">
-        <v>3.58732799910286</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -5833,13 +4073,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E34">
         <v>0.59899</v>
       </c>
       <c r="F34">
-        <v>2.752430839032118</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -5850,13 +4090,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>96.5</v>
       </c>
       <c r="E35">
         <v>0.59899</v>
       </c>
       <c r="F35">
-        <v>3.170636656961724</v>
+        <v>-1.986718076069497</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -5867,13 +4107,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>96.5</v>
+        <v>99.5</v>
       </c>
       <c r="E36">
         <v>0.59899</v>
       </c>
       <c r="F36">
-        <v>-1.986718076069497</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -5884,13 +4124,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="E37">
         <v>0.59899</v>
       </c>
       <c r="F37">
-        <v>-3.170636656961734</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -5918,13 +4158,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="E39">
         <v>0.59899</v>
       </c>
       <c r="F39">
-        <v>-2.506528426687459</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -5935,13 +4175,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>98</v>
+        <v>99.7</v>
       </c>
       <c r="E40">
         <v>0.59899</v>
       </c>
       <c r="F40">
-        <v>-2.331161440365284</v>
+        <v>-3.47781888891013</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -5952,13 +4192,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>99.7</v>
+        <v>0.5</v>
       </c>
       <c r="E41">
         <v>0.59899</v>
       </c>
       <c r="F41">
-        <v>-3.47781888891013</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -5969,13 +4209,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0.59899</v>
       </c>
       <c r="F42">
-        <v>3.170636656961724</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -5986,13 +4226,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E43">
         <v>0.59899</v>
       </c>
       <c r="F43">
-        <v>2.752430839032118</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -6003,13 +4243,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E44">
         <v>0.59899</v>
       </c>
       <c r="F44">
-        <v>3.170636656961724</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -6020,13 +4260,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="E45">
         <v>0.59899</v>
       </c>
       <c r="F45">
-        <v>2.506528426687457</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -6054,13 +4294,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E47">
         <v>0.59899</v>
       </c>
       <c r="F47">
-        <v>2.331161440365284</v>
+        <v>2.194436790415197</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -6071,13 +4311,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="E48">
         <v>0.59899</v>
       </c>
       <c r="F48">
-        <v>2.752430839032118</v>
+        <v>1.504845945705453</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -6088,13 +4328,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E49">
         <v>0.59899</v>
       </c>
       <c r="F49">
-        <v>2.331161440365284</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -6105,13 +4345,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>0.59899</v>
       </c>
       <c r="F50">
-        <v>3.58732799910286</v>
+        <v>1.316115549578622</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -6122,13 +4362,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0.59899</v>
       </c>
       <c r="F51">
-        <v>3.58732799910286</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -6139,13 +4379,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>97.5</v>
       </c>
       <c r="E52">
         <v>0.59899</v>
       </c>
       <c r="F52">
-        <v>2.08214835422443</v>
+        <v>-2.194436790415199</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -6156,13 +4396,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>2.5</v>
+        <v>68.5</v>
       </c>
       <c r="E53">
         <v>0.59899</v>
       </c>
       <c r="F53">
-        <v>2.194436790415197</v>
+        <v>-0.4653231050005244</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -6173,13 +4413,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>1.504845945705453</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -6190,13 +4430,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>1.903622463840116</v>
+        <v>1.549401050221227</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -6207,13 +4447,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="E56">
         <v>0.59899</v>
       </c>
       <c r="F56">
-        <v>1.350158232627011</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -6224,13 +4464,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>96.5</v>
+        <v>5</v>
       </c>
       <c r="E57">
         <v>0.59899</v>
       </c>
       <c r="F57">
-        <v>-1.986718076069497</v>
+        <v>1.763689504130906</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -6241,13 +4481,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>99.5</v>
+        <v>3</v>
       </c>
       <c r="E58">
         <v>0.59899</v>
       </c>
       <c r="F58">
-        <v>-3.170636656961734</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -6258,13 +4498,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>97.5</v>
+        <v>4.5</v>
       </c>
       <c r="E59">
         <v>0.59899</v>
       </c>
       <c r="F59">
-        <v>-2.194436790415199</v>
+        <v>1.829943711087029</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -6275,13 +4515,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>99.75</v>
+        <v>3.5</v>
       </c>
       <c r="E60">
         <v>0.59899</v>
       </c>
       <c r="F60">
-        <v>-3.587327999102873</v>
+        <v>1.986718076069495</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -6292,13 +4532,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>99.5</v>
+        <v>0.25</v>
       </c>
       <c r="E61">
         <v>0.59899</v>
       </c>
       <c r="F61">
-        <v>-3.170636656961734</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -6309,13 +4549,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>98.5</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>0.59899</v>
       </c>
       <c r="F62">
-        <v>-2.506528426687459</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -6326,13 +4566,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="E63">
         <v>0.59899</v>
       </c>
       <c r="F63">
-        <v>2.617255569149221</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -6343,13 +4583,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E64">
         <v>0.59899</v>
       </c>
       <c r="F64">
-        <v>1.903622463840116</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -6360,13 +4600,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>0.5</v>
+        <v>77</v>
       </c>
       <c r="E65">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F65">
-        <v>3.170636656961724</v>
+        <v>-0.7285754078363164</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -6377,13 +4617,13 @@
         <v>135</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E66">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F66">
-        <v>1.316115549578622</v>
+        <v>-1.775408371267989</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
@@ -6394,13 +4634,13 @@
         <v>137</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>43.5</v>
       </c>
       <c r="E67">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F67">
-        <v>2.752430839032118</v>
+        <v>0.1576644147438256</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="100" customHeight="1">
@@ -6411,13 +4651,13 @@
         <v>139</v>
       </c>
       <c r="D68">
-        <v>97.5</v>
+        <v>90</v>
       </c>
       <c r="E68">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F68">
-        <v>-2.194436790415199</v>
+        <v>-1.32486050339642</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="100" customHeight="1">
@@ -6428,13 +4668,13 @@
         <v>141</v>
       </c>
       <c r="D69">
-        <v>68.5</v>
+        <v>46</v>
       </c>
       <c r="E69">
         <v>0.59899</v>
       </c>
       <c r="F69">
-        <v>-0.4653231050005244</v>
+        <v>0.09604364396853164</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="100" customHeight="1">
@@ -6445,13 +4685,13 @@
         <v>143</v>
       </c>
       <c r="D70">
-        <v>1.5</v>
+        <v>32.5</v>
       </c>
       <c r="E70">
         <v>0.59899</v>
       </c>
       <c r="F70">
-        <v>2.506528426687457</v>
+        <v>0.4377943087420472</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="100" customHeight="1">
@@ -6462,13 +4702,13 @@
         <v>145</v>
       </c>
       <c r="D71">
-        <v>7</v>
+        <v>54.5</v>
       </c>
       <c r="E71">
         <v>0.59899</v>
       </c>
       <c r="F71">
-        <v>1.549401050221227</v>
+        <v>-0.1081107321679067</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="100" customHeight="1">
@@ -6479,693 +4719,13 @@
         <v>147</v>
       </c>
       <c r="D72">
-        <v>1.5</v>
+        <v>73.5</v>
       </c>
       <c r="E72">
         <v>0.59899</v>
       </c>
       <c r="F72">
-        <v>2.506528426687457</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="100" customHeight="1">
-      <c r="A73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73">
-        <v>5</v>
-      </c>
-      <c r="E73">
-        <v>0.59899</v>
-      </c>
-      <c r="F73">
-        <v>1.763689504130906</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="100" customHeight="1">
-      <c r="A74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>0.59899</v>
-      </c>
-      <c r="F74">
-        <v>2.08214835422443</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="100" customHeight="1">
-      <c r="A75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75">
-        <v>4.5</v>
-      </c>
-      <c r="E75">
-        <v>0.59899</v>
-      </c>
-      <c r="F75">
-        <v>1.829943711087029</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="100" customHeight="1">
-      <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76">
-        <v>3.5</v>
-      </c>
-      <c r="E76">
-        <v>0.59899</v>
-      </c>
-      <c r="F76">
-        <v>1.986718076069495</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="100" customHeight="1">
-      <c r="A77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77">
-        <v>0.25</v>
-      </c>
-      <c r="E77">
-        <v>0.59899</v>
-      </c>
-      <c r="F77">
-        <v>3.58732799910286</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="100" customHeight="1">
-      <c r="A78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78">
-        <v>0.59899</v>
-      </c>
-      <c r="F78">
-        <v>2.08214835422443</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="100" customHeight="1">
-      <c r="A79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79">
-        <v>0.5</v>
-      </c>
-      <c r="E79">
-        <v>0.59899</v>
-      </c>
-      <c r="F79">
-        <v>3.170636656961724</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="100" customHeight="1">
-      <c r="A80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80">
-        <v>0.5</v>
-      </c>
-      <c r="E80">
-        <v>0.59899</v>
-      </c>
-      <c r="F80">
-        <v>3.170636656961724</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="100" customHeight="1">
-      <c r="A81" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81">
-        <v>15</v>
-      </c>
-      <c r="E81">
-        <v>0.60297</v>
-      </c>
-      <c r="F81">
-        <v>1.045912398367367</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="100" customHeight="1">
-      <c r="A82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82">
-        <v>20</v>
-      </c>
-      <c r="E82">
-        <v>0.60297</v>
-      </c>
-      <c r="F82">
-        <v>0.8358939109244604</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="100" customHeight="1">
-      <c r="A83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83">
-        <v>25</v>
-      </c>
-      <c r="E83">
-        <v>0.60297</v>
-      </c>
-      <c r="F83">
-        <v>0.6624302516982101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="100" customHeight="1">
-      <c r="A84" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84">
-        <v>84.5</v>
-      </c>
-      <c r="E84">
-        <v>0.60297</v>
-      </c>
-      <c r="F84">
-        <v>-1.022583763448757</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="100" customHeight="1">
-      <c r="A85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85">
-        <v>16</v>
-      </c>
-      <c r="E85">
-        <v>0.60297</v>
-      </c>
-      <c r="F85">
-        <v>0.9998617833496319</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="100" customHeight="1">
-      <c r="A86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86">
-        <v>89</v>
-      </c>
-      <c r="E86">
-        <v>0.60297</v>
-      </c>
-      <c r="F86">
-        <v>-1.260654159218154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="100" customHeight="1">
-      <c r="A87" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87">
-        <v>77.5</v>
-      </c>
-      <c r="E87">
-        <v>0.60297</v>
-      </c>
-      <c r="F87">
-        <v>-0.7457307612919885</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="100" customHeight="1">
-      <c r="A88" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88">
-        <v>77</v>
-      </c>
-      <c r="E88">
-        <v>0.60297</v>
-      </c>
-      <c r="F88">
-        <v>-0.7285754078363164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="100" customHeight="1">
-      <c r="A89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89">
-        <v>95</v>
-      </c>
-      <c r="E89">
-        <v>0.60297</v>
-      </c>
-      <c r="F89">
-        <v>-1.775408371267989</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="100" customHeight="1">
-      <c r="A90" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90">
-        <v>43.5</v>
-      </c>
-      <c r="E90">
-        <v>0.60297</v>
-      </c>
-      <c r="F90">
-        <v>0.1576644147438256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="100" customHeight="1">
-      <c r="A91" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" t="s">
-        <v>185</v>
-      </c>
-      <c r="D91">
-        <v>90</v>
-      </c>
-      <c r="E91">
-        <v>0.60297</v>
-      </c>
-      <c r="F91">
-        <v>-1.32486050339642</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="100" customHeight="1">
-      <c r="A92" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" t="s">
-        <v>187</v>
-      </c>
-      <c r="D92">
-        <v>98.75</v>
-      </c>
-      <c r="E92">
-        <v>0.59302</v>
-      </c>
-      <c r="F92">
-        <v>-2.59116996546999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="100" customHeight="1">
-      <c r="A93" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93">
-        <v>98.5</v>
-      </c>
-      <c r="E93">
-        <v>0.59302</v>
-      </c>
-      <c r="F93">
-        <v>-2.481546415790242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="100" customHeight="1">
-      <c r="A94" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" t="s">
-        <v>191</v>
-      </c>
-      <c r="D94">
-        <v>96</v>
-      </c>
-      <c r="E94">
-        <v>0.59302</v>
-      </c>
-      <c r="F94">
-        <v>-1.884649482472938</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="100" customHeight="1">
-      <c r="A95" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95">
-        <v>99.5</v>
-      </c>
-      <c r="E95">
-        <v>0.59302</v>
-      </c>
-      <c r="F95">
-        <v>-3.139035627158129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="100" customHeight="1">
-      <c r="A96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96">
-        <v>98.5</v>
-      </c>
-      <c r="E96">
-        <v>0.59302</v>
-      </c>
-      <c r="F96">
-        <v>-2.481546415790242</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="100" customHeight="1">
-      <c r="A97" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97">
-        <v>97.5</v>
-      </c>
-      <c r="E97">
-        <v>0.59302</v>
-      </c>
-      <c r="F97">
-        <v>-2.172565327387805</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="100" customHeight="1">
-      <c r="A98" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="E98">
-        <v>0.59302</v>
-      </c>
-      <c r="F98">
-        <v>-0.5338637297374831</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="100" customHeight="1">
-      <c r="A99" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99">
-        <v>8.299999999999997</v>
-      </c>
-      <c r="E99">
-        <v>0.59302</v>
-      </c>
-      <c r="F99">
-        <v>1.424592295961991</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="100" customHeight="1">
-      <c r="A100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100">
-        <v>12.6</v>
-      </c>
-      <c r="E100">
-        <v>0.59302</v>
-      </c>
-      <c r="F100">
-        <v>1.14856022791088</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="100" customHeight="1">
-      <c r="A101" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101">
-        <v>5.25</v>
-      </c>
-      <c r="E101">
-        <v>0.59302</v>
-      </c>
-      <c r="F101">
-        <v>1.715615024319236</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="100" customHeight="1">
-      <c r="A102" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102">
-        <v>0.6499999999999986</v>
-      </c>
-      <c r="E102">
-        <v>0.59302</v>
-      </c>
-      <c r="F102">
-        <v>2.982553696496239</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="100" customHeight="1">
-      <c r="A103" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103">
-        <v>95.7</v>
-      </c>
-      <c r="E103">
-        <v>0.59302</v>
-      </c>
-      <c r="F103">
-        <v>-1.839905794590835</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="100" customHeight="1">
-      <c r="A104" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" t="s">
-        <v>211</v>
-      </c>
-      <c r="D104">
-        <v>97.2</v>
-      </c>
-      <c r="E104">
-        <v>0.59302</v>
-      </c>
-      <c r="F104">
-        <v>-2.10353166053703</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="100" customHeight="1">
-      <c r="A105" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105">
-        <v>96.8</v>
-      </c>
-      <c r="E105">
-        <v>0.59302</v>
-      </c>
-      <c r="F105">
-        <v>-2.02189942731846</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="100" customHeight="1">
-      <c r="A106" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106">
-        <v>99.75</v>
-      </c>
-      <c r="E106">
-        <v>0.59302</v>
-      </c>
-      <c r="F106">
-        <v>-3.55157389944404</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="100" customHeight="1">
-      <c r="A107" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107">
-        <v>6</v>
-      </c>
-      <c r="E107">
-        <v>0.59302</v>
-      </c>
-      <c r="F107">
-        <v>1.631715471340137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="100" customHeight="1">
-      <c r="A108" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" t="s">
-        <v>219</v>
-      </c>
-      <c r="D108">
-        <v>46</v>
-      </c>
-      <c r="E108">
-        <v>0.59899</v>
-      </c>
-      <c r="F108">
-        <v>0.09604364396853164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="100" customHeight="1">
-      <c r="A109" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109">
-        <v>32.5</v>
-      </c>
-      <c r="E109">
-        <v>0.59899</v>
-      </c>
-      <c r="F109">
-        <v>0.4377943087420472</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="100" customHeight="1">
-      <c r="A110" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" t="s">
-        <v>223</v>
-      </c>
-      <c r="D110">
-        <v>54.5</v>
-      </c>
-      <c r="E110">
-        <v>0.59899</v>
-      </c>
-      <c r="F110">
-        <v>-0.1081107321679067</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="100" customHeight="1">
-      <c r="A111" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" t="s">
-        <v>225</v>
-      </c>
-      <c r="D111">
-        <v>73.5</v>
-      </c>
-      <c r="E111">
-        <v>0.59899</v>
-      </c>
-      <c r="F111">
         <v>-0.6110540618560099</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="100" customHeight="1">
-      <c r="A112" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" t="s">
-        <v>227</v>
-      </c>
-      <c r="D112">
-        <v>99.5</v>
-      </c>
-      <c r="E112">
-        <v>0.59302</v>
-      </c>
-      <c r="F112">
-        <v>-3.139035627158129</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>smiles</t>
   </si>
@@ -94,6 +94,12 @@
     <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(c1c(NC(=O)C)cccc1)C</t>
+  </si>
+  <si>
+    <t>YSZGCNKBKQQPAH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(c1cc(C)ccc1)C</t>
   </si>
   <si>
@@ -232,6 +238,30 @@
     <t>VUGQIIQFXCXZJU-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(C(F)(F)(F))c1ccccc1</t>
+  </si>
+  <si>
+    <t>KZJRKRQSDZGHEC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)(F))c1ccc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>DYPQUENOGZXOGE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)(F))c1ccc(Br)cc1</t>
+  </si>
+  <si>
+    <t>IHGSAQHSAGRWNI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)(F))c1ccc(OC)cc1</t>
+  </si>
+  <si>
+    <t>NCJZVRPXSSYDBG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(c1ccccc1C)c1ccccc1</t>
   </si>
   <si>
@@ -268,36 +298,24 @@
     <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CC=CO1)C</t>
-  </si>
-  <si>
-    <t>IEMMBWWQXVXBEU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=CO1)CCCCC</t>
-  </si>
-  <si>
-    <t>YUAYWSBSIJVIBS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(C1=CC=CS1)C</t>
   </si>
   <si>
     <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CC=CO1)CCCC=C</t>
-  </si>
-  <si>
-    <t>AFTUQMXNVYPAJO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(C1=CSC=C1)C</t>
   </si>
   <si>
     <t>RNIDWJDZNNVFDY-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(C1=CN=CC=C1)C</t>
+  </si>
+  <si>
+    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(C1=CC=NC=C1)C</t>
   </si>
   <si>
@@ -316,36 +334,24 @@
     <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(c1ccccc1)CCN(C)C</t>
+  </si>
+  <si>
+    <t>QMNXJNURJISYMS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=SC=CC1)CCN(C)C</t>
+  </si>
+  <si>
+    <t>RRRLNSBRKAMGPF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
   </si>
   <si>
     <t>QTGQNPULXWGQBL-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(COc1ccccc1)C</t>
-  </si>
-  <si>
-    <t>QWAVNXZAQASOML-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(OC)OC)C</t>
-  </si>
-  <si>
-    <t>ULVSHNOGEVXRDR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C(OCC)OCC)c1ccccc1</t>
-  </si>
-  <si>
-    <t>PIZHFBODNLEQBL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(/C=C/c1ccccc1)C</t>
   </si>
   <si>
@@ -412,6 +418,30 @@
     <t>HDURLXYBKGWETC-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(c1cnccc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>RYMBAPVTUHZCNF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>YIPODLIDWSBPJA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>CXDYOXSPZUWEQX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1cc(Cl)ccc1</t>
+  </si>
+  <si>
+    <t>MDGKXQYPOIIMHW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(c1ccncc1)c1ccccc1</t>
   </si>
   <si>
@@ -434,6 +464,54 @@
   </si>
   <si>
     <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C(C(F)(F)F)(C(F)(F)F)OCOC)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>RDYXHIZMFBMAOS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>VUVSIPWGRHQUGS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C3(C)OCCO3)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FHQKWASXMQBSCT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>DHLKAJJXHDNVDN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>LCWRNKBOWMZEKT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>DNNFCPLFPRGBHI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cnc(OC)cc1</t>
+  </si>
+  <si>
+    <t>RJOOVWVGRDXTKN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(OC)cccc1)C2=CN(c3ccccc3)N=C2</t>
+  </si>
+  <si>
+    <t>XTIVLYSLPXZKLH-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
@@ -3195,6 +3273,500 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="88868250"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="90135075"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="91401900"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="92668725"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="93935550"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="95202375"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="96469200"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="97736025"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="99002850"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="100269675"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="101536500"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="102803325"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="104070150"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="105336975"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3492,7 +4064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3699,13 +4271,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0.59899</v>
       </c>
       <c r="F12">
-        <v>3.58732799910286</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -3716,13 +4288,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E13">
         <v>0.59899</v>
       </c>
       <c r="F13">
-        <v>2.752430839032118</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -3733,13 +4305,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0.59899</v>
       </c>
       <c r="F14">
-        <v>3.58732799910286</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -3750,13 +4322,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E15">
         <v>0.59899</v>
       </c>
       <c r="F15">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -3784,13 +4356,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E17">
         <v>0.59899</v>
       </c>
       <c r="F17">
-        <v>2.752430839032118</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -3818,13 +4390,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0.59899</v>
       </c>
       <c r="F19">
-        <v>2.506528426687457</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3852,13 +4424,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="E21">
         <v>0.59899</v>
       </c>
       <c r="F21">
-        <v>3.58732799910286</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3903,13 +4475,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E24">
         <v>0.59899</v>
       </c>
       <c r="F24">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3920,13 +4492,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E25">
         <v>0.59899</v>
       </c>
       <c r="F25">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -3937,13 +4509,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E26">
         <v>0.59899</v>
       </c>
       <c r="F26">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -4005,13 +4577,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E30">
         <v>0.59899</v>
       </c>
       <c r="F30">
-        <v>2.506528426687457</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -4022,13 +4594,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E31">
         <v>0.59899</v>
       </c>
       <c r="F31">
-        <v>2.331161440365284</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -4039,13 +4611,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>0.59899</v>
       </c>
       <c r="F32">
-        <v>3.58732799910286</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -4056,13 +4628,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E33">
         <v>0.59899</v>
       </c>
       <c r="F33">
-        <v>2.752430839032118</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -4073,13 +4645,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0.59899</v>
       </c>
       <c r="F34">
-        <v>3.170636656961724</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -4090,13 +4662,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>96.5</v>
+        <v>0.5</v>
       </c>
       <c r="E35">
         <v>0.59899</v>
       </c>
       <c r="F35">
-        <v>-1.986718076069497</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -4107,13 +4679,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="E36">
         <v>0.59899</v>
       </c>
       <c r="F36">
-        <v>-3.170636656961734</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -4124,13 +4696,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="E37">
         <v>0.59899</v>
       </c>
       <c r="F37">
-        <v>-2.506528426687459</v>
+        <v>-2.082148354224433</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -4141,13 +4713,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="E38">
         <v>0.59899</v>
       </c>
       <c r="F38">
-        <v>-2.506528426687459</v>
+        <v>-2.082148354224433</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -4175,13 +4747,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>99.7</v>
+        <v>96.5</v>
       </c>
       <c r="E40">
         <v>0.59899</v>
       </c>
       <c r="F40">
-        <v>-3.47781888891013</v>
+        <v>-1.986718076069497</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -4192,13 +4764,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E41">
         <v>0.59899</v>
       </c>
       <c r="F41">
-        <v>3.170636656961724</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -4209,13 +4781,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>98.5</v>
       </c>
       <c r="E42">
         <v>0.59899</v>
       </c>
       <c r="F42">
-        <v>2.752430839032118</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -4226,13 +4798,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>98.5</v>
       </c>
       <c r="E43">
         <v>0.59899</v>
       </c>
       <c r="F43">
-        <v>3.170636656961724</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -4243,13 +4815,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>1.5</v>
+        <v>98</v>
       </c>
       <c r="E44">
         <v>0.59899</v>
       </c>
       <c r="F44">
-        <v>2.506528426687457</v>
+        <v>-2.331161440365284</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -4260,13 +4832,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>0.25</v>
+        <v>99.7</v>
       </c>
       <c r="E45">
         <v>0.59899</v>
       </c>
       <c r="F45">
-        <v>3.58732799910286</v>
+        <v>-3.47781888891013</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4277,13 +4849,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E46">
         <v>0.59899</v>
       </c>
       <c r="F46">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4294,13 +4866,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="E47">
         <v>0.59899</v>
       </c>
       <c r="F47">
-        <v>2.194436790415197</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4311,13 +4883,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>7.5</v>
+        <v>0.25</v>
       </c>
       <c r="E48">
         <v>0.59899</v>
       </c>
       <c r="F48">
-        <v>1.504845945705453</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4328,13 +4900,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E49">
         <v>0.59899</v>
       </c>
       <c r="F49">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4345,13 +4917,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="E50">
         <v>0.59899</v>
       </c>
       <c r="F50">
-        <v>1.316115549578622</v>
+        <v>2.194436790415197</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4362,13 +4934,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="E51">
         <v>0.59899</v>
       </c>
       <c r="F51">
-        <v>2.752430839032118</v>
+        <v>1.504845945705453</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4379,13 +4951,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>97.5</v>
+        <v>1.25</v>
       </c>
       <c r="E52">
         <v>0.59899</v>
       </c>
       <c r="F52">
-        <v>-2.194436790415199</v>
+        <v>2.617255569149221</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4396,13 +4968,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>68.5</v>
+        <v>4</v>
       </c>
       <c r="E53">
         <v>0.59899</v>
       </c>
       <c r="F53">
-        <v>-0.4653231050005244</v>
+        <v>1.903622463840116</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4413,13 +4985,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>2.506528426687457</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4430,13 +5002,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>1.549401050221227</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4447,13 +5019,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <v>0.59899</v>
       </c>
       <c r="F56">
-        <v>2.506528426687457</v>
+        <v>1.549401050221227</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4464,13 +5036,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E57">
         <v>0.59899</v>
       </c>
       <c r="F57">
-        <v>1.763689504130906</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4481,13 +5053,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58">
         <v>0.59899</v>
       </c>
       <c r="F58">
-        <v>2.08214835422443</v>
+        <v>1.763689504130906</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4498,13 +5070,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E59">
         <v>0.59899</v>
       </c>
       <c r="F59">
-        <v>1.829943711087029</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4515,13 +5087,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E60">
         <v>0.59899</v>
       </c>
       <c r="F60">
-        <v>1.986718076069495</v>
+        <v>1.829943711087029</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4532,13 +5104,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="E61">
         <v>0.59899</v>
       </c>
       <c r="F61">
-        <v>3.58732799910286</v>
+        <v>1.986718076069495</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4549,13 +5121,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="E62">
         <v>0.59899</v>
       </c>
       <c r="F62">
-        <v>2.08214835422443</v>
+        <v>3.58732799910286</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4566,13 +5138,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <v>0.59899</v>
       </c>
       <c r="F63">
-        <v>3.170636656961724</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4600,13 +5172,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>77</v>
+        <v>0.5</v>
       </c>
       <c r="E65">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F65">
-        <v>-0.7285754078363164</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -4617,13 +5189,13 @@
         <v>135</v>
       </c>
       <c r="D66">
-        <v>95</v>
+        <v>84.5</v>
       </c>
       <c r="E66">
         <v>0.60297</v>
       </c>
       <c r="F66">
-        <v>-1.775408371267989</v>
+        <v>-1.022583763448757</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
@@ -4634,13 +5206,13 @@
         <v>137</v>
       </c>
       <c r="D67">
-        <v>43.5</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>0.60297</v>
       </c>
       <c r="F67">
-        <v>0.1576644147438256</v>
+        <v>0.9998617833496319</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="100" customHeight="1">
@@ -4651,13 +5223,13 @@
         <v>139</v>
       </c>
       <c r="D68">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E68">
         <v>0.60297</v>
       </c>
       <c r="F68">
-        <v>-1.32486050339642</v>
+        <v>-1.260654159218154</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="100" customHeight="1">
@@ -4668,13 +5240,13 @@
         <v>141</v>
       </c>
       <c r="D69">
-        <v>46</v>
+        <v>77.5</v>
       </c>
       <c r="E69">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F69">
-        <v>0.09604364396853164</v>
+        <v>-0.7457307612919885</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="100" customHeight="1">
@@ -4685,13 +5257,13 @@
         <v>143</v>
       </c>
       <c r="D70">
-        <v>32.5</v>
+        <v>77</v>
       </c>
       <c r="E70">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F70">
-        <v>0.4377943087420472</v>
+        <v>-0.7285754078363164</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="100" customHeight="1">
@@ -4702,13 +5274,13 @@
         <v>145</v>
       </c>
       <c r="D71">
-        <v>54.5</v>
+        <v>95</v>
       </c>
       <c r="E71">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F71">
-        <v>-0.1081107321679067</v>
+        <v>-1.775408371267989</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="100" customHeight="1">
@@ -4719,12 +5291,233 @@
         <v>147</v>
       </c>
       <c r="D72">
+        <v>43.5</v>
+      </c>
+      <c r="E72">
+        <v>0.60297</v>
+      </c>
+      <c r="F72">
+        <v>0.1576644147438256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="100" customHeight="1">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73">
+        <v>90</v>
+      </c>
+      <c r="E73">
+        <v>0.60297</v>
+      </c>
+      <c r="F73">
+        <v>-1.32486050339642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="100" customHeight="1">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74">
+        <v>98.75</v>
+      </c>
+      <c r="E74">
+        <v>0.59302</v>
+      </c>
+      <c r="F74">
+        <v>-2.59116996546999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="100" customHeight="1">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75">
+        <v>98.5</v>
+      </c>
+      <c r="E75">
+        <v>0.59302</v>
+      </c>
+      <c r="F75">
+        <v>-2.481546415790242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="100" customHeight="1">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76">
+        <v>96</v>
+      </c>
+      <c r="E76">
+        <v>0.59302</v>
+      </c>
+      <c r="F76">
+        <v>-1.884649482472938</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="100" customHeight="1">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77">
+        <v>99.5</v>
+      </c>
+      <c r="E77">
+        <v>0.59302</v>
+      </c>
+      <c r="F77">
+        <v>-3.139035627158129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="100" customHeight="1">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78">
+        <v>98.5</v>
+      </c>
+      <c r="E78">
+        <v>0.59302</v>
+      </c>
+      <c r="F78">
+        <v>-2.481546415790242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="100" customHeight="1">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79">
+        <v>97.5</v>
+      </c>
+      <c r="E79">
+        <v>0.59302</v>
+      </c>
+      <c r="F79">
+        <v>-2.172565327387805</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="100" customHeight="1">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80">
+        <v>97.2</v>
+      </c>
+      <c r="E80">
+        <v>0.59302</v>
+      </c>
+      <c r="F80">
+        <v>-2.10353166053703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="100" customHeight="1">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81">
+        <v>96.8</v>
+      </c>
+      <c r="E81">
+        <v>0.59302</v>
+      </c>
+      <c r="F81">
+        <v>-2.02189942731846</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="100" customHeight="1">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82">
+        <v>46</v>
+      </c>
+      <c r="E82">
+        <v>0.59899</v>
+      </c>
+      <c r="F82">
+        <v>0.09604364396853164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="100" customHeight="1">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83">
+        <v>32.5</v>
+      </c>
+      <c r="E83">
+        <v>0.59899</v>
+      </c>
+      <c r="F83">
+        <v>0.4377943087420472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="100" customHeight="1">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84">
+        <v>54.5</v>
+      </c>
+      <c r="E84">
+        <v>0.59899</v>
+      </c>
+      <c r="F84">
+        <v>-0.1081107321679067</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="100" customHeight="1">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85">
         <v>73.5</v>
       </c>
-      <c r="E72">
-        <v>0.59899</v>
-      </c>
-      <c r="F72">
+      <c r="E85">
+        <v>0.59899</v>
+      </c>
+      <c r="F85">
         <v>-0.6110540618560099</v>
       </c>
     </row>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>smiles</t>
   </si>
@@ -464,54 +464,6 @@
   </si>
   <si>
     <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C(C(C(F)(F)F)(C(F)(F)F)OCOC)S2)c1ccccc1</t>
-  </si>
-  <si>
-    <t>RDYXHIZMFBMAOS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1ccccc1</t>
-  </si>
-  <si>
-    <t>VUVSIPWGRHQUGS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C(C3(C)OCCO3)S2)c1ccccc1</t>
-  </si>
-  <si>
-    <t>FHQKWASXMQBSCT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t>DHLKAJJXHDNVDN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C(C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t>LCWRNKBOWMZEKT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t>DNNFCPLFPRGBHI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cnc(OC)cc1</t>
-  </si>
-  <si>
-    <t>RJOOVWVGRDXTKN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(OC)cccc1)C2=CN(c3ccccc3)N=C2</t>
-  </si>
-  <si>
-    <t>XTIVLYSLPXZKLH-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
@@ -3463,310 +3415,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="95202375"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="96469200"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="97736025"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="99002850"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="100269675"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="101536500"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="102803325"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="104070150"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 84" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="105336975"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4064,7 +3712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5325,13 +4973,13 @@
         <v>151</v>
       </c>
       <c r="D74">
-        <v>98.75</v>
+        <v>46</v>
       </c>
       <c r="E74">
-        <v>0.59302</v>
+        <v>0.59899</v>
       </c>
       <c r="F74">
-        <v>-2.59116996546999</v>
+        <v>0.09604364396853164</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="100" customHeight="1">
@@ -5342,13 +4990,13 @@
         <v>153</v>
       </c>
       <c r="D75">
-        <v>98.5</v>
+        <v>32.5</v>
       </c>
       <c r="E75">
-        <v>0.59302</v>
+        <v>0.59899</v>
       </c>
       <c r="F75">
-        <v>-2.481546415790242</v>
+        <v>0.4377943087420472</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="100" customHeight="1">
@@ -5359,13 +5007,13 @@
         <v>155</v>
       </c>
       <c r="D76">
-        <v>96</v>
+        <v>54.5</v>
       </c>
       <c r="E76">
-        <v>0.59302</v>
+        <v>0.59899</v>
       </c>
       <c r="F76">
-        <v>-1.884649482472938</v>
+        <v>-0.1081107321679067</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="100" customHeight="1">
@@ -5376,148 +5024,12 @@
         <v>157</v>
       </c>
       <c r="D77">
-        <v>99.5</v>
+        <v>73.5</v>
       </c>
       <c r="E77">
-        <v>0.59302</v>
+        <v>0.59899</v>
       </c>
       <c r="F77">
-        <v>-3.139035627158129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="100" customHeight="1">
-      <c r="A78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78">
-        <v>98.5</v>
-      </c>
-      <c r="E78">
-        <v>0.59302</v>
-      </c>
-      <c r="F78">
-        <v>-2.481546415790242</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="100" customHeight="1">
-      <c r="A79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79">
-        <v>97.5</v>
-      </c>
-      <c r="E79">
-        <v>0.59302</v>
-      </c>
-      <c r="F79">
-        <v>-2.172565327387805</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="100" customHeight="1">
-      <c r="A80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80">
-        <v>97.2</v>
-      </c>
-      <c r="E80">
-        <v>0.59302</v>
-      </c>
-      <c r="F80">
-        <v>-2.10353166053703</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="100" customHeight="1">
-      <c r="A81" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81">
-        <v>96.8</v>
-      </c>
-      <c r="E81">
-        <v>0.59302</v>
-      </c>
-      <c r="F81">
-        <v>-2.02189942731846</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="100" customHeight="1">
-      <c r="A82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82">
-        <v>46</v>
-      </c>
-      <c r="E82">
-        <v>0.59899</v>
-      </c>
-      <c r="F82">
-        <v>0.09604364396853164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="100" customHeight="1">
-      <c r="A83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83">
-        <v>32.5</v>
-      </c>
-      <c r="E83">
-        <v>0.59899</v>
-      </c>
-      <c r="F83">
-        <v>0.4377943087420472</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="100" customHeight="1">
-      <c r="A84" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84">
-        <v>54.5</v>
-      </c>
-      <c r="E84">
-        <v>0.59899</v>
-      </c>
-      <c r="F84">
-        <v>-0.1081107321679067</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="100" customHeight="1">
-      <c r="A85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85">
-        <v>73.5</v>
-      </c>
-      <c r="E85">
-        <v>0.59899</v>
-      </c>
-      <c r="F85">
         <v>-0.6110540618560099</v>
       </c>
     </row>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>smiles</t>
   </si>
@@ -298,12 +298,30 @@
     <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(C1=CC=CO1)C</t>
+  </si>
+  <si>
+    <t>IEMMBWWQXVXBEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CO1)CCCCC</t>
+  </si>
+  <si>
+    <t>YUAYWSBSIJVIBS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(C1=CC=CS1)C</t>
   </si>
   <si>
     <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(C1=CC=CO1)CCCC=C</t>
+  </si>
+  <si>
+    <t>AFTUQMXNVYPAJO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(C1=CSC=C1)C</t>
   </si>
   <si>
@@ -350,6 +368,30 @@
   </si>
   <si>
     <t>QTGQNPULXWGQBL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(COc1ccccc1)C</t>
+  </si>
+  <si>
+    <t>QWAVNXZAQASOML-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(OC)OC)C</t>
+  </si>
+  <si>
+    <t>ULVSHNOGEVXRDR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(OCC)OCC)c1ccccc1</t>
+  </si>
+  <si>
+    <t>PIZHFBODNLEQBL-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(/C=C/c1ccccc1)C</t>
@@ -3415,6 +3457,272 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="95202375"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="96469200"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="97736025"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="99002850"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="100269675"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="101536500"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="102803325"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="104070150"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3712,7 +4020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3936,13 +4244,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
         <v>0.59899</v>
       </c>
       <c r="F13">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -3970,13 +4278,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
         <v>0.59899</v>
       </c>
       <c r="F15">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -4089,13 +4397,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E22">
         <v>0.59899</v>
       </c>
       <c r="F22">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -4106,13 +4414,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E23">
         <v>0.59899</v>
       </c>
       <c r="F23">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -4123,13 +4431,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E24">
         <v>0.59899</v>
       </c>
       <c r="F24">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -4157,13 +4465,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
         <v>0.59899</v>
       </c>
       <c r="F26">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -4276,13 +4584,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E33">
         <v>0.59899</v>
       </c>
       <c r="F33">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -4480,13 +4788,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="E45">
         <v>0.59899</v>
       </c>
       <c r="F45">
-        <v>-3.47781888891013</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4514,13 +4822,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0.59899</v>
       </c>
       <c r="F47">
-        <v>3.58732799910286</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4531,13 +4839,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E48">
         <v>0.59899</v>
       </c>
       <c r="F48">
-        <v>3.58732799910286</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4548,13 +4856,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="E49">
         <v>0.59899</v>
       </c>
       <c r="F49">
-        <v>3.58732799910286</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4565,13 +4873,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="E50">
         <v>0.59899</v>
       </c>
       <c r="F50">
-        <v>2.194436790415197</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4582,13 +4890,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="E51">
         <v>0.59899</v>
       </c>
       <c r="F51">
-        <v>1.504845945705453</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4599,13 +4907,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="E52">
         <v>0.59899</v>
       </c>
       <c r="F52">
-        <v>2.617255569149221</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4616,13 +4924,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E53">
         <v>0.59899</v>
       </c>
       <c r="F53">
-        <v>1.903622463840116</v>
+        <v>2.194436790415197</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4633,13 +4941,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>3.170636656961724</v>
+        <v>1.504845945705453</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4650,13 +4958,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>2.506528426687457</v>
+        <v>2.617255569149221</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4667,13 +4975,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E56">
         <v>0.59899</v>
       </c>
       <c r="F56">
-        <v>1.549401050221227</v>
+        <v>1.903622463840116</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4684,13 +4992,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E57">
         <v>0.59899</v>
       </c>
       <c r="F57">
-        <v>2.506528426687457</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4701,13 +5009,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E58">
         <v>0.59899</v>
       </c>
       <c r="F58">
-        <v>1.763689504130906</v>
+        <v>1.316115549578622</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4718,13 +5026,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0.59899</v>
       </c>
       <c r="F59">
-        <v>2.08214835422443</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4735,13 +5043,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>4.5</v>
+        <v>97.5</v>
       </c>
       <c r="E60">
         <v>0.59899</v>
       </c>
       <c r="F60">
-        <v>1.829943711087029</v>
+        <v>-2.194436790415199</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4752,13 +5060,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>3.5</v>
+        <v>68.5</v>
       </c>
       <c r="E61">
         <v>0.59899</v>
       </c>
       <c r="F61">
-        <v>1.986718076069495</v>
+        <v>-0.4653231050005244</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4769,13 +5077,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="E62">
         <v>0.59899</v>
       </c>
       <c r="F62">
-        <v>3.58732799910286</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4786,13 +5094,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>0.59899</v>
       </c>
       <c r="F63">
-        <v>2.08214835422443</v>
+        <v>1.549401050221227</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4803,13 +5111,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E64">
         <v>0.59899</v>
       </c>
       <c r="F64">
-        <v>3.170636656961724</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -4820,13 +5128,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E65">
         <v>0.59899</v>
       </c>
       <c r="F65">
-        <v>3.170636656961724</v>
+        <v>1.763689504130906</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -4837,13 +5145,13 @@
         <v>135</v>
       </c>
       <c r="D66">
-        <v>84.5</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F66">
-        <v>-1.022583763448757</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
@@ -4854,13 +5162,13 @@
         <v>137</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>4.5</v>
       </c>
       <c r="E67">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F67">
-        <v>0.9998617833496319</v>
+        <v>1.829943711087029</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="100" customHeight="1">
@@ -4871,13 +5179,13 @@
         <v>139</v>
       </c>
       <c r="D68">
-        <v>89</v>
+        <v>3.5</v>
       </c>
       <c r="E68">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F68">
-        <v>-1.260654159218154</v>
+        <v>1.986718076069495</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="100" customHeight="1">
@@ -4888,13 +5196,13 @@
         <v>141</v>
       </c>
       <c r="D69">
-        <v>77.5</v>
+        <v>0.5</v>
       </c>
       <c r="E69">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F69">
-        <v>-0.7457307612919885</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="100" customHeight="1">
@@ -4905,13 +5213,13 @@
         <v>143</v>
       </c>
       <c r="D70">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F70">
-        <v>-0.7285754078363164</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="100" customHeight="1">
@@ -4922,13 +5230,13 @@
         <v>145</v>
       </c>
       <c r="D71">
-        <v>95</v>
+        <v>0.5</v>
       </c>
       <c r="E71">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F71">
-        <v>-1.775408371267989</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="100" customHeight="1">
@@ -4939,13 +5247,13 @@
         <v>147</v>
       </c>
       <c r="D72">
-        <v>43.5</v>
+        <v>0.5</v>
       </c>
       <c r="E72">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F72">
-        <v>0.1576644147438256</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="100" customHeight="1">
@@ -4956,13 +5264,13 @@
         <v>149</v>
       </c>
       <c r="D73">
-        <v>90</v>
+        <v>84.5</v>
       </c>
       <c r="E73">
         <v>0.60297</v>
       </c>
       <c r="F73">
-        <v>-1.32486050339642</v>
+        <v>-1.022583763448757</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="100" customHeight="1">
@@ -4973,13 +5281,13 @@
         <v>151</v>
       </c>
       <c r="D74">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E74">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F74">
-        <v>0.09604364396853164</v>
+        <v>0.9998617833496319</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="100" customHeight="1">
@@ -4990,13 +5298,13 @@
         <v>153</v>
       </c>
       <c r="D75">
-        <v>32.5</v>
+        <v>89</v>
       </c>
       <c r="E75">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F75">
-        <v>0.4377943087420472</v>
+        <v>-1.260654159218154</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="100" customHeight="1">
@@ -5007,13 +5315,13 @@
         <v>155</v>
       </c>
       <c r="D76">
-        <v>54.5</v>
+        <v>77.5</v>
       </c>
       <c r="E76">
-        <v>0.59899</v>
+        <v>0.60297</v>
       </c>
       <c r="F76">
-        <v>-0.1081107321679067</v>
+        <v>-0.7457307612919885</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="100" customHeight="1">
@@ -5024,12 +5332,131 @@
         <v>157</v>
       </c>
       <c r="D77">
+        <v>77</v>
+      </c>
+      <c r="E77">
+        <v>0.60297</v>
+      </c>
+      <c r="F77">
+        <v>-0.7285754078363164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="100" customHeight="1">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78">
+        <v>95</v>
+      </c>
+      <c r="E78">
+        <v>0.60297</v>
+      </c>
+      <c r="F78">
+        <v>-1.775408371267989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="100" customHeight="1">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79">
+        <v>43.5</v>
+      </c>
+      <c r="E79">
+        <v>0.60297</v>
+      </c>
+      <c r="F79">
+        <v>0.1576644147438256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="100" customHeight="1">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80">
+        <v>90</v>
+      </c>
+      <c r="E80">
+        <v>0.60297</v>
+      </c>
+      <c r="F80">
+        <v>-1.32486050339642</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="100" customHeight="1">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81">
+        <v>46</v>
+      </c>
+      <c r="E81">
+        <v>0.59899</v>
+      </c>
+      <c r="F81">
+        <v>0.09604364396853164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="100" customHeight="1">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82">
+        <v>32.5</v>
+      </c>
+      <c r="E82">
+        <v>0.59899</v>
+      </c>
+      <c r="F82">
+        <v>0.4377943087420472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="100" customHeight="1">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83">
+        <v>54.5</v>
+      </c>
+      <c r="E83">
+        <v>0.59899</v>
+      </c>
+      <c r="F83">
+        <v>-0.1081107321679067</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="100" customHeight="1">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84">
         <v>73.5</v>
       </c>
-      <c r="E77">
-        <v>0.59899</v>
-      </c>
-      <c r="F77">
+      <c r="E84">
+        <v>0.59899</v>
+      </c>
+      <c r="F84">
         <v>-0.6110540618560099</v>
       </c>
     </row>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>smiles</t>
   </si>
@@ -328,6 +328,24 @@
     <t>RNIDWJDZNNVFDY-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(C1=NC=CS1)C</t>
+  </si>
+  <si>
+    <t>MOMFXATYAINJML-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
+  </si>
+  <si>
+    <t>MYLYBCZMJRPTEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CC=C1)C</t>
+  </si>
+  <si>
+    <t>AJKVQEKCUACUMD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(C1=CN=CC=C1)C</t>
   </si>
   <si>
@@ -340,6 +358,12 @@
     <t>WMQUKDQWMMOHSA-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(C1=NC=CC=C1)C(C)C</t>
+  </si>
+  <si>
+    <t>OPPJOYDMQXHCFS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(C1CC1)C</t>
   </si>
   <si>
@@ -352,6 +376,54 @@
     <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(CN(C)C)C</t>
+  </si>
+  <si>
+    <t>VFPKIWATTACVJR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)c1ccccc1)C</t>
+  </si>
+  <si>
+    <t>SLOCEDWZEACARV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>UMLWXYJZDNNBTD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)C(=O)C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>WILPNXBAEMGDCS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CNC(=O)c1ccccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>MIJZKZQWQXKSPA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CN(C)C(=O)c1ccccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>KXARYBXYBGQZCM-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CN(C)C(=O)OC(C)(C)C)c2ccccc2</t>
+  </si>
+  <si>
+    <t>WFKSNAFHIMNMLV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
+  </si>
+  <si>
+    <t>BLNSEHDIFVBBKV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(c1ccccc1)CCN(C)C</t>
   </si>
   <si>
@@ -460,6 +532,24 @@
     <t>HDURLXYBKGWETC-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>C(=O)(c1ncccc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>GCSHUYKULREZSJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>BHDAKOZHMSQCFH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1cc(Cl)ccc1</t>
+  </si>
+  <si>
+    <t>DTEIFMBOVCPJGY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>C(=O)(c1cnccc1)c1ccccc1</t>
   </si>
   <si>
@@ -530,6 +620,12 @@
   </si>
   <si>
     <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CN2C=CN=C2)c1c(Cl)cc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>YAEYBUZMILPYLT-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -3723,6 +3819,614 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="104070150"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="105336975"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="106603800"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 86" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="107870625"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="109137450"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 88" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="110404275"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="111671100"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="112937925"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="114204750"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="115471575"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="116738400"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="118005225"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 95" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="119272050"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 96" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="120538875"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="121805700"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 98" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="123072525"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="124339350"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4020,7 +4724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4890,13 +5594,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>0.59899</v>
       </c>
       <c r="F51">
-        <v>3.170636656961724</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4907,13 +5611,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0.59899</v>
       </c>
       <c r="F52">
-        <v>3.170636656961724</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4924,13 +5628,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>0.59899</v>
       </c>
       <c r="F53">
-        <v>2.194436790415197</v>
+        <v>2.331161440365284</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4941,13 +5645,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>1.504845945705453</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4958,13 +5662,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>2.617255569149221</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4975,13 +5679,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <v>0.59899</v>
       </c>
       <c r="F56">
-        <v>1.903622463840116</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4992,13 +5696,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E57">
         <v>0.59899</v>
       </c>
       <c r="F57">
-        <v>3.170636656961724</v>
+        <v>2.194436790415197</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -5009,13 +5713,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="E58">
         <v>0.59899</v>
       </c>
       <c r="F58">
-        <v>1.316115549578622</v>
+        <v>1.504845945705453</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -5026,13 +5730,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59">
         <v>0.59899</v>
       </c>
       <c r="F59">
-        <v>2.752430839032118</v>
+        <v>1.903622463840116</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -5043,13 +5747,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>97.5</v>
+        <v>9.5</v>
       </c>
       <c r="E60">
         <v>0.59899</v>
       </c>
       <c r="F60">
-        <v>-2.194436790415199</v>
+        <v>1.350158232627011</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -5060,13 +5764,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>68.5</v>
+        <v>96.5</v>
       </c>
       <c r="E61">
         <v>0.59899</v>
       </c>
       <c r="F61">
-        <v>-0.4653231050005244</v>
+        <v>-1.986718076069497</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -5077,13 +5781,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>1.5</v>
+        <v>99.5</v>
       </c>
       <c r="E62">
         <v>0.59899</v>
       </c>
       <c r="F62">
-        <v>2.506528426687457</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -5094,13 +5798,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>97.5</v>
       </c>
       <c r="E63">
         <v>0.59899</v>
       </c>
       <c r="F63">
-        <v>1.549401050221227</v>
+        <v>-2.194436790415199</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -5111,13 +5815,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>1.5</v>
+        <v>99.5</v>
       </c>
       <c r="E64">
         <v>0.59899</v>
       </c>
       <c r="F64">
-        <v>2.506528426687457</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -5128,13 +5832,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>99.5</v>
       </c>
       <c r="E65">
         <v>0.59899</v>
       </c>
       <c r="F65">
-        <v>1.763689504130906</v>
+        <v>-3.170636656961734</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -5145,13 +5849,13 @@
         <v>135</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>98.5</v>
       </c>
       <c r="E66">
         <v>0.59899</v>
       </c>
       <c r="F66">
-        <v>2.08214835422443</v>
+        <v>-2.506528426687459</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
@@ -5162,13 +5866,13 @@
         <v>137</v>
       </c>
       <c r="D67">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="E67">
         <v>0.59899</v>
       </c>
       <c r="F67">
-        <v>1.829943711087029</v>
+        <v>2.617255569149221</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="100" customHeight="1">
@@ -5179,13 +5883,13 @@
         <v>139</v>
       </c>
       <c r="D68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <v>0.59899</v>
       </c>
       <c r="F68">
-        <v>1.986718076069495</v>
+        <v>1.903622463840116</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="100" customHeight="1">
@@ -5213,13 +5917,13 @@
         <v>143</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>0.59899</v>
       </c>
       <c r="F70">
-        <v>2.08214835422443</v>
+        <v>1.316115549578622</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="100" customHeight="1">
@@ -5230,13 +5934,13 @@
         <v>145</v>
       </c>
       <c r="D71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>0.59899</v>
       </c>
       <c r="F71">
-        <v>3.170636656961724</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="100" customHeight="1">
@@ -5247,13 +5951,13 @@
         <v>147</v>
       </c>
       <c r="D72">
-        <v>0.5</v>
+        <v>97.5</v>
       </c>
       <c r="E72">
         <v>0.59899</v>
       </c>
       <c r="F72">
-        <v>3.170636656961724</v>
+        <v>-2.194436790415199</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="100" customHeight="1">
@@ -5264,13 +5968,13 @@
         <v>149</v>
       </c>
       <c r="D73">
-        <v>84.5</v>
+        <v>68.5</v>
       </c>
       <c r="E73">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F73">
-        <v>-1.022583763448757</v>
+        <v>-0.4653231050005244</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="100" customHeight="1">
@@ -5281,13 +5985,13 @@
         <v>151</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>1.5</v>
       </c>
       <c r="E74">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F74">
-        <v>0.9998617833496319</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="100" customHeight="1">
@@ -5298,13 +6002,13 @@
         <v>153</v>
       </c>
       <c r="D75">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E75">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F75">
-        <v>-1.260654159218154</v>
+        <v>1.549401050221227</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="100" customHeight="1">
@@ -5315,13 +6019,13 @@
         <v>155</v>
       </c>
       <c r="D76">
-        <v>77.5</v>
+        <v>1.5</v>
       </c>
       <c r="E76">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F76">
-        <v>-0.7457307612919885</v>
+        <v>2.506528426687457</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="100" customHeight="1">
@@ -5332,13 +6036,13 @@
         <v>157</v>
       </c>
       <c r="D77">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F77">
-        <v>-0.7285754078363164</v>
+        <v>1.763689504130906</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="100" customHeight="1">
@@ -5349,13 +6053,13 @@
         <v>159</v>
       </c>
       <c r="D78">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F78">
-        <v>-1.775408371267989</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="100" customHeight="1">
@@ -5366,13 +6070,13 @@
         <v>161</v>
       </c>
       <c r="D79">
-        <v>43.5</v>
+        <v>4.5</v>
       </c>
       <c r="E79">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F79">
-        <v>0.1576644147438256</v>
+        <v>1.829943711087029</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="100" customHeight="1">
@@ -5383,13 +6087,13 @@
         <v>163</v>
       </c>
       <c r="D80">
-        <v>90</v>
+        <v>3.5</v>
       </c>
       <c r="E80">
-        <v>0.60297</v>
+        <v>0.59899</v>
       </c>
       <c r="F80">
-        <v>-1.32486050339642</v>
+        <v>1.986718076069495</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="100" customHeight="1">
@@ -5400,13 +6104,13 @@
         <v>165</v>
       </c>
       <c r="D81">
-        <v>46</v>
+        <v>0.5</v>
       </c>
       <c r="E81">
         <v>0.59899</v>
       </c>
       <c r="F81">
-        <v>0.09604364396853164</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="100" customHeight="1">
@@ -5417,13 +6121,13 @@
         <v>167</v>
       </c>
       <c r="D82">
-        <v>32.5</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>0.59899</v>
       </c>
       <c r="F82">
-        <v>0.4377943087420472</v>
+        <v>2.08214835422443</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="100" customHeight="1">
@@ -5434,13 +6138,13 @@
         <v>169</v>
       </c>
       <c r="D83">
-        <v>54.5</v>
+        <v>0.5</v>
       </c>
       <c r="E83">
         <v>0.59899</v>
       </c>
       <c r="F83">
-        <v>-0.1081107321679067</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="100" customHeight="1">
@@ -5451,13 +6155,285 @@
         <v>171</v>
       </c>
       <c r="D84">
+        <v>0.5</v>
+      </c>
+      <c r="E84">
+        <v>0.59899</v>
+      </c>
+      <c r="F84">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="100" customHeight="1">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85">
+        <v>15</v>
+      </c>
+      <c r="E85">
+        <v>0.60297</v>
+      </c>
+      <c r="F85">
+        <v>1.045912398367367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="100" customHeight="1">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+      <c r="E86">
+        <v>0.60297</v>
+      </c>
+      <c r="F86">
+        <v>0.8358939109244604</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="100" customHeight="1">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87">
+        <v>25</v>
+      </c>
+      <c r="E87">
+        <v>0.60297</v>
+      </c>
+      <c r="F87">
+        <v>0.6624302516982101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="100" customHeight="1">
+      <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88">
+        <v>84.5</v>
+      </c>
+      <c r="E88">
+        <v>0.60297</v>
+      </c>
+      <c r="F88">
+        <v>-1.022583763448757</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="100" customHeight="1">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89">
+        <v>16</v>
+      </c>
+      <c r="E89">
+        <v>0.60297</v>
+      </c>
+      <c r="F89">
+        <v>0.9998617833496319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="100" customHeight="1">
+      <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90">
+        <v>89</v>
+      </c>
+      <c r="E90">
+        <v>0.60297</v>
+      </c>
+      <c r="F90">
+        <v>-1.260654159218154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="100" customHeight="1">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91">
+        <v>77.5</v>
+      </c>
+      <c r="E91">
+        <v>0.60297</v>
+      </c>
+      <c r="F91">
+        <v>-0.7457307612919885</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="100" customHeight="1">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92">
+        <v>77</v>
+      </c>
+      <c r="E92">
+        <v>0.60297</v>
+      </c>
+      <c r="F92">
+        <v>-0.7285754078363164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="100" customHeight="1">
+      <c r="A93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93">
+        <v>95</v>
+      </c>
+      <c r="E93">
+        <v>0.60297</v>
+      </c>
+      <c r="F93">
+        <v>-1.775408371267989</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="100" customHeight="1">
+      <c r="A94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94">
+        <v>43.5</v>
+      </c>
+      <c r="E94">
+        <v>0.60297</v>
+      </c>
+      <c r="F94">
+        <v>0.1576644147438256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="100" customHeight="1">
+      <c r="A95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95">
+        <v>90</v>
+      </c>
+      <c r="E95">
+        <v>0.60297</v>
+      </c>
+      <c r="F95">
+        <v>-1.32486050339642</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="100" customHeight="1">
+      <c r="A96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96">
+        <v>46</v>
+      </c>
+      <c r="E96">
+        <v>0.59899</v>
+      </c>
+      <c r="F96">
+        <v>0.09604364396853164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="100" customHeight="1">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97">
+        <v>32.5</v>
+      </c>
+      <c r="E97">
+        <v>0.59899</v>
+      </c>
+      <c r="F97">
+        <v>0.4377943087420472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="100" customHeight="1">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98">
+        <v>54.5</v>
+      </c>
+      <c r="E98">
+        <v>0.59899</v>
+      </c>
+      <c r="F98">
+        <v>-0.1081107321679067</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="100" customHeight="1">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99">
         <v>73.5</v>
       </c>
-      <c r="E84">
-        <v>0.59899</v>
-      </c>
-      <c r="F84">
+      <c r="E99">
+        <v>0.59899</v>
+      </c>
+      <c r="F99">
         <v>-0.6110540618560099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="100" customHeight="1">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100">
+        <v>99.5</v>
+      </c>
+      <c r="E100">
+        <v>0.59302</v>
+      </c>
+      <c r="F100">
+        <v>-3.139035627158129</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="210">
   <si>
     <t>smiles</t>
   </si>
@@ -34,18 +34,27 @@
     <t>ΔΔG.expt.</t>
   </si>
   <si>
+    <t>Reference url</t>
+  </si>
+  <si>
     <t>c1ccccc1C(=O)C</t>
   </si>
   <si>
     <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5</t>
+  </si>
+  <si>
     <t>c1ccccc1C(=O)CC</t>
   </si>
   <si>
     <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
     <t>C(=O)(c1ccccc1)C(C)C</t>
   </si>
   <si>
@@ -538,6 +547,9 @@
     <t>GCSHUYKULREZSJ-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0040402008012374?via%3Dihub</t>
+  </si>
+  <si>
     <t>C(=O)(c1ncccc1)c1ccc(C)cc1</t>
   </si>
   <si>
@@ -604,6 +616,9 @@
     <t>WXPWZZHELZEVPO-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/full/10.1021/ol9904139</t>
+  </si>
+  <si>
     <t>C(=O)(c1ccc(OC)cc1)c1ccccc1</t>
   </si>
   <si>
@@ -626,6 +641,9 @@
   </si>
   <si>
     <t>YAEYBUZMILPYLT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>https://pubs.rsc.org/en/content/articlepdf/2022/cc/d2cc03701g</t>
   </si>
 </sst>
 </file>
@@ -4724,7 +4742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4733,7 +4751,7 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4752,13 +4770,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="100" customHeight="1">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="100" customHeight="1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -4769,13 +4790,16 @@
       <c r="F2">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="100" customHeight="1">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="100" customHeight="1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>0.5</v>
@@ -4786,13 +4810,16 @@
       <c r="F3">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="100" customHeight="1">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="100" customHeight="1">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -4803,13 +4830,16 @@
       <c r="F4">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="100" customHeight="1">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="100" customHeight="1">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -4820,13 +4850,16 @@
       <c r="F5">
         <v>2.331161440365284</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="100" customHeight="1">
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="100" customHeight="1">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -4837,13 +4870,16 @@
       <c r="F6">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="100" customHeight="1">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="100" customHeight="1">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1.5</v>
@@ -4854,13 +4890,16 @@
       <c r="F7">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="100" customHeight="1">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="100" customHeight="1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4871,13 +4910,16 @@
       <c r="F8">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="100" customHeight="1">
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="100" customHeight="1">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -4888,13 +4930,16 @@
       <c r="F9">
         <v>2.331161440365284</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="100" customHeight="1">
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="100" customHeight="1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>0.5</v>
@@ -4905,13 +4950,16 @@
       <c r="F10">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="100" customHeight="1">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="100" customHeight="1">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -4922,13 +4970,16 @@
       <c r="F11">
         <v>1.903622463840116</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="100" customHeight="1">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="100" customHeight="1">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4939,13 +4990,16 @@
       <c r="F12">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="100" customHeight="1">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="100" customHeight="1">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>0.5</v>
@@ -4956,13 +5010,16 @@
       <c r="F13">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="100" customHeight="1">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="100" customHeight="1">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4973,13 +5030,16 @@
       <c r="F14">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="100" customHeight="1">
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="100" customHeight="1">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>0.5</v>
@@ -4990,13 +5050,16 @@
       <c r="F15">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="100" customHeight="1">
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="100" customHeight="1">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>0.5</v>
@@ -5007,13 +5070,16 @@
       <c r="F16">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="100" customHeight="1">
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="100" customHeight="1">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>0.5</v>
@@ -5024,13 +5090,16 @@
       <c r="F17">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="100" customHeight="1">
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100" customHeight="1">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5041,13 +5110,16 @@
       <c r="F18">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="100" customHeight="1">
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100" customHeight="1">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5058,13 +5130,16 @@
       <c r="F19">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="100" customHeight="1">
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100" customHeight="1">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>1.5</v>
@@ -5075,13 +5150,16 @@
       <c r="F20">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="100" customHeight="1">
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="100" customHeight="1">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>1.5</v>
@@ -5092,13 +5170,16 @@
       <c r="F21">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="100" customHeight="1">
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="100" customHeight="1">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>0.5</v>
@@ -5109,13 +5190,16 @@
       <c r="F22">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="100" customHeight="1">
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="100" customHeight="1">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>0.5</v>
@@ -5126,13 +5210,16 @@
       <c r="F23">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="100" customHeight="1">
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="100" customHeight="1">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D24">
         <v>0.5</v>
@@ -5143,13 +5230,16 @@
       <c r="F24">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="100" customHeight="1">
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="100" customHeight="1">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>0.5</v>
@@ -5160,13 +5250,16 @@
       <c r="F25">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="100" customHeight="1">
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="100" customHeight="1">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <v>0.5</v>
@@ -5177,13 +5270,16 @@
       <c r="F26">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="100" customHeight="1">
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="100" customHeight="1">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D27">
         <v>0.5</v>
@@ -5194,13 +5290,16 @@
       <c r="F27">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="100" customHeight="1">
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="100" customHeight="1">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>0.5</v>
@@ -5211,13 +5310,16 @@
       <c r="F28">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="100" customHeight="1">
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="100" customHeight="1">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>0.5</v>
@@ -5228,13 +5330,16 @@
       <c r="F29">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="100" customHeight="1">
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="100" customHeight="1">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <v>0.5</v>
@@ -5245,13 +5350,16 @@
       <c r="F30">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="100" customHeight="1">
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="100" customHeight="1">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <v>1.5</v>
@@ -5262,13 +5370,16 @@
       <c r="F31">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="100" customHeight="1">
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="100" customHeight="1">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -5279,13 +5390,16 @@
       <c r="F32">
         <v>2.331161440365284</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="100" customHeight="1">
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="100" customHeight="1">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D33">
         <v>0.5</v>
@@ -5296,13 +5410,16 @@
       <c r="F33">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="100" customHeight="1">
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="100" customHeight="1">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -5313,13 +5430,16 @@
       <c r="F34">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="100" customHeight="1">
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="100" customHeight="1">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D35">
         <v>0.5</v>
@@ -5330,13 +5450,16 @@
       <c r="F35">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="100" customHeight="1">
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="100" customHeight="1">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D36">
         <v>98</v>
@@ -5347,13 +5470,16 @@
       <c r="F36">
         <v>-2.331161440365284</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="100" customHeight="1">
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="100" customHeight="1">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D37">
         <v>97</v>
@@ -5364,13 +5490,16 @@
       <c r="F37">
         <v>-2.082148354224433</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="100" customHeight="1">
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="100" customHeight="1">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D38">
         <v>97</v>
@@ -5381,13 +5510,16 @@
       <c r="F38">
         <v>-2.082148354224433</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="100" customHeight="1">
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="100" customHeight="1">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D39">
         <v>98</v>
@@ -5398,13 +5530,16 @@
       <c r="F39">
         <v>-2.331161440365284</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="100" customHeight="1">
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="100" customHeight="1">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D40">
         <v>96.5</v>
@@ -5415,13 +5550,16 @@
       <c r="F40">
         <v>-1.986718076069497</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="100" customHeight="1">
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="100" customHeight="1">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>99.5</v>
@@ -5432,13 +5570,16 @@
       <c r="F41">
         <v>-3.170636656961734</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="100" customHeight="1">
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="100" customHeight="1">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D42">
         <v>98.5</v>
@@ -5449,13 +5590,16 @@
       <c r="F42">
         <v>-2.506528426687459</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="100" customHeight="1">
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="100" customHeight="1">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D43">
         <v>98.5</v>
@@ -5466,13 +5610,16 @@
       <c r="F43">
         <v>-2.506528426687459</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="100" customHeight="1">
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="100" customHeight="1">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D44">
         <v>98</v>
@@ -5483,13 +5630,16 @@
       <c r="F44">
         <v>-2.331161440365284</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="100" customHeight="1">
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="100" customHeight="1">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D45">
         <v>99.5</v>
@@ -5500,13 +5650,16 @@
       <c r="F45">
         <v>-3.170636656961734</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="100" customHeight="1">
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="100" customHeight="1">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D46">
         <v>0.5</v>
@@ -5517,13 +5670,16 @@
       <c r="F46">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="100" customHeight="1">
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="100" customHeight="1">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -5534,13 +5690,16 @@
       <c r="F47">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="100" customHeight="1">
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="100" customHeight="1">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D48">
         <v>0.5</v>
@@ -5551,13 +5710,16 @@
       <c r="F48">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="100" customHeight="1">
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="100" customHeight="1">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D49">
         <v>1.5</v>
@@ -5568,13 +5730,16 @@
       <c r="F49">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="100" customHeight="1">
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="100" customHeight="1">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D50">
         <v>0.5</v>
@@ -5585,13 +5750,16 @@
       <c r="F50">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="100" customHeight="1">
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="100" customHeight="1">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -5602,13 +5770,16 @@
       <c r="F51">
         <v>2.331161440365284</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="100" customHeight="1">
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="100" customHeight="1">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -5619,13 +5790,16 @@
       <c r="F52">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="100" customHeight="1">
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="100" customHeight="1">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -5636,13 +5810,16 @@
       <c r="F53">
         <v>2.331161440365284</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="100" customHeight="1">
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="100" customHeight="1">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D54">
         <v>0.5</v>
@@ -5653,13 +5830,16 @@
       <c r="F54">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="100" customHeight="1">
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="100" customHeight="1">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D55">
         <v>0.5</v>
@@ -5670,13 +5850,16 @@
       <c r="F55">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="100" customHeight="1">
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="100" customHeight="1">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -5687,13 +5870,16 @@
       <c r="F56">
         <v>2.08214835422443</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="100" customHeight="1">
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="100" customHeight="1">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D57">
         <v>2.5</v>
@@ -5704,13 +5890,16 @@
       <c r="F57">
         <v>2.194436790415197</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="100" customHeight="1">
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="100" customHeight="1">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D58">
         <v>7.5</v>
@@ -5721,13 +5910,16 @@
       <c r="F58">
         <v>1.504845945705453</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="100" customHeight="1">
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="100" customHeight="1">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -5738,13 +5930,16 @@
       <c r="F59">
         <v>1.903622463840116</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="100" customHeight="1">
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="100" customHeight="1">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D60">
         <v>9.5</v>
@@ -5755,13 +5950,16 @@
       <c r="F60">
         <v>1.350158232627011</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="100" customHeight="1">
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="100" customHeight="1">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D61">
         <v>96.5</v>
@@ -5772,13 +5970,16 @@
       <c r="F61">
         <v>-1.986718076069497</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="100" customHeight="1">
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="100" customHeight="1">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D62">
         <v>99.5</v>
@@ -5789,13 +5990,16 @@
       <c r="F62">
         <v>-3.170636656961734</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="100" customHeight="1">
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="100" customHeight="1">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D63">
         <v>97.5</v>
@@ -5806,13 +6010,16 @@
       <c r="F63">
         <v>-2.194436790415199</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="100" customHeight="1">
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="100" customHeight="1">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D64">
         <v>99.5</v>
@@ -5823,13 +6030,16 @@
       <c r="F64">
         <v>-3.170636656961734</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="100" customHeight="1">
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="100" customHeight="1">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D65">
         <v>99.5</v>
@@ -5840,13 +6050,16 @@
       <c r="F65">
         <v>-3.170636656961734</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="100" customHeight="1">
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="100" customHeight="1">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D66">
         <v>98.5</v>
@@ -5857,13 +6070,16 @@
       <c r="F66">
         <v>-2.506528426687459</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="100" customHeight="1">
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="100" customHeight="1">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D67">
         <v>1.25</v>
@@ -5874,13 +6090,16 @@
       <c r="F67">
         <v>2.617255569149221</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="100" customHeight="1">
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="100" customHeight="1">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -5891,13 +6110,16 @@
       <c r="F68">
         <v>1.903622463840116</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="100" customHeight="1">
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="100" customHeight="1">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D69">
         <v>0.5</v>
@@ -5908,13 +6130,16 @@
       <c r="F69">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="100" customHeight="1">
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="100" customHeight="1">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D70">
         <v>10</v>
@@ -5925,13 +6150,16 @@
       <c r="F70">
         <v>1.316115549578622</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="100" customHeight="1">
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="100" customHeight="1">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -5942,13 +6170,16 @@
       <c r="F71">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="100" customHeight="1">
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="100" customHeight="1">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D72">
         <v>97.5</v>
@@ -5959,13 +6190,16 @@
       <c r="F72">
         <v>-2.194436790415199</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="100" customHeight="1">
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="100" customHeight="1">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D73">
         <v>68.5</v>
@@ -5976,13 +6210,16 @@
       <c r="F73">
         <v>-0.4653231050005244</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="100" customHeight="1">
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="100" customHeight="1">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D74">
         <v>1.5</v>
@@ -5993,13 +6230,16 @@
       <c r="F74">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="100" customHeight="1">
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="100" customHeight="1">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D75">
         <v>7</v>
@@ -6010,13 +6250,16 @@
       <c r="F75">
         <v>1.549401050221227</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="100" customHeight="1">
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="100" customHeight="1">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D76">
         <v>1.5</v>
@@ -6027,13 +6270,16 @@
       <c r="F76">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="100" customHeight="1">
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="100" customHeight="1">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -6044,13 +6290,16 @@
       <c r="F77">
         <v>1.763689504130906</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="100" customHeight="1">
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="100" customHeight="1">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -6061,13 +6310,16 @@
       <c r="F78">
         <v>2.08214835422443</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="100" customHeight="1">
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="100" customHeight="1">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D79">
         <v>4.5</v>
@@ -6078,13 +6330,16 @@
       <c r="F79">
         <v>1.829943711087029</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="100" customHeight="1">
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="100" customHeight="1">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D80">
         <v>3.5</v>
@@ -6095,13 +6350,16 @@
       <c r="F80">
         <v>1.986718076069495</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="100" customHeight="1">
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="100" customHeight="1">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D81">
         <v>0.5</v>
@@ -6112,13 +6370,16 @@
       <c r="F81">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="100" customHeight="1">
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="100" customHeight="1">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -6129,13 +6390,16 @@
       <c r="F82">
         <v>2.08214835422443</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="100" customHeight="1">
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="100" customHeight="1">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D83">
         <v>0.5</v>
@@ -6146,13 +6410,16 @@
       <c r="F83">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="100" customHeight="1">
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="100" customHeight="1">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D84">
         <v>0.5</v>
@@ -6163,13 +6430,16 @@
       <c r="F84">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="100" customHeight="1">
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="100" customHeight="1">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D85">
         <v>15</v>
@@ -6180,13 +6450,16 @@
       <c r="F85">
         <v>1.045912398367367</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="100" customHeight="1">
+      <c r="G85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="100" customHeight="1">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D86">
         <v>20</v>
@@ -6197,13 +6470,16 @@
       <c r="F86">
         <v>0.8358939109244604</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="100" customHeight="1">
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="100" customHeight="1">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D87">
         <v>25</v>
@@ -6214,13 +6490,16 @@
       <c r="F87">
         <v>0.6624302516982101</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="100" customHeight="1">
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="100" customHeight="1">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D88">
         <v>84.5</v>
@@ -6231,13 +6510,16 @@
       <c r="F88">
         <v>-1.022583763448757</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="100" customHeight="1">
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="100" customHeight="1">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D89">
         <v>16</v>
@@ -6248,13 +6530,16 @@
       <c r="F89">
         <v>0.9998617833496319</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="100" customHeight="1">
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="100" customHeight="1">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -6265,13 +6550,16 @@
       <c r="F90">
         <v>-1.260654159218154</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="100" customHeight="1">
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="100" customHeight="1">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D91">
         <v>77.5</v>
@@ -6282,13 +6570,16 @@
       <c r="F91">
         <v>-0.7457307612919885</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="100" customHeight="1">
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="100" customHeight="1">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D92">
         <v>77</v>
@@ -6299,13 +6590,16 @@
       <c r="F92">
         <v>-0.7285754078363164</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="100" customHeight="1">
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="100" customHeight="1">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C93" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D93">
         <v>95</v>
@@ -6316,13 +6610,16 @@
       <c r="F93">
         <v>-1.775408371267989</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="100" customHeight="1">
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="100" customHeight="1">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D94">
         <v>43.5</v>
@@ -6333,13 +6630,16 @@
       <c r="F94">
         <v>0.1576644147438256</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="100" customHeight="1">
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="100" customHeight="1">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C95" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D95">
         <v>90</v>
@@ -6350,13 +6650,16 @@
       <c r="F95">
         <v>-1.32486050339642</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="100" customHeight="1">
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="100" customHeight="1">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D96">
         <v>46</v>
@@ -6367,13 +6670,16 @@
       <c r="F96">
         <v>0.09604364396853164</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="100" customHeight="1">
+      <c r="G96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="100" customHeight="1">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D97">
         <v>32.5</v>
@@ -6384,13 +6690,16 @@
       <c r="F97">
         <v>0.4377943087420472</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="100" customHeight="1">
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="100" customHeight="1">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D98">
         <v>54.5</v>
@@ -6401,13 +6710,16 @@
       <c r="F98">
         <v>-0.1081107321679067</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="100" customHeight="1">
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="100" customHeight="1">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D99">
         <v>73.5</v>
@@ -6418,13 +6730,16 @@
       <c r="F99">
         <v>-0.6110540618560099</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="100" customHeight="1">
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="100" customHeight="1">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D100">
         <v>99.5</v>
@@ -6434,6 +6749,9 @@
       </c>
       <c r="F100">
         <v>-3.139035627158129</v>
+      </c>
+      <c r="G100" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="243">
   <si>
     <t>smiles</t>
   </si>
@@ -608,6 +608,105 @@
   </si>
   <si>
     <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C(C(F)(F)F)(C(F)(F)F)OCOC)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>RDYXHIZMFBMAOS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/epdf/10.1021/ol0360795</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>VUVSIPWGRHQUGS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C3(C)OCCO3)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FHQKWASXMQBSCT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>DHLKAJJXHDNVDN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>LCWRNKBOWMZEKT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>DNNFCPLFPRGBHI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=NC=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>IYZPWGMIISJDTP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CSC(C)=N2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>LXZSCYZOMOPQEF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>KHXSJSBQIWAIEG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(OC)cc1</t>
+  </si>
+  <si>
+    <t>ZYZQOYSKLICWGX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>GWXTVPWMINBKEI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2nccc3ccccc23)c1ccccc1</t>
+  </si>
+  <si>
+    <t>MDWCIKACMBMJFA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cnc(OC)cc1</t>
+  </si>
+  <si>
+    <t>RJOOVWVGRDXTKN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(OC)cccc1)C2=CN(c3ccccc3)N=C2</t>
+  </si>
+  <si>
+    <t>XTIVLYSLPXZKLH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CN=C([Si](C(C)(C))(C(C)(C))C(C)(C))O1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>IJPGLDZXSJKFQQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ncccc1)c2cc(C(F)(F)F)nc3c(C(F)(F)F)cccc23</t>
+  </si>
+  <si>
+    <t>GZTUXOWPGYDWNO-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
@@ -4445,6 +4544,614 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="124339350"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="125606175"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="126873000"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="128139825"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="129406650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="130673475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="131940300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="133207125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="134473950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Picture 108" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="135740775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="137007600"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 110" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="138274425"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="139541250"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Picture 112" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="140808075"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 113" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="142074900"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Picture 114" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="143341725"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 115" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="144608550"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4742,7 +5449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6662,13 +7369,13 @@
         <v>199</v>
       </c>
       <c r="D96">
-        <v>46</v>
+        <v>98.75</v>
       </c>
       <c r="E96">
-        <v>0.59899</v>
+        <v>0.59302</v>
       </c>
       <c r="F96">
-        <v>0.09604364396853164</v>
+        <v>-2.59116996546999</v>
       </c>
       <c r="G96" t="s">
         <v>200</v>
@@ -6682,13 +7389,13 @@
         <v>202</v>
       </c>
       <c r="D97">
-        <v>32.5</v>
+        <v>98.5</v>
       </c>
       <c r="E97">
-        <v>0.59899</v>
+        <v>0.59302</v>
       </c>
       <c r="F97">
-        <v>0.4377943087420472</v>
+        <v>-2.481546415790242</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
@@ -6702,13 +7409,13 @@
         <v>204</v>
       </c>
       <c r="D98">
-        <v>54.5</v>
+        <v>96</v>
       </c>
       <c r="E98">
-        <v>0.59899</v>
+        <v>0.59302</v>
       </c>
       <c r="F98">
-        <v>-0.1081107321679067</v>
+        <v>-1.884649482472938</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
@@ -6722,13 +7429,13 @@
         <v>206</v>
       </c>
       <c r="D99">
-        <v>73.5</v>
+        <v>99.5</v>
       </c>
       <c r="E99">
-        <v>0.59899</v>
+        <v>0.59302</v>
       </c>
       <c r="F99">
-        <v>-0.6110540618560099</v>
+        <v>-3.139035627158129</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
@@ -6742,16 +7449,336 @@
         <v>208</v>
       </c>
       <c r="D100">
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="E100">
         <v>0.59302</v>
       </c>
       <c r="F100">
+        <v>-2.481546415790242</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="100" customHeight="1">
+      <c r="A101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101">
+        <v>97.5</v>
+      </c>
+      <c r="E101">
+        <v>0.59302</v>
+      </c>
+      <c r="F101">
+        <v>-2.172565327387805</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="100" customHeight="1">
+      <c r="A102" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E102">
+        <v>0.59302</v>
+      </c>
+      <c r="F102">
+        <v>-0.5338637297374831</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="100" customHeight="1">
+      <c r="A103" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E103">
+        <v>0.59302</v>
+      </c>
+      <c r="F103">
+        <v>1.42459229596199</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="100" customHeight="1">
+      <c r="A104" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" t="s">
+        <v>216</v>
+      </c>
+      <c r="D104">
+        <v>12.6</v>
+      </c>
+      <c r="E104">
+        <v>0.59302</v>
+      </c>
+      <c r="F104">
+        <v>1.14856022791088</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="100" customHeight="1">
+      <c r="A105" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105">
+        <v>5.25</v>
+      </c>
+      <c r="E105">
+        <v>0.59302</v>
+      </c>
+      <c r="F105">
+        <v>1.715615024319236</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="100" customHeight="1">
+      <c r="A106" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106">
+        <v>0.649999999999999</v>
+      </c>
+      <c r="E106">
+        <v>0.59302</v>
+      </c>
+      <c r="F106">
+        <v>2.982553696496239</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="100" customHeight="1">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107">
+        <v>95.7</v>
+      </c>
+      <c r="E107">
+        <v>0.59302</v>
+      </c>
+      <c r="F107">
+        <v>-1.839905794590835</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="100" customHeight="1">
+      <c r="A108" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108">
+        <v>97.2</v>
+      </c>
+      <c r="E108">
+        <v>0.59302</v>
+      </c>
+      <c r="F108">
+        <v>-2.10353166053703</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="100" customHeight="1">
+      <c r="A109" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109">
+        <v>96.8</v>
+      </c>
+      <c r="E109">
+        <v>0.59302</v>
+      </c>
+      <c r="F109">
+        <v>-2.02189942731846</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="100" customHeight="1">
+      <c r="A110" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110">
+        <v>99.5</v>
+      </c>
+      <c r="E110">
+        <v>0.59302</v>
+      </c>
+      <c r="F110">
         <v>-3.139035627158129</v>
       </c>
-      <c r="G100" t="s">
-        <v>209</v>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="100" customHeight="1">
+      <c r="A111" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>0.59302</v>
+      </c>
+      <c r="F111">
+        <v>1.631715471340137</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="100" customHeight="1">
+      <c r="A112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112">
+        <v>46</v>
+      </c>
+      <c r="E112">
+        <v>0.59899</v>
+      </c>
+      <c r="F112">
+        <v>0.09604364396853164</v>
+      </c>
+      <c r="G112" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="100" customHeight="1">
+      <c r="A113" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" t="s">
+        <v>235</v>
+      </c>
+      <c r="D113">
+        <v>32.5</v>
+      </c>
+      <c r="E113">
+        <v>0.59899</v>
+      </c>
+      <c r="F113">
+        <v>0.4377943087420472</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="100" customHeight="1">
+      <c r="A114" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" t="s">
+        <v>237</v>
+      </c>
+      <c r="D114">
+        <v>54.5</v>
+      </c>
+      <c r="E114">
+        <v>0.59899</v>
+      </c>
+      <c r="F114">
+        <v>-0.1081107321679067</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="100" customHeight="1">
+      <c r="A115" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115">
+        <v>73.5</v>
+      </c>
+      <c r="E115">
+        <v>0.59899</v>
+      </c>
+      <c r="F115">
+        <v>-0.6110540618560099</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="100" customHeight="1">
+      <c r="A116" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" t="s">
+        <v>241</v>
+      </c>
+      <c r="D116">
+        <v>99.5</v>
+      </c>
+      <c r="E116">
+        <v>0.59302</v>
+      </c>
+      <c r="F116">
+        <v>-3.139035627158129</v>
+      </c>
+      <c r="G116" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/RuSS.xlsx
+++ b/arranged_dataset/RuSS.xlsx
@@ -5709,13 +5709,13 @@
         <v>32</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E13">
         <v>0.59899</v>
       </c>
       <c r="F13">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -5749,13 +5749,13 @@
         <v>36</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E15">
         <v>0.59899</v>
       </c>
       <c r="F15">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -5889,13 +5889,13 @@
         <v>50</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E22">
         <v>0.59899</v>
       </c>
       <c r="F22">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -5909,13 +5909,13 @@
         <v>52</v>
       </c>
       <c r="D23">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E23">
         <v>0.59899</v>
       </c>
       <c r="F23">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -5929,13 +5929,13 @@
         <v>54</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E24">
         <v>0.59899</v>
       </c>
       <c r="F24">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -5969,13 +5969,13 @@
         <v>58</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E26">
         <v>0.59899</v>
       </c>
       <c r="F26">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -6109,13 +6109,13 @@
         <v>72</v>
       </c>
       <c r="D33">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E33">
         <v>0.59899</v>
       </c>
       <c r="F33">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -6349,13 +6349,13 @@
         <v>96</v>
       </c>
       <c r="D45">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="E45">
         <v>0.59899</v>
       </c>
       <c r="F45">
-        <v>-3.170636656961734</v>
+        <v>-3.47781888891013</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -6449,13 +6449,13 @@
         <v>106</v>
       </c>
       <c r="D50">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E50">
         <v>0.59899</v>
       </c>
       <c r="F50">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -6529,13 +6529,13 @@
         <v>114</v>
       </c>
       <c r="D54">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
@@ -6549,13 +6549,13 @@
         <v>116</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -6729,13 +6729,13 @@
         <v>134</v>
       </c>
       <c r="D64">
-        <v>99.5</v>
+        <v>99.75</v>
       </c>
       <c r="E64">
         <v>0.59899</v>
       </c>
       <c r="F64">
-        <v>-3.170636656961734</v>
+        <v>-3.587327999102873</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
@@ -7069,13 +7069,13 @@
         <v>168</v>
       </c>
       <c r="D81">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E81">
         <v>0.59899</v>
       </c>
       <c r="F81">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
@@ -7649,13 +7649,13 @@
         <v>228</v>
       </c>
       <c r="D110">
-        <v>99.5</v>
+        <v>99.75</v>
       </c>
       <c r="E110">
         <v>0.59302</v>
       </c>
       <c r="F110">
-        <v>-3.139035627158129</v>
+        <v>-3.55157389944404</v>
       </c>
       <c r="G110" t="s">
         <v>12</v>
